--- a/Results/SingleDim/Matrix Analysis/ttest_matrix.xlsx
+++ b/Results/SingleDim/Matrix Analysis/ttest_matrix.xlsx
@@ -657,136 +657,136 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8664653404338948</v>
+        <v>0.5667068690182494</v>
       </c>
       <c r="D2">
-        <v>0.375175756636738</v>
+        <v>0.4901152698333068</v>
       </c>
       <c r="E2">
-        <v>0.4414543300923132</v>
+        <v>0.2618229444498623</v>
       </c>
       <c r="F2">
-        <v>0.8059885863324101</v>
+        <v>0.4714492822929026</v>
       </c>
       <c r="G2">
-        <v>0.4108871005541151</v>
+        <v>0.1949294179200168</v>
       </c>
       <c r="H2">
-        <v>0.7931258487746391</v>
+        <v>0.6334012195769028</v>
       </c>
       <c r="I2">
-        <v>0.5484200683678191</v>
+        <v>0.6667913077731102</v>
       </c>
       <c r="J2">
-        <v>0.3428828299170692</v>
+        <v>0.3517927473405437</v>
       </c>
       <c r="K2">
-        <v>0.5434951571359607</v>
+        <v>0.2056699456560362</v>
       </c>
       <c r="L2">
-        <v>0.3756369783934043</v>
+        <v>0.202542789303521</v>
       </c>
       <c r="M2">
-        <v>0.3934814512973298</v>
+        <v>0.1765570164448262</v>
       </c>
       <c r="N2">
-        <v>0.9173583100743496</v>
+        <v>0.7394041749942482</v>
       </c>
       <c r="O2">
-        <v>0.4251433097587723</v>
+        <v>0.1914080702833628</v>
       </c>
       <c r="P2">
-        <v>0.3249688735980015</v>
+        <v>0.1808508864362269</v>
       </c>
       <c r="Q2">
-        <v>0.425356555432182</v>
+        <v>0.2391295577992699</v>
       </c>
       <c r="R2">
-        <v>0.3289809001509021</v>
+        <v>0.1756429276990438</v>
       </c>
       <c r="S2">
-        <v>0.3185447416899761</v>
+        <v>0.1671771696139506</v>
       </c>
       <c r="T2">
-        <v>0.3347753375709007</v>
+        <v>0.1991250850696119</v>
       </c>
       <c r="U2">
-        <v>0.3478393698702732</v>
+        <v>0.1888737383424877</v>
       </c>
       <c r="V2">
-        <v>0.3432866851482268</v>
+        <v>0.1938884883115777</v>
       </c>
       <c r="W2">
-        <v>0.9603301865461205</v>
+        <v>0.8859132966037782</v>
       </c>
       <c r="X2">
-        <v>0.3490867960892454</v>
+        <v>0.2012260265487225</v>
       </c>
       <c r="Y2">
-        <v>0.3942899560682229</v>
+        <v>0.3380883923256374</v>
       </c>
       <c r="Z2">
-        <v>0.3435012209005073</v>
+        <v>0.1671112100420955</v>
       </c>
       <c r="AA2">
-        <v>0.3345713187527496</v>
+        <v>0.2204229329524477</v>
       </c>
       <c r="AB2">
-        <v>0.3433245003834895</v>
+        <v>0.2125687807623456</v>
       </c>
       <c r="AC2">
-        <v>0.5205799335041241</v>
+        <v>0.4731239747490056</v>
       </c>
       <c r="AD2">
-        <v>0.5428259126039627</v>
+        <v>0.1958043525752987</v>
       </c>
       <c r="AE2">
-        <v>0.9778061768412392</v>
+        <v>0.1803761200913158</v>
       </c>
       <c r="AF2">
-        <v>0.4955831176971331</v>
+        <v>0.2016628221039066</v>
       </c>
       <c r="AG2">
-        <v>0.7750200131854564</v>
+        <v>0.192033034411983</v>
       </c>
       <c r="AH2">
-        <v>0.9685602676571174</v>
+        <v>0.2142235792187487</v>
       </c>
       <c r="AI2">
-        <v>0.8113313367495908</v>
+        <v>0.2447616328265825</v>
       </c>
       <c r="AJ2">
-        <v>0.4864543148207993</v>
+        <v>0.2620982184094339</v>
       </c>
       <c r="AK2">
-        <v>0.4323850344248428</v>
+        <v>0.2282253787976109</v>
       </c>
       <c r="AL2">
-        <v>0.8605197098944487</v>
+        <v>0.1848340783249099</v>
       </c>
       <c r="AM2">
-        <v>0.4942272740304986</v>
+        <v>0.1811927779978242</v>
       </c>
       <c r="AN2">
-        <v>0.9016399991187797</v>
+        <v>0.18017999735194</v>
       </c>
       <c r="AO2">
-        <v>0.473160760598188</v>
+        <v>0.1765234392337952</v>
       </c>
       <c r="AP2">
-        <v>0.9847377598096105</v>
+        <v>0.1829168919545664</v>
       </c>
       <c r="AQ2">
-        <v>0.4511462318237128</v>
+        <v>0.1755137336422525</v>
       </c>
       <c r="AR2">
-        <v>0.7587937125882357</v>
+        <v>0.2241654392987377</v>
       </c>
       <c r="AS2">
-        <v>0.6597761674019229</v>
+        <v>0.2035788800176424</v>
       </c>
       <c r="AT2">
-        <v>0.8802706424449871</v>
+        <v>0.1871466169241719</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -794,139 +794,139 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8664653404338948</v>
+        <v>0.5667068690182494</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3122722959968147</v>
+        <v>0.8938412285872367</v>
       </c>
       <c r="E3">
-        <v>0.366505317336001</v>
+        <v>0.4983336989435461</v>
       </c>
       <c r="F3">
-        <v>0.6828224303380777</v>
+        <v>0.2488297412976754</v>
       </c>
       <c r="G3">
-        <v>0.3413938919254148</v>
+        <v>0.357585955954199</v>
       </c>
       <c r="H3">
-        <v>0.6710563719918845</v>
+        <v>0.3317293386229734</v>
       </c>
       <c r="I3">
-        <v>0.4559069242450321</v>
+        <v>0.8776657115412365</v>
       </c>
       <c r="J3">
-        <v>0.2861231812358503</v>
+        <v>0.6699494414562086</v>
       </c>
       <c r="K3">
-        <v>0.4517425743039954</v>
+        <v>0.3808205389259871</v>
       </c>
       <c r="L3">
-        <v>0.3126474127359424</v>
+        <v>0.3740755451384081</v>
       </c>
       <c r="M3">
-        <v>0.3271720261913182</v>
+        <v>0.3174251003228087</v>
       </c>
       <c r="N3">
-        <v>0.9483772137285171</v>
+        <v>0.3917646618089069</v>
       </c>
       <c r="O3">
-        <v>0.353083550029608</v>
+        <v>0.3499257597423152</v>
       </c>
       <c r="P3">
-        <v>0.2716834751255768</v>
+        <v>0.3268537027739548</v>
       </c>
       <c r="Q3">
-        <v>0.3532586304080141</v>
+        <v>0.4517075735621963</v>
       </c>
       <c r="R3">
-        <v>0.2749139230182862</v>
+        <v>0.3154136102934051</v>
       </c>
       <c r="S3">
-        <v>0.2665161958926722</v>
+        <v>0.2967692442289752</v>
       </c>
       <c r="T3">
-        <v>0.2795830476642089</v>
+        <v>0.3666863881346761</v>
       </c>
       <c r="U3">
-        <v>0.2901262607701323</v>
+        <v>0.344402273660234</v>
       </c>
       <c r="V3">
-        <v>0.286448304961076</v>
+        <v>0.355323213787893</v>
       </c>
       <c r="W3">
-        <v>0.827936875474967</v>
+        <v>0.4846401707056941</v>
       </c>
       <c r="X3">
-        <v>0.2911345012735085</v>
+        <v>0.3712317002271504</v>
       </c>
       <c r="Y3">
-        <v>0.3278314803543365</v>
+        <v>0.6451559674239834</v>
       </c>
       <c r="Z3">
-        <v>0.2866220033959598</v>
+        <v>0.2966243676704378</v>
       </c>
       <c r="AA3">
-        <v>0.2794175238212117</v>
+        <v>0.4123804119968062</v>
       </c>
       <c r="AB3">
-        <v>0.2864799388824333</v>
+        <v>0.3956318769076013</v>
       </c>
       <c r="AC3">
-        <v>0.4323987882800494</v>
+        <v>0.8687338167438501</v>
       </c>
       <c r="AD3">
-        <v>0.4511678416095531</v>
+        <v>0.3594857665977519</v>
       </c>
       <c r="AE3">
-        <v>0.8882345080068268</v>
+        <v>0.3258085091120025</v>
       </c>
       <c r="AF3">
-        <v>0.4114337722242084</v>
+        <v>0.3721756236349557</v>
       </c>
       <c r="AG3">
-        <v>0.654583214435867</v>
+        <v>0.3512861901730169</v>
       </c>
       <c r="AH3">
-        <v>0.8973670081756003</v>
+        <v>0.3991664387513734</v>
       </c>
       <c r="AI3">
-        <v>0.6877259177278892</v>
+        <v>0.4634156538453333</v>
       </c>
       <c r="AJ3">
-        <v>0.4038132540943977</v>
+        <v>0.4988953669910503</v>
       </c>
       <c r="AK3">
-        <v>0.3590318658384986</v>
+        <v>0.4288805168935057</v>
       </c>
       <c r="AL3">
-        <v>0.9938850966595757</v>
+        <v>0.335576440791834</v>
       </c>
       <c r="AM3">
-        <v>0.4102990200704153</v>
+        <v>0.3276012962494391</v>
       </c>
       <c r="AN3">
-        <v>0.7719095452565201</v>
+        <v>0.3253798833439639</v>
       </c>
       <c r="AO3">
-        <v>0.3927507881587892</v>
+        <v>0.3173507619048809</v>
       </c>
       <c r="AP3">
-        <v>0.8515672012558491</v>
+        <v>0.3313775535928655</v>
       </c>
       <c r="AQ3">
-        <v>0.3745081963650632</v>
+        <v>0.3151299189548613</v>
       </c>
       <c r="AR3">
-        <v>0.6398914003668048</v>
+        <v>0.4203080628813944</v>
       </c>
       <c r="AS3">
-        <v>0.5518543545554633</v>
+        <v>0.3763128465110359</v>
       </c>
       <c r="AT3">
-        <v>0.7517495086315076</v>
+        <v>0.340630933273781</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -934,139 +934,139 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.375175756636738</v>
+        <v>0.4901152698333068</v>
       </c>
       <c r="C4">
-        <v>0.3122722959968147</v>
+        <v>0.8938412285872367</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.883100942680782</v>
+        <v>0.5767905998189606</v>
       </c>
       <c r="F4">
-        <v>0.4925631239815689</v>
+        <v>0.2180473448608755</v>
       </c>
       <c r="G4">
-        <v>0.9343936380494815</v>
+        <v>0.4151091080734187</v>
       </c>
       <c r="H4">
-        <v>0.5018314808406754</v>
+        <v>0.2876343780237385</v>
       </c>
       <c r="I4">
-        <v>0.7328409377542859</v>
+        <v>0.7752851030812911</v>
       </c>
       <c r="J4">
-        <v>0.9344510214413131</v>
+        <v>0.7660471849698587</v>
       </c>
       <c r="K4">
-        <v>0.7391156991497726</v>
+        <v>0.4421845611183894</v>
       </c>
       <c r="L4">
-        <v>0.9991412520742078</v>
+        <v>0.4343351468375151</v>
       </c>
       <c r="M4">
-        <v>0.9655488801367561</v>
+        <v>0.3679925447451996</v>
       </c>
       <c r="N4">
-        <v>0.334852958960997</v>
+        <v>0.3385135836448818</v>
       </c>
       <c r="O4">
-        <v>0.9099483560221742</v>
+        <v>0.4061555536283998</v>
       </c>
       <c r="P4">
-        <v>0.89543707775859</v>
+        <v>0.379088035840361</v>
       </c>
       <c r="Q4">
-        <v>0.9095866504933547</v>
+        <v>0.5238449469581969</v>
       </c>
       <c r="R4">
-        <v>0.904287279724613</v>
+        <v>0.3656236121249775</v>
       </c>
       <c r="S4">
-        <v>0.8808726779607751</v>
+        <v>0.3436073133321624</v>
       </c>
       <c r="T4">
-        <v>0.916965340167941</v>
+        <v>0.4257372729129625</v>
       </c>
       <c r="U4">
-        <v>0.944924841082637</v>
+        <v>0.3996852083692091</v>
       </c>
       <c r="V4">
-        <v>0.9354211339307414</v>
+        <v>0.4124691511142344</v>
       </c>
       <c r="W4">
-        <v>0.396217093894271</v>
+        <v>0.4183293038495851</v>
       </c>
       <c r="X4">
-        <v>0.947514456138446</v>
+        <v>0.4310295363908704</v>
       </c>
       <c r="Y4">
-        <v>0.9640705517209229</v>
+        <v>0.7392292743206149</v>
       </c>
       <c r="Z4">
-        <v>0.9358167049910224</v>
+        <v>0.3434357194840338</v>
       </c>
       <c r="AA4">
-        <v>0.916675561927716</v>
+        <v>0.4787236315529436</v>
       </c>
       <c r="AB4">
-        <v>0.935366864369043</v>
+        <v>0.4593648926015207</v>
       </c>
       <c r="AC4">
-        <v>0.768236459788026</v>
+        <v>0.9744730007685847</v>
       </c>
       <c r="AD4">
-        <v>0.7397352808356419</v>
+        <v>0.4173315423779856</v>
       </c>
       <c r="AE4">
-        <v>0.3638565392367274</v>
+        <v>0.3778627859947773</v>
       </c>
       <c r="AF4">
-        <v>0.8019404176797416</v>
+        <v>0.4321278619538067</v>
       </c>
       <c r="AG4">
-        <v>0.5153397675592128</v>
+        <v>0.4077491525870087</v>
       </c>
       <c r="AH4">
-        <v>0.3593385865221321</v>
+        <v>0.4634487087923164</v>
       </c>
       <c r="AI4">
-        <v>0.4887971708612024</v>
+        <v>0.5372163812964459</v>
       </c>
       <c r="AJ4">
-        <v>0.814837754015233</v>
+        <v>0.5774273530469575</v>
       </c>
       <c r="AK4">
-        <v>0.8976817787568246</v>
+        <v>0.4977082340907788</v>
       </c>
       <c r="AL4">
-        <v>0.3098486086010707</v>
+        <v>0.3893366726728257</v>
       </c>
       <c r="AM4">
-        <v>0.8037791149252786</v>
+        <v>0.3799690676880977</v>
       </c>
       <c r="AN4">
-        <v>0.4301694745108126</v>
+        <v>0.3773571405333834</v>
       </c>
       <c r="AO4">
-        <v>0.8342672988085821</v>
+        <v>0.3679053432648005</v>
       </c>
       <c r="AP4">
-        <v>0.3830293300935732</v>
+        <v>0.3844091334724921</v>
       </c>
       <c r="AQ4">
-        <v>0.8678206134883895</v>
+        <v>0.3652889784382701</v>
       </c>
       <c r="AR4">
-        <v>0.5277394840514129</v>
+        <v>0.4878500685832204</v>
       </c>
       <c r="AS4">
-        <v>0.612970002817925</v>
+        <v>0.4369428641379806</v>
       </c>
       <c r="AT4">
-        <v>0.4431135742504076</v>
+        <v>0.3952671638802058</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1074,139 +1074,139 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4414543300923132</v>
+        <v>0.2618229444498623</v>
       </c>
       <c r="C5">
-        <v>0.366505317336001</v>
+        <v>0.4983336989435461</v>
       </c>
       <c r="D5">
-        <v>0.883100942680782</v>
+        <v>0.5767905998189606</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5781435277641251</v>
+        <v>0.1332211655834953</v>
       </c>
       <c r="G5">
-        <v>0.9482189234836824</v>
+        <v>0.7659250876597898</v>
       </c>
       <c r="H5">
-        <v>0.5887405954811287</v>
+        <v>0.1652898825587164</v>
       </c>
       <c r="I5">
-        <v>0.8436149334072389</v>
+        <v>0.4203178036308134</v>
       </c>
       <c r="J5">
-        <v>0.8193301168872649</v>
+        <v>0.7837752975742783</v>
       </c>
       <c r="K5">
-        <v>0.8502342713615023</v>
+        <v>0.8089812004101372</v>
       </c>
       <c r="L5">
-        <v>0.8839538148502885</v>
+        <v>0.7966003422942366</v>
       </c>
       <c r="M5">
-        <v>0.9171388224914542</v>
+        <v>0.6871333913087913</v>
       </c>
       <c r="N5">
-        <v>0.3935481626117808</v>
+        <v>0.188861046278693</v>
       </c>
       <c r="O5">
-        <v>0.9728008712863184</v>
+        <v>0.7513904708861707</v>
       </c>
       <c r="P5">
-        <v>0.7819195025472105</v>
+        <v>0.7061211501760686</v>
       </c>
       <c r="Q5">
-        <v>0.973165065155404</v>
+        <v>0.9289429627541159</v>
       </c>
       <c r="R5">
-        <v>0.7903879627317153</v>
+        <v>0.6830629492132825</v>
       </c>
       <c r="S5">
-        <v>0.7680789602336295</v>
+        <v>0.6442310873317232</v>
       </c>
       <c r="T5">
-        <v>0.8025341908303311</v>
+        <v>0.7831319685459344</v>
       </c>
       <c r="U5">
-        <v>0.8294354507816923</v>
+        <v>0.7406796808943368</v>
       </c>
       <c r="V5">
-        <v>0.8202340651635364</v>
+        <v>0.7617168255502025</v>
       </c>
       <c r="W5">
-        <v>0.4662930830948048</v>
+        <v>0.2266649784277659</v>
       </c>
       <c r="X5">
-        <v>0.831944941532805</v>
+        <v>0.7914690148287858</v>
       </c>
       <c r="Y5">
-        <v>0.9186078548568583</v>
+        <v>0.8114718708797057</v>
       </c>
       <c r="Z5">
-        <v>0.8206319898080432</v>
+        <v>0.643917676489614</v>
       </c>
       <c r="AA5">
-        <v>0.8022132872098489</v>
+        <v>0.8644705144199289</v>
       </c>
       <c r="AB5">
-        <v>0.8202190543450759</v>
+        <v>0.8353989053217624</v>
       </c>
       <c r="AC5">
-        <v>0.8810682880897032</v>
+        <v>0.596828811760493</v>
       </c>
       <c r="AD5">
-        <v>0.8509488825521955</v>
+        <v>0.7695788980985321</v>
       </c>
       <c r="AE5">
-        <v>0.4280587570992258</v>
+        <v>0.7041178489124931</v>
       </c>
       <c r="AF5">
-        <v>0.9164188670682449</v>
+        <v>0.7931912424290846</v>
       </c>
       <c r="AG5">
-        <v>0.6041122326576731</v>
+        <v>0.754034169860341</v>
       </c>
       <c r="AH5">
-        <v>0.4226772884366381</v>
+        <v>0.8414786979389042</v>
       </c>
       <c r="AI5">
-        <v>0.5738241261079888</v>
+        <v>0.9475823440476103</v>
       </c>
       <c r="AJ5">
-        <v>0.9298384803691824</v>
+        <v>0.9991453610552082</v>
       </c>
       <c r="AK5">
-        <v>0.9851471663587883</v>
+        <v>0.8920855482122509</v>
       </c>
       <c r="AL5">
-        <v>0.363563255763457</v>
+        <v>0.7234625806036215</v>
       </c>
       <c r="AM5">
-        <v>0.9183507144061956</v>
+        <v>0.7076629560614217</v>
       </c>
       <c r="AN5">
-        <v>0.5059935064899558</v>
+        <v>0.7032230586126194</v>
       </c>
       <c r="AO5">
-        <v>0.9499300488180762</v>
+        <v>0.6869913877841266</v>
       </c>
       <c r="AP5">
-        <v>0.4507658947928468</v>
+        <v>0.715229866935817</v>
       </c>
       <c r="AQ5">
-        <v>0.9843887908225157</v>
+        <v>0.6824762821952355</v>
       </c>
       <c r="AR5">
-        <v>0.6181964798908712</v>
+        <v>0.8777745194871017</v>
       </c>
       <c r="AS5">
-        <v>0.7135309981396549</v>
+        <v>0.8007734566625164</v>
       </c>
       <c r="AT5">
-        <v>0.52109805401461</v>
+        <v>0.7333904488386367</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1214,139 +1214,139 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8059885863324101</v>
+        <v>0.4714492822929026</v>
       </c>
       <c r="C6">
-        <v>0.6828224303380777</v>
+        <v>0.2488297412976754</v>
       </c>
       <c r="D6">
-        <v>0.4925631239815689</v>
+        <v>0.2180473448608755</v>
       </c>
       <c r="E6">
-        <v>0.5781435277641251</v>
+        <v>0.1332211655834953</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.53901347467144</v>
+        <v>0.1087439640509893</v>
       </c>
       <c r="H6">
-        <v>0.9864433457159931</v>
+        <v>0.786040351888845</v>
       </c>
       <c r="I6">
-        <v>0.7103936953618284</v>
+        <v>0.2919670895048799</v>
       </c>
       <c r="J6">
-        <v>0.4498762204719188</v>
+        <v>0.1658791442474494</v>
       </c>
       <c r="K6">
-        <v>0.7044377798128687</v>
+        <v>0.1127259345849658</v>
       </c>
       <c r="L6">
-        <v>0.4931659085644405</v>
+        <v>0.111566823336308</v>
       </c>
       <c r="M6">
-        <v>0.5164726266707482</v>
+        <v>0.101865817645828</v>
       </c>
       <c r="N6">
-        <v>0.7288223337901214</v>
+        <v>0.6760601505442871</v>
       </c>
       <c r="O6">
-        <v>0.5573358832994632</v>
+        <v>0.1074350154005806</v>
       </c>
       <c r="P6">
-        <v>0.4259369849064785</v>
+        <v>0.1034807824855542</v>
       </c>
       <c r="Q6">
-        <v>0.55760926036473</v>
+        <v>0.1249775405554992</v>
       </c>
       <c r="R6">
-        <v>0.4313110734456528</v>
+        <v>0.1015224001490346</v>
       </c>
       <c r="S6">
-        <v>0.4173044614547491</v>
+        <v>0.09830827018441513</v>
       </c>
       <c r="T6">
-        <v>0.4390603477122585</v>
+        <v>0.1103072090246025</v>
       </c>
       <c r="U6">
-        <v>0.4564689796072736</v>
+        <v>0.1064868255326141</v>
       </c>
       <c r="V6">
-        <v>0.4504202229133506</v>
+        <v>0.1083598190789438</v>
       </c>
       <c r="W6">
-        <v>0.8441184082913292</v>
+        <v>0.5517003476869282</v>
       </c>
       <c r="X6">
-        <v>0.4581245984767029</v>
+        <v>0.1110828576999735</v>
       </c>
       <c r="Y6">
-        <v>0.5175236537988579</v>
+        <v>0.1608725825001283</v>
       </c>
       <c r="Z6">
-        <v>0.4507024092158366</v>
+        <v>0.09828274169260766</v>
       </c>
       <c r="AA6">
-        <v>0.4387959755388016</v>
+        <v>0.1181526518755389</v>
       </c>
       <c r="AB6">
-        <v>0.4504629346569508</v>
+        <v>0.1152676944732674</v>
       </c>
       <c r="AC6">
-        <v>0.6766595398832371</v>
+        <v>0.2114283020730001</v>
       </c>
       <c r="AD6">
-        <v>0.7036577711701444</v>
+        <v>0.1090717939956209</v>
       </c>
       <c r="AE6">
-        <v>0.7849549218591987</v>
+        <v>0.1033064554455804</v>
       </c>
       <c r="AF6">
-        <v>0.645978267961735</v>
+        <v>0.111243998580227</v>
       </c>
       <c r="AG6">
-        <v>0.9671898489128041</v>
+        <v>0.1076694270599415</v>
       </c>
       <c r="AH6">
-        <v>0.7762870720244459</v>
+        <v>0.1158723539171077</v>
       </c>
       <c r="AI6">
-        <v>0.9943999678827751</v>
+        <v>0.1270327445922125</v>
       </c>
       <c r="AJ6">
-        <v>0.6346690031497559</v>
+        <v>0.1333216674643342</v>
       </c>
       <c r="AK6">
-        <v>0.5666126251519248</v>
+        <v>0.1210043763834236</v>
       </c>
       <c r="AL6">
-        <v>0.6775608913616058</v>
+        <v>0.104976698538086</v>
       </c>
       <c r="AM6">
-        <v>0.6443083319679834</v>
+        <v>0.1036114239059836</v>
       </c>
       <c r="AN6">
-        <v>0.9020180709703833</v>
+        <v>0.1032310798889816</v>
       </c>
       <c r="AO6">
-        <v>0.6180951352458022</v>
+        <v>0.1018536073474961</v>
       </c>
       <c r="AP6">
-        <v>0.8205430911378646</v>
+        <v>0.1042609014377584</v>
       </c>
       <c r="AQ6">
-        <v>0.5904156910055574</v>
+        <v>0.1014732764119356</v>
       </c>
       <c r="AR6">
-        <v>0.9498026192330208</v>
+        <v>0.1195195770067992</v>
       </c>
       <c r="AS6">
-        <v>0.8403899299712364</v>
+        <v>0.1119528391855645</v>
       </c>
       <c r="AT6">
-        <v>0.9234648235410441</v>
+        <v>0.1058431625746351</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1354,139 +1354,139 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4108871005541151</v>
+        <v>0.1949294179200168</v>
       </c>
       <c r="C7">
-        <v>0.3413938919254148</v>
+        <v>0.357585955954199</v>
       </c>
       <c r="D7">
-        <v>0.9343936380494815</v>
+        <v>0.4151091080734187</v>
       </c>
       <c r="E7">
-        <v>0.9482189234836824</v>
+        <v>0.7659250876597898</v>
       </c>
       <c r="F7">
-        <v>0.53901347467144</v>
+        <v>0.1087439640509893</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5490316370153295</v>
+        <v>0.1304796588728336</v>
       </c>
       <c r="I7">
-        <v>0.7939391461506223</v>
+        <v>0.3025341035996898</v>
       </c>
       <c r="J7">
-        <v>0.869579853224361</v>
+        <v>0.5767740477890142</v>
       </c>
       <c r="K7">
-        <v>0.8004287216972227</v>
+        <v>0.9543038148002587</v>
       </c>
       <c r="L7">
-        <v>0.9352528995212026</v>
+        <v>0.9673936647967506</v>
       </c>
       <c r="M7">
-        <v>0.968756208775047</v>
+        <v>0.9133050355698979</v>
       </c>
       <c r="N7">
-        <v>0.3664071843582147</v>
+        <v>0.1462862098488279</v>
       </c>
       <c r="O7">
-        <v>0.9753755564162533</v>
+        <v>0.9843758274315526</v>
       </c>
       <c r="P7">
-        <v>0.8313165772747634</v>
+        <v>0.9345430396205492</v>
       </c>
       <c r="Q7">
-        <v>0.975010960386827</v>
+        <v>0.8336173748882727</v>
       </c>
       <c r="R7">
-        <v>0.8399864614210377</v>
+        <v>0.9087484573027155</v>
       </c>
       <c r="S7">
-        <v>0.8171055004645418</v>
+        <v>0.864193186147308</v>
       </c>
       <c r="T7">
-        <v>0.852414416984473</v>
+        <v>0.9814644398761971</v>
       </c>
       <c r="U7">
-        <v>0.8798877220983604</v>
+        <v>0.9726584650647518</v>
       </c>
       <c r="V7">
-        <v>0.8705154704408491</v>
+        <v>0.9955598596775623</v>
       </c>
       <c r="W7">
-        <v>0.4340215176107525</v>
+        <v>0.1715249156823978</v>
       </c>
       <c r="X7">
-        <v>0.8824427620373831</v>
+        <v>0.9727095786216033</v>
       </c>
       <c r="Y7">
-        <v>0.9702355281091724</v>
+        <v>0.5998514589541182</v>
       </c>
       <c r="Z7">
-        <v>0.8709145116443786</v>
+        <v>0.8638202769777894</v>
       </c>
       <c r="AA7">
-        <v>0.8521044136675076</v>
+        <v>0.8972655825198284</v>
       </c>
       <c r="AB7">
-        <v>0.8704843890745109</v>
+        <v>0.9269355133584446</v>
       </c>
       <c r="AC7">
-        <v>0.8306160022060324</v>
+        <v>0.4300421620102804</v>
       </c>
       <c r="AD7">
-        <v>0.8011042047763246</v>
+        <v>0.9960069819805131</v>
       </c>
       <c r="AE7">
-        <v>0.398426585136208</v>
+        <v>0.9324166277337564</v>
       </c>
       <c r="AF7">
-        <v>0.8653722867373792</v>
+        <v>0.9709067634099187</v>
       </c>
       <c r="AG7">
-        <v>0.5635946415712556</v>
+        <v>0.9872802014946873</v>
       </c>
       <c r="AH7">
-        <v>0.3934349750774988</v>
+        <v>0.9208130354702589</v>
       </c>
       <c r="AI7">
-        <v>0.5349357672207881</v>
+        <v>0.8153891313617065</v>
       </c>
       <c r="AJ7">
-        <v>0.8786132093903614</v>
+        <v>0.7651006770967155</v>
       </c>
       <c r="AK7">
-        <v>0.9630141817945314</v>
+        <v>0.8697076870604553</v>
       </c>
       <c r="AL7">
-        <v>0.338688544960442</v>
+        <v>0.9537995497314224</v>
       </c>
       <c r="AM7">
-        <v>0.8672706093741428</v>
+        <v>0.9363166324068412</v>
       </c>
       <c r="AN7">
-        <v>0.471160103754848</v>
+        <v>0.9313757126870523</v>
       </c>
       <c r="AO7">
-        <v>0.8984912585772565</v>
+        <v>0.913156442342394</v>
       </c>
       <c r="AP7">
-        <v>0.4195429976823702</v>
+        <v>0.9447778736065768</v>
       </c>
       <c r="AQ7">
-        <v>0.932689156602648</v>
+        <v>0.9080764726294103</v>
       </c>
       <c r="AR7">
-        <v>0.5769503757320924</v>
+        <v>0.8839961134921486</v>
       </c>
       <c r="AS7">
-        <v>0.6679898970849147</v>
+        <v>0.9629201970163276</v>
       </c>
       <c r="AT7">
-        <v>0.4853065294867511</v>
+        <v>0.9647366880234878</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1494,139 +1494,139 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7931258487746391</v>
+        <v>0.6334012195769028</v>
       </c>
       <c r="C8">
-        <v>0.6710563719918845</v>
+        <v>0.3317293386229734</v>
       </c>
       <c r="D8">
-        <v>0.5018314808406754</v>
+        <v>0.2876343780237385</v>
       </c>
       <c r="E8">
-        <v>0.5887405954811287</v>
+        <v>0.1652898825587164</v>
       </c>
       <c r="F8">
-        <v>0.9864433457159931</v>
+        <v>0.786040351888845</v>
       </c>
       <c r="G8">
-        <v>0.5490316370153295</v>
+        <v>0.1304796588728336</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.7225734327492011</v>
+        <v>0.3927491579488944</v>
       </c>
       <c r="J8">
-        <v>0.4583956316072527</v>
+        <v>0.2123259961847074</v>
       </c>
       <c r="K8">
-        <v>0.7165565490978825</v>
+        <v>0.136099160637712</v>
       </c>
       <c r="L8">
-        <v>0.5024442114351064</v>
+        <v>0.1344628829953735</v>
       </c>
       <c r="M8">
-        <v>0.5261353965603537</v>
+        <v>0.1208187593344661</v>
       </c>
       <c r="N8">
-        <v>0.716586820451333</v>
+        <v>0.8794447124666632</v>
       </c>
       <c r="O8">
-        <v>0.5676311764319155</v>
+        <v>0.128635156958548</v>
       </c>
       <c r="P8">
-        <v>0.434013248251057</v>
+        <v>0.1230821572914659</v>
       </c>
       <c r="Q8">
-        <v>0.5679086334072866</v>
+        <v>0.1535069855705705</v>
       </c>
       <c r="R8">
-        <v>0.439487895934154</v>
+        <v>0.1203373020295771</v>
       </c>
       <c r="S8">
-        <v>0.425216520683644</v>
+        <v>0.1158505791079628</v>
       </c>
       <c r="T8">
-        <v>0.4473811368983474</v>
+        <v>0.1326808328175346</v>
       </c>
       <c r="U8">
-        <v>0.4651076936907691</v>
+        <v>0.12730275110698</v>
       </c>
       <c r="V8">
-        <v>0.4589501917175118</v>
+        <v>0.1299366940422073</v>
       </c>
       <c r="W8">
-        <v>0.8310167340223422</v>
+        <v>0.7334311815202712</v>
       </c>
       <c r="X8">
-        <v>0.4667929316164549</v>
+        <v>0.1337773503005625</v>
       </c>
       <c r="Y8">
-        <v>0.5272033322286649</v>
+        <v>0.2050956507998879</v>
       </c>
       <c r="Z8">
-        <v>0.4592371450488114</v>
+        <v>0.1158152109671268</v>
       </c>
       <c r="AA8">
-        <v>0.4471127611205008</v>
+        <v>0.1437890322957376</v>
       </c>
       <c r="AB8">
-        <v>0.4589928734786719</v>
+        <v>0.1396975105723391</v>
       </c>
       <c r="AC8">
-        <v>0.6884900772040599</v>
+        <v>0.2781072712727348</v>
       </c>
       <c r="AD8">
-        <v>0.7157711526690169</v>
+        <v>0.130940165677433</v>
       </c>
       <c r="AE8">
-        <v>0.7722430159802705</v>
+        <v>0.1228354564082496</v>
       </c>
       <c r="AF8">
-        <v>0.6574602336269593</v>
+        <v>0.1340052409182737</v>
       </c>
       <c r="AG8">
-        <v>0.9807341818345144</v>
+        <v>0.1289642416138955</v>
       </c>
       <c r="AH8">
-        <v>0.7636438567427217</v>
+        <v>0.1405568226172396</v>
       </c>
       <c r="AI8">
-        <v>0.9808455350892615</v>
+        <v>0.1564359277529325</v>
       </c>
       <c r="AJ8">
-        <v>0.6460140443596023</v>
+        <v>0.1654333195290842</v>
       </c>
       <c r="AK8">
-        <v>0.5770458665168043</v>
+        <v>0.1478445628541053</v>
       </c>
       <c r="AL8">
-        <v>0.6658561716660881</v>
+        <v>0.1251803222694204</v>
       </c>
       <c r="AM8">
-        <v>0.6557709264421391</v>
+        <v>0.1232641281532292</v>
       </c>
       <c r="AN8">
-        <v>0.8886549624513318</v>
+        <v>0.1227307064065561</v>
       </c>
       <c r="AO8">
-        <v>0.6292308961838249</v>
+        <v>0.1208014168240912</v>
       </c>
       <c r="AP8">
-        <v>0.8075811929662098</v>
+        <v>0.1241739413772816</v>
       </c>
       <c r="AQ8">
-        <v>0.6011830624930392</v>
+        <v>0.1202687581673918</v>
       </c>
       <c r="AR8">
-        <v>0.9633266708940631</v>
+        <v>0.1457332679656916</v>
       </c>
       <c r="AS8">
-        <v>0.8535423506542237</v>
+        <v>0.1350066059577655</v>
       </c>
       <c r="AT8">
-        <v>0.9100287292041018</v>
+        <v>0.1263969325469475</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1634,139 +1634,139 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5484200683678191</v>
+        <v>0.6667913077731102</v>
       </c>
       <c r="C9">
-        <v>0.4559069242450321</v>
+        <v>0.8776657115412365</v>
       </c>
       <c r="D9">
-        <v>0.7328409377542859</v>
+        <v>0.7752851030812911</v>
       </c>
       <c r="E9">
-        <v>0.8436149334072389</v>
+        <v>0.4203178036308134</v>
       </c>
       <c r="F9">
-        <v>0.7103936953618284</v>
+        <v>0.2919670895048799</v>
       </c>
       <c r="G9">
-        <v>0.7939391461506223</v>
+        <v>0.3025341035996898</v>
       </c>
       <c r="H9">
-        <v>0.7225734327492011</v>
+        <v>0.3927491579488944</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.674502150974708</v>
+        <v>0.5695208530758649</v>
       </c>
       <c r="K9">
-        <v>0.9932399424818928</v>
+        <v>0.3217380902950581</v>
       </c>
       <c r="L9">
-        <v>0.7336396458384968</v>
+        <v>0.3161564266648065</v>
       </c>
       <c r="M9">
-        <v>0.764587450850136</v>
+        <v>0.2695192267185985</v>
       </c>
       <c r="N9">
-        <v>0.4895989512780952</v>
+        <v>0.4645277309866735</v>
       </c>
       <c r="O9">
-        <v>0.8173992433612582</v>
+        <v>0.2962189680450997</v>
       </c>
       <c r="P9">
-        <v>0.6408940501351893</v>
+        <v>0.2772514235486147</v>
       </c>
       <c r="Q9">
-        <v>0.8177476181818875</v>
+        <v>0.3809004867841268</v>
       </c>
       <c r="R9">
-        <v>0.6484782448449782</v>
+        <v>0.2678708890711103</v>
       </c>
       <c r="S9">
-        <v>0.6285934017138686</v>
+        <v>0.2526178319665348</v>
       </c>
       <c r="T9">
-        <v>0.6593771357678925</v>
+        <v>0.3100433906216422</v>
       </c>
       <c r="U9">
-        <v>0.6836513039030354</v>
+        <v>0.2916723944695728</v>
       </c>
       <c r="V9">
-        <v>0.6752906614516728</v>
+        <v>0.3006665190394312</v>
       </c>
       <c r="W9">
-        <v>0.5785379711378118</v>
+        <v>0.5732121978836644</v>
       </c>
       <c r="X9">
-        <v>0.6859345176601507</v>
+        <v>0.3138019501910461</v>
       </c>
       <c r="Y9">
-        <v>0.7659676059211121</v>
+        <v>0.5475508261662761</v>
       </c>
       <c r="Z9">
-        <v>0.6756659025579661</v>
+        <v>0.2524994674972896</v>
       </c>
       <c r="AA9">
-        <v>0.6590493702523472</v>
+        <v>0.3479640946109545</v>
       </c>
       <c r="AB9">
-        <v>0.6753116600515681</v>
+        <v>0.3340263258122118</v>
       </c>
       <c r="AC9">
-        <v>0.9616776487786327</v>
+        <v>0.7515254200374826</v>
       </c>
       <c r="AD9">
-        <v>0.992442046567295</v>
+        <v>0.3040999944015377</v>
       </c>
       <c r="AE9">
-        <v>0.5320864057229138</v>
+        <v>0.2763927001580845</v>
       </c>
       <c r="AF9">
-        <v>0.9259709229514516</v>
+        <v>0.3145829123461535</v>
       </c>
       <c r="AG9">
-        <v>0.7401186453189266</v>
+        <v>0.2973390020640878</v>
       </c>
       <c r="AH9">
-        <v>0.5254674445025223</v>
+        <v>0.3369676175496287</v>
       </c>
       <c r="AI9">
-        <v>0.705406970299391</v>
+        <v>0.3907486020501154</v>
       </c>
       <c r="AJ9">
-        <v>0.9125620705333536</v>
+        <v>0.4207935971421307</v>
       </c>
       <c r="AK9">
-        <v>0.8292096528876474</v>
+        <v>0.3617483201143825</v>
       </c>
       <c r="AL9">
-        <v>0.4521770056218042</v>
+        <v>0.284414072062628</v>
       </c>
       <c r="AM9">
-        <v>0.9240195624472423</v>
+        <v>0.2778643685059252</v>
       </c>
       <c r="AN9">
-        <v>0.6259472121599542</v>
+        <v>0.2760414539288439</v>
       </c>
       <c r="AO9">
-        <v>0.892648337031592</v>
+        <v>0.2694582230928111</v>
       </c>
       <c r="AP9">
-        <v>0.5597788795823566</v>
+        <v>0.2809638575939327</v>
       </c>
       <c r="AQ9">
-        <v>0.8588225959835751</v>
+        <v>0.2676385564702449</v>
       </c>
       <c r="AR9">
-        <v>0.7561318365429931</v>
+        <v>0.3545830735131026</v>
       </c>
       <c r="AS9">
-        <v>0.8620018960353385</v>
+        <v>0.3180058776626506</v>
       </c>
       <c r="AT9">
-        <v>0.6438743543167007</v>
+        <v>0.2885690152465005</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1774,139 +1774,139 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3428828299170692</v>
+        <v>0.3517927473405437</v>
       </c>
       <c r="C10">
-        <v>0.2861231812358503</v>
+        <v>0.6699494414562086</v>
       </c>
       <c r="D10">
-        <v>0.9344510214413131</v>
+        <v>0.7660471849698587</v>
       </c>
       <c r="E10">
-        <v>0.8193301168872649</v>
+        <v>0.7837752975742783</v>
       </c>
       <c r="F10">
-        <v>0.4498762204719188</v>
+        <v>0.1658791442474494</v>
       </c>
       <c r="G10">
-        <v>0.869579853224361</v>
+        <v>0.5767740477890142</v>
       </c>
       <c r="H10">
-        <v>0.4583956316072527</v>
+        <v>0.2123259961847074</v>
       </c>
       <c r="I10">
-        <v>0.674502150974708</v>
+        <v>0.5695208530758649</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.680512280229276</v>
+        <v>0.6129663479282402</v>
       </c>
       <c r="L10">
-        <v>0.9336031024177156</v>
+        <v>0.6025150480258916</v>
       </c>
       <c r="M10">
-        <v>0.9002996468551343</v>
+        <v>0.512394403029206</v>
       </c>
       <c r="N10">
-        <v>0.3064531321668454</v>
+        <v>0.2465822839341678</v>
       </c>
       <c r="O10">
-        <v>0.8455810768191983</v>
+        <v>0.5646929666588785</v>
       </c>
       <c r="P10">
-        <v>0.9606671512891567</v>
+        <v>0.5277082911915578</v>
       </c>
       <c r="Q10">
-        <v>0.8452261407508563</v>
+        <v>0.7183017094969306</v>
       </c>
       <c r="R10">
-        <v>0.9695987329664668</v>
+        <v>0.5091179110287609</v>
       </c>
       <c r="S10">
-        <v>0.9459058507058026</v>
+        <v>0.4783529146611865</v>
       </c>
       <c r="T10">
-        <v>0.9823865374372118</v>
+        <v>0.591087942760731</v>
       </c>
       <c r="U10">
-        <v>0.9894766641496616</v>
+        <v>0.5558931008397858</v>
       </c>
       <c r="V10">
-        <v>0.9990033975881245</v>
+        <v>0.5732368220617523</v>
       </c>
       <c r="W10">
-        <v>0.3619405303780113</v>
+        <v>0.3013074657556402</v>
       </c>
       <c r="X10">
-        <v>0.9868818737045398</v>
+        <v>0.5981377944066049</v>
       </c>
       <c r="Y10">
-        <v>0.8988389267214392</v>
+        <v>0.9708791447796727</v>
       </c>
       <c r="Z10">
-        <v>0.9986171878800822</v>
+        <v>0.478110001297209</v>
       </c>
       <c r="AA10">
-        <v>0.9821242895811286</v>
+        <v>0.6608192919879132</v>
       </c>
       <c r="AB10">
-        <v>0.9990835963089779</v>
+        <v>0.635595085858762</v>
       </c>
       <c r="AC10">
-        <v>0.7083223529099917</v>
+        <v>0.7899801988131088</v>
       </c>
       <c r="AD10">
-        <v>0.6810707074687243</v>
+        <v>0.5797855651746533</v>
       </c>
       <c r="AE10">
-        <v>0.3326387551303671</v>
+        <v>0.5260449870972994</v>
       </c>
       <c r="AF10">
-        <v>0.7406686386345496</v>
+        <v>0.5995978680571787</v>
       </c>
       <c r="AG10">
-        <v>0.4708431037777155</v>
+        <v>0.5668613424339322</v>
       </c>
       <c r="AH10">
-        <v>0.3285648568454326</v>
+        <v>0.640902465883073</v>
       </c>
       <c r="AI10">
-        <v>0.4464203871803119</v>
+        <v>0.7351240776806078</v>
       </c>
       <c r="AJ10">
-        <v>0.7531000198106171</v>
+        <v>0.7845608741168404</v>
       </c>
       <c r="AK10">
-        <v>0.833539124317516</v>
+        <v>0.6852068453682232</v>
       </c>
       <c r="AL10">
-        <v>0.2839580731804877</v>
+        <v>0.5417821842942885</v>
       </c>
       <c r="AM10">
-        <v>0.7424301460161853</v>
+        <v>0.52893349857657</v>
       </c>
       <c r="AN10">
-        <v>0.3928347663469318</v>
+        <v>0.5253388415244846</v>
       </c>
       <c r="AO10">
-        <v>0.7718920938092784</v>
+        <v>0.512276020870482</v>
       </c>
       <c r="AP10">
-        <v>0.3499788618712282</v>
+        <v>0.5350478356622426</v>
       </c>
       <c r="AQ10">
-        <v>0.8044603846694771</v>
+        <v>0.5086517289823211</v>
       </c>
       <c r="AR10">
-        <v>0.4822756831715579</v>
+        <v>0.6725586756416166</v>
       </c>
       <c r="AS10">
-        <v>0.5614564186208945</v>
+        <v>0.6060071563008046</v>
       </c>
       <c r="AT10">
-        <v>0.4046149124159838</v>
+        <v>0.5498887554173348</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1914,139 +1914,139 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5434951571359607</v>
+        <v>0.2056699456560362</v>
       </c>
       <c r="C11">
-        <v>0.4517425743039954</v>
+        <v>0.3808205389259871</v>
       </c>
       <c r="D11">
-        <v>0.7391156991497726</v>
+        <v>0.4421845611183894</v>
       </c>
       <c r="E11">
-        <v>0.8502342713615023</v>
+        <v>0.8089812004101372</v>
       </c>
       <c r="F11">
-        <v>0.7044377798128687</v>
+        <v>0.1127259345849658</v>
       </c>
       <c r="G11">
-        <v>0.8004287216972227</v>
+        <v>0.9543038148002587</v>
       </c>
       <c r="H11">
-        <v>0.7165565490978825</v>
+        <v>0.136099160637712</v>
       </c>
       <c r="I11">
-        <v>0.9932399424818928</v>
+        <v>0.3217380902950581</v>
       </c>
       <c r="J11">
-        <v>0.680512280229276</v>
+        <v>0.6129663479282402</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.7399172985722746</v>
+        <v>0.9869027062109957</v>
       </c>
       <c r="M11">
-        <v>0.7709815397106752</v>
+        <v>0.8682143014177354</v>
       </c>
       <c r="N11">
-        <v>0.4851432287274674</v>
+        <v>0.1531369546878174</v>
       </c>
       <c r="O11">
-        <v>0.8239551012502249</v>
+        <v>0.9387157922426559</v>
       </c>
       <c r="P11">
-        <v>0.6467271656271421</v>
+        <v>0.8892374737535353</v>
       </c>
       <c r="Q11">
-        <v>0.8243044252190161</v>
+        <v>0.8780655565325335</v>
       </c>
       <c r="R11">
-        <v>0.6543522740693413</v>
+        <v>0.8637036282933621</v>
       </c>
       <c r="S11">
-        <v>0.6343564543894876</v>
+        <v>0.8198295417302608</v>
       </c>
       <c r="T11">
-        <v>0.6653090880599979</v>
+        <v>0.9727822790525165</v>
       </c>
       <c r="U11">
-        <v>0.6897067541925117</v>
+        <v>0.9270690121072185</v>
       </c>
       <c r="V11">
-        <v>0.6813058458816756</v>
+        <v>0.9498555395009423</v>
       </c>
       <c r="W11">
-        <v>0.5733905498759653</v>
+        <v>0.1803774826876705</v>
       </c>
       <c r="X11">
-        <v>0.6920008390229846</v>
+        <v>0.9815583098930734</v>
       </c>
       <c r="Y11">
-        <v>0.7723664775723456</v>
+        <v>0.6370817455239939</v>
       </c>
       <c r="Z11">
-        <v>0.6816823727625859</v>
+        <v>0.8194652493669325</v>
       </c>
       <c r="AA11">
-        <v>0.6649811151641086</v>
+        <v>0.9426073142958764</v>
       </c>
       <c r="AB11">
-        <v>0.6813256220337773</v>
+        <v>0.9725015572329196</v>
       </c>
       <c r="AC11">
-        <v>0.9684395194074076</v>
+        <v>0.4580804949329719</v>
       </c>
       <c r="AD11">
-        <v>0.9992046786848634</v>
+        <v>0.9582722114401299</v>
       </c>
       <c r="AE11">
-        <v>0.527286590034459</v>
+        <v>0.8871071415799321</v>
       </c>
       <c r="AF11">
-        <v>0.9327150517301734</v>
+        <v>0.9833665825725888</v>
       </c>
       <c r="AG11">
-        <v>0.7340190877711834</v>
+        <v>0.9415996163345302</v>
       </c>
       <c r="AH11">
-        <v>0.5207206674506832</v>
+        <v>0.9663126842841682</v>
       </c>
       <c r="AI11">
-        <v>0.6994769492009103</v>
+        <v>0.8595587363366224</v>
       </c>
       <c r="AJ11">
-        <v>0.9192935682333891</v>
+        <v>0.8081427103065444</v>
       </c>
       <c r="AK11">
-        <v>0.8357976008210214</v>
+        <v>0.9147182221784175</v>
       </c>
       <c r="AL11">
-        <v>0.4480475260924243</v>
+        <v>0.9083242388003585</v>
       </c>
       <c r="AM11">
-        <v>0.9307626647362581</v>
+        <v>0.8909817550423436</v>
       </c>
       <c r="AN11">
-        <v>0.6204813215273581</v>
+        <v>0.88608592218216</v>
       </c>
       <c r="AO11">
-        <v>0.8993545289487073</v>
+        <v>0.8680648475716488</v>
       </c>
       <c r="AP11">
-        <v>0.5547672200689289</v>
+        <v>0.8993557478737026</v>
       </c>
       <c r="AQ11">
-        <v>0.8654722457682964</v>
+        <v>0.8630418681532859</v>
       </c>
       <c r="AR11">
-        <v>0.7499597735526923</v>
+        <v>0.9291746764597952</v>
       </c>
       <c r="AS11">
-        <v>0.8554574890019546</v>
+        <v>0.9913653072393848</v>
       </c>
       <c r="AT11">
-        <v>0.6382936528102392</v>
+        <v>0.9191818173511235</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2054,139 +2054,139 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3756369783934043</v>
+        <v>0.202542789303521</v>
       </c>
       <c r="C12">
-        <v>0.3126474127359424</v>
+        <v>0.3740755451384081</v>
       </c>
       <c r="D12">
-        <v>0.9991412520742078</v>
+        <v>0.4343351468375151</v>
       </c>
       <c r="E12">
-        <v>0.8839538148502885</v>
+        <v>0.7966003422942366</v>
       </c>
       <c r="F12">
-        <v>0.4931659085644405</v>
+        <v>0.111566823336308</v>
       </c>
       <c r="G12">
-        <v>0.9352528995212026</v>
+        <v>0.9673936647967506</v>
       </c>
       <c r="H12">
-        <v>0.5024442114351064</v>
+        <v>0.1344628829953735</v>
       </c>
       <c r="I12">
-        <v>0.7336396458384968</v>
+        <v>0.3161564266648065</v>
       </c>
       <c r="J12">
-        <v>0.9336031024177156</v>
+        <v>0.6025150480258916</v>
       </c>
       <c r="K12">
-        <v>0.7399172985722746</v>
+        <v>0.9869027062109957</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9664091344465904</v>
+        <v>0.8811202592739928</v>
       </c>
       <c r="N12">
-        <v>0.3352597988118372</v>
+        <v>0.1511419765690337</v>
       </c>
       <c r="O12">
-        <v>0.9108053139327317</v>
+        <v>0.9517929010131863</v>
       </c>
       <c r="P12">
-        <v>0.8946000386458753</v>
+        <v>0.9022070801753159</v>
       </c>
       <c r="Q12">
-        <v>0.9104435710050339</v>
+        <v>0.8653008963965961</v>
       </c>
       <c r="R12">
-        <v>0.9034476261505185</v>
+        <v>0.8765959751895097</v>
       </c>
       <c r="S12">
-        <v>0.8800407361241426</v>
+        <v>0.8325242454120259</v>
       </c>
       <c r="T12">
-        <v>0.9161220628550217</v>
+        <v>0.9858911305212122</v>
       </c>
       <c r="U12">
-        <v>0.9440745076747059</v>
+        <v>0.9401244312084971</v>
       </c>
       <c r="V12">
-        <v>0.9345727254295615</v>
+        <v>0.9629469007465679</v>
       </c>
       <c r="W12">
-        <v>0.3967057820281051</v>
+        <v>0.1777996114722329</v>
       </c>
       <c r="X12">
-        <v>0.9466636161839053</v>
+        <v>0.9946626898029385</v>
       </c>
       <c r="Y12">
-        <v>0.9649308036977942</v>
+        <v>0.6263365214960592</v>
       </c>
       <c r="Z12">
-        <v>0.934968340498193</v>
+        <v>0.83215748988359</v>
       </c>
       <c r="AA12">
-        <v>0.9158320072508316</v>
+        <v>0.9296005873673319</v>
       </c>
       <c r="AB12">
-        <v>0.9345187785409182</v>
+        <v>0.959436414951544</v>
       </c>
       <c r="AC12">
-        <v>0.76905245567615</v>
+        <v>0.4499548689016164</v>
       </c>
       <c r="AD12">
-        <v>0.7405376412652618</v>
+        <v>0.9713695933142814</v>
       </c>
       <c r="AE12">
-        <v>0.3643028090874622</v>
+        <v>0.9000774431647246</v>
       </c>
       <c r="AF12">
-        <v>0.8027706222707085</v>
+        <v>0.996469732352265</v>
       </c>
       <c r="AG12">
-        <v>0.5159665021352565</v>
+        <v>0.9546829480038705</v>
       </c>
       <c r="AH12">
-        <v>0.3597786555377122</v>
+        <v>0.9532651893754852</v>
       </c>
       <c r="AI12">
-        <v>0.4893958223406482</v>
+        <v>0.8468701087866396</v>
       </c>
       <c r="AJ12">
-        <v>0.8156725934048198</v>
+        <v>0.7957657309225183</v>
       </c>
       <c r="AK12">
-        <v>0.8985375133577485</v>
+        <v>0.9018004567006914</v>
       </c>
       <c r="AL12">
-        <v>0.3102200565629428</v>
+        <v>0.9213445465285071</v>
       </c>
       <c r="AM12">
-        <v>0.804610126560652</v>
+        <v>0.903959834018129</v>
       </c>
       <c r="AN12">
-        <v>0.4307000845454031</v>
+        <v>0.8990505583573052</v>
       </c>
       <c r="AO12">
-        <v>0.8351081769670082</v>
+        <v>0.8809710162669483</v>
       </c>
       <c r="AP12">
-        <v>0.383501074031765</v>
+        <v>0.9123596297289482</v>
       </c>
       <c r="AQ12">
-        <v>0.8686701468877023</v>
+        <v>0.8759312484164433</v>
       </c>
       <c r="AR12">
-        <v>0.5283789283151088</v>
+        <v>0.91621177687809</v>
       </c>
       <c r="AS12">
-        <v>0.613686983194635</v>
+        <v>0.9955336528397355</v>
       </c>
       <c r="AT12">
-        <v>0.4436600424250776</v>
+        <v>0.9322262126950036</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2194,139 +2194,139 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3934814512973298</v>
+        <v>0.1765570164448262</v>
       </c>
       <c r="C13">
-        <v>0.3271720261913182</v>
+        <v>0.3174251003228087</v>
       </c>
       <c r="D13">
-        <v>0.9655488801367561</v>
+        <v>0.3679925447451996</v>
       </c>
       <c r="E13">
-        <v>0.9171388224914542</v>
+        <v>0.6871333913087913</v>
       </c>
       <c r="F13">
-        <v>0.5164726266707482</v>
+        <v>0.101865817645828</v>
       </c>
       <c r="G13">
-        <v>0.968756208775047</v>
+        <v>0.9133050355698979</v>
       </c>
       <c r="H13">
-        <v>0.5261353965603537</v>
+        <v>0.1208187593344661</v>
       </c>
       <c r="I13">
-        <v>0.764587450850136</v>
+        <v>0.2695192267185985</v>
       </c>
       <c r="J13">
-        <v>0.9002996468551343</v>
+        <v>0.512394403029206</v>
       </c>
       <c r="K13">
-        <v>0.7709815397106752</v>
+        <v>0.8682143014177354</v>
       </c>
       <c r="L13">
-        <v>0.9664091344465904</v>
+        <v>0.8811202592739928</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.3510075439023889</v>
+        <v>0.1345348276093393</v>
       </c>
       <c r="O13">
-        <v>0.9441841113074365</v>
+        <v>0.9287864077510071</v>
       </c>
       <c r="P13">
-        <v>0.8616302325819649</v>
+        <v>0.9786351173275891</v>
       </c>
       <c r="Q13">
-        <v>0.943820411665049</v>
+        <v>0.7514315937700787</v>
       </c>
       <c r="R13">
-        <v>0.8703970761595545</v>
+        <v>0.9954180462562553</v>
       </c>
       <c r="S13">
-        <v>0.847233608771899</v>
+        <v>0.9501288156137966</v>
       </c>
       <c r="T13">
-        <v>0.882959922349747</v>
+        <v>0.8949014741721089</v>
       </c>
       <c r="U13">
-        <v>0.9106998409741023</v>
+        <v>0.9404852114030251</v>
       </c>
       <c r="V13">
-        <v>0.9012525366215178</v>
+        <v>0.9176662754796467</v>
       </c>
       <c r="W13">
-        <v>0.4156091854700803</v>
+        <v>0.1563707527187729</v>
       </c>
       <c r="X13">
-        <v>0.9132747296401038</v>
+        <v>0.886307134989153</v>
       </c>
       <c r="Y13">
-        <v>0.9985191471669674</v>
+        <v>0.5334035231615839</v>
       </c>
       <c r="Z13">
-        <v>0.9016506324228895</v>
+        <v>0.9497434611824357</v>
       </c>
       <c r="AA13">
-        <v>0.8826586309151763</v>
+        <v>0.812592821622861</v>
       </c>
       <c r="AB13">
-        <v>0.9012108051771379</v>
+        <v>0.8414543264201195</v>
       </c>
       <c r="AC13">
-        <v>0.8006943465201379</v>
+        <v>0.3811589893897707</v>
       </c>
       <c r="AD13">
-        <v>0.771631224661331</v>
+        <v>0.9093151022370672</v>
       </c>
       <c r="AE13">
-        <v>0.3815707713076067</v>
+        <v>0.9807195909474893</v>
       </c>
       <c r="AF13">
-        <v>0.8349903562458807</v>
+        <v>0.8845394040854947</v>
       </c>
       <c r="AG13">
-        <v>0.5401994510039559</v>
+        <v>0.9258797006044326</v>
       </c>
       <c r="AH13">
-        <v>0.37680764577545</v>
+        <v>0.8355417979211669</v>
       </c>
       <c r="AI13">
-        <v>0.5125428531592738</v>
+        <v>0.7339406964668588</v>
       </c>
       <c r="AJ13">
-        <v>0.8480837627512902</v>
+        <v>0.6863439886152629</v>
       </c>
       <c r="AK13">
-        <v>0.9318518061404006</v>
+        <v>0.7860140909135929</v>
       </c>
       <c r="AL13">
-        <v>0.3246033258286944</v>
+        <v>0.9593088244015632</v>
       </c>
       <c r="AM13">
-        <v>0.8368626298504485</v>
+        <v>0.9768258563608833</v>
       </c>
       <c r="AN13">
-        <v>0.4512206673677924</v>
+        <v>0.9817867707532935</v>
       </c>
       <c r="AO13">
-        <v>0.8677728061016184</v>
+        <v>0.9998557184789135</v>
       </c>
       <c r="AP13">
-        <v>0.4017510776615573</v>
+        <v>0.9683074148669891</v>
       </c>
       <c r="AQ13">
-        <v>0.9017074022499381</v>
+        <v>0.9947348068467639</v>
       </c>
       <c r="AR13">
-        <v>0.5531036764425594</v>
+        <v>0.7998049993204952</v>
       </c>
       <c r="AS13">
-        <v>0.6414223071863793</v>
+        <v>0.8766821452071012</v>
       </c>
       <c r="AT13">
-        <v>0.4647922311945691</v>
+        <v>0.9483645894235879</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2334,139 +2334,139 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9173583100743496</v>
+        <v>0.7394041749942482</v>
       </c>
       <c r="C14">
-        <v>0.9483772137285171</v>
+        <v>0.3917646618089069</v>
       </c>
       <c r="D14">
-        <v>0.334852958960997</v>
+        <v>0.3385135836448818</v>
       </c>
       <c r="E14">
-        <v>0.3935481626117808</v>
+        <v>0.188861046278693</v>
       </c>
       <c r="F14">
-        <v>0.7288223337901214</v>
+        <v>0.6760601505442871</v>
       </c>
       <c r="G14">
-        <v>0.3664071843582147</v>
+        <v>0.1462862098488279</v>
       </c>
       <c r="H14">
-        <v>0.716586820451333</v>
+        <v>0.8794447124666632</v>
       </c>
       <c r="I14">
-        <v>0.4895989512780952</v>
+        <v>0.4645277309866735</v>
       </c>
       <c r="J14">
-        <v>0.3064531321668454</v>
+        <v>0.2465822839341678</v>
       </c>
       <c r="K14">
-        <v>0.4851432287274674</v>
+        <v>0.1531369546878174</v>
       </c>
       <c r="L14">
-        <v>0.3352597988118372</v>
+        <v>0.1511419765690337</v>
       </c>
       <c r="M14">
-        <v>0.3510075439023889</v>
+        <v>0.1345348276093393</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.379049762482744</v>
+        <v>0.1440390267981007</v>
       </c>
       <c r="P14">
-        <v>0.2907471528867184</v>
+        <v>0.1372851015914026</v>
       </c>
       <c r="Q14">
-        <v>0.3792390296716064</v>
+        <v>0.1744220898020888</v>
       </c>
       <c r="R14">
-        <v>0.2942621745692051</v>
+        <v>0.1339496873082305</v>
       </c>
       <c r="S14">
-        <v>0.2851230028118453</v>
+        <v>0.1285089235174583</v>
       </c>
       <c r="T14">
-        <v>0.2993413042909329</v>
+        <v>0.1489667339787273</v>
       </c>
       <c r="U14">
-        <v>0.3108044777670674</v>
+        <v>0.1424180154602279</v>
       </c>
       <c r="V14">
-        <v>0.3068068075213343</v>
+        <v>0.1456236870213539</v>
       </c>
       <c r="W14">
-        <v>0.8781833168015057</v>
+        <v>0.8477804493287212</v>
       </c>
       <c r="X14">
-        <v>0.3119001811151379</v>
+        <v>0.1503046853534118</v>
       </c>
       <c r="Y14">
-        <v>0.3517220369395555</v>
+        <v>0.2377135289882573</v>
       </c>
       <c r="Z14">
-        <v>0.3069955210686939</v>
+        <v>0.128466207289891</v>
       </c>
       <c r="AA14">
-        <v>0.2991614910973012</v>
+        <v>0.162529018735706</v>
       </c>
       <c r="AB14">
-        <v>0.3068409320733747</v>
+        <v>0.1575300557167167</v>
       </c>
       <c r="AC14">
-        <v>0.4644328207075685</v>
+        <v>0.3269448631215199</v>
       </c>
       <c r="AD14">
-        <v>0.4845314356665201</v>
+        <v>0.1468463227699068</v>
       </c>
       <c r="AE14">
-        <v>0.939409473820313</v>
+        <v>0.1369838174451284</v>
       </c>
       <c r="AF14">
-        <v>0.4419354704455168</v>
+        <v>0.1505828024233886</v>
       </c>
       <c r="AG14">
-        <v>0.6994223778571634</v>
+        <v>0.1444391873081068</v>
       </c>
       <c r="AH14">
-        <v>0.9486360676239201</v>
+        <v>0.158581085715851</v>
       </c>
       <c r="AI14">
-        <v>0.7339152316379376</v>
+        <v>0.178007126011662</v>
       </c>
       <c r="AJ14">
-        <v>0.4337445274274848</v>
+        <v>0.1890366505080531</v>
       </c>
       <c r="AK14">
-        <v>0.3854790197001825</v>
+        <v>0.1674899133105869</v>
       </c>
       <c r="AL14">
-        <v>0.9422942059443744</v>
+        <v>0.1398355011007048</v>
       </c>
       <c r="AM14">
-        <v>0.4407168336306803</v>
+        <v>0.1375054898859319</v>
       </c>
       <c r="AN14">
-        <v>0.8208441176023986</v>
+        <v>0.1368571069541628</v>
       </c>
       <c r="AO14">
-        <v>0.4218410770141028</v>
+        <v>0.1345136064599929</v>
       </c>
       <c r="AP14">
-        <v>0.9022388090225338</v>
+        <v>0.1386106867404448</v>
       </c>
       <c r="AQ14">
-        <v>0.4021827714585764</v>
+        <v>0.1338665911603256</v>
       </c>
       <c r="AR14">
-        <v>0.68408645582133</v>
+        <v>0.1649075638567077</v>
       </c>
       <c r="AS14">
-        <v>0.5915756108340018</v>
+        <v>0.151804159950694</v>
       </c>
       <c r="AT14">
-        <v>0.8001192146775296</v>
+        <v>0.1413151136337148</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2474,139 +2474,139 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4251433097587723</v>
+        <v>0.1914080702833628</v>
       </c>
       <c r="C15">
-        <v>0.353083550029608</v>
+        <v>0.3499257597423152</v>
       </c>
       <c r="D15">
-        <v>0.9099483560221742</v>
+        <v>0.4061555536283998</v>
       </c>
       <c r="E15">
-        <v>0.9728008712863184</v>
+        <v>0.7513904708861707</v>
       </c>
       <c r="F15">
-        <v>0.5573358832994632</v>
+        <v>0.1074350154005806</v>
       </c>
       <c r="G15">
-        <v>0.9753755564162533</v>
+        <v>0.9843758274315526</v>
       </c>
       <c r="H15">
-        <v>0.5676311764319155</v>
+        <v>0.128635156958548</v>
       </c>
       <c r="I15">
-        <v>0.8173992433612582</v>
+        <v>0.2962189680450997</v>
       </c>
       <c r="J15">
-        <v>0.8455810768191983</v>
+        <v>0.5646929666588785</v>
       </c>
       <c r="K15">
-        <v>0.8239551012502249</v>
+        <v>0.9387157922426559</v>
       </c>
       <c r="L15">
-        <v>0.9108053139327317</v>
+        <v>0.9517929010131863</v>
       </c>
       <c r="M15">
-        <v>0.9441841113074365</v>
+        <v>0.9287864077510071</v>
       </c>
       <c r="N15">
-        <v>0.379049762482744</v>
+        <v>0.1440390267981007</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.8076958349787374</v>
+        <v>0.950082707402317</v>
       </c>
       <c r="Q15">
-        <v>0.9996352996584321</v>
+        <v>0.818554935880669</v>
       </c>
       <c r="R15">
-        <v>0.816276146866128</v>
+        <v>0.924217460760639</v>
       </c>
       <c r="S15">
-        <v>0.793651371501688</v>
+        <v>0.8794574805549187</v>
       </c>
       <c r="T15">
-        <v>0.8285790144197727</v>
+        <v>0.965834736075011</v>
       </c>
       <c r="U15">
-        <v>0.8558002261435232</v>
+        <v>0.9882671320583163</v>
       </c>
       <c r="V15">
-        <v>0.8465020968027177</v>
+        <v>0.9888093585114577</v>
       </c>
       <c r="W15">
-        <v>0.4490828461820462</v>
+        <v>0.168622491871585</v>
       </c>
       <c r="X15">
-        <v>0.8583355484951759</v>
+        <v>0.9570944263766488</v>
       </c>
       <c r="Y15">
-        <v>0.9456597427453961</v>
+        <v>0.5874068851056248</v>
       </c>
       <c r="Z15">
-        <v>0.8469010202495365</v>
+        <v>0.8790817965923188</v>
       </c>
       <c r="AA15">
-        <v>0.8282632816619786</v>
+        <v>0.8818453647340456</v>
       </c>
       <c r="AB15">
-        <v>0.8464789041849357</v>
+        <v>0.9114143821826477</v>
       </c>
       <c r="AC15">
-        <v>0.8544723292641138</v>
+        <v>0.4207625466706096</v>
       </c>
       <c r="AD15">
-        <v>0.8246497835605409</v>
+        <v>0.9803772108464964</v>
       </c>
       <c r="AE15">
-        <v>0.4122417601778824</v>
+        <v>0.947959688827209</v>
       </c>
       <c r="AF15">
-        <v>0.8895381194159426</v>
+        <v>0.9552949870165401</v>
       </c>
       <c r="AG15">
-        <v>0.5825819634655243</v>
+        <v>0.9970906550161219</v>
       </c>
       <c r="AH15">
-        <v>0.4070664761538204</v>
+        <v>0.9053200181349648</v>
       </c>
       <c r="AI15">
-        <v>0.5531425921627926</v>
+        <v>0.8004358679750947</v>
       </c>
       <c r="AJ15">
-        <v>0.9028744752961524</v>
+        <v>0.7505714343988545</v>
       </c>
       <c r="AK15">
-        <v>0.9876358879909082</v>
+        <v>0.8544235683472582</v>
       </c>
       <c r="AL15">
-        <v>0.3502672598025324</v>
+        <v>0.9693834113143303</v>
       </c>
       <c r="AM15">
-        <v>0.8914539215016342</v>
+        <v>0.9518653269262738</v>
       </c>
       <c r="AN15">
-        <v>0.4874354483256105</v>
+        <v>0.9469125723721139</v>
       </c>
       <c r="AO15">
-        <v>0.9228698716131414</v>
+        <v>0.9286382707183802</v>
       </c>
       <c r="AP15">
-        <v>0.434108665512302</v>
+        <v>0.9603505474728171</v>
       </c>
       <c r="AQ15">
-        <v>0.9572195361697304</v>
+        <v>0.9235423932851436</v>
       </c>
       <c r="AR15">
-        <v>0.5962875940610974</v>
+        <v>0.8686429094434589</v>
       </c>
       <c r="AS15">
-        <v>0.6894056559700245</v>
+        <v>0.9473189997955802</v>
       </c>
       <c r="AT15">
-        <v>0.5020369363096963</v>
+        <v>0.980339723635951</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2614,139 +2614,139 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3249688735980015</v>
+        <v>0.1808508864362269</v>
       </c>
       <c r="C16">
-        <v>0.2716834751255768</v>
+        <v>0.3268537027739548</v>
       </c>
       <c r="D16">
-        <v>0.89543707775859</v>
+        <v>0.379088035840361</v>
       </c>
       <c r="E16">
-        <v>0.7819195025472105</v>
+        <v>0.7061211501760686</v>
       </c>
       <c r="F16">
-        <v>0.4259369849064785</v>
+        <v>0.1034807824855542</v>
       </c>
       <c r="G16">
-        <v>0.8313165772747634</v>
+        <v>0.9345430396205492</v>
       </c>
       <c r="H16">
-        <v>0.434013248251057</v>
+        <v>0.1230821572914659</v>
       </c>
       <c r="I16">
-        <v>0.6408940501351893</v>
+        <v>0.2772514235486147</v>
       </c>
       <c r="J16">
-        <v>0.9606671512891567</v>
+        <v>0.5277082911915578</v>
       </c>
       <c r="K16">
-        <v>0.6467271656271421</v>
+        <v>0.8892374737535353</v>
       </c>
       <c r="L16">
-        <v>0.8946000386458753</v>
+        <v>0.9022070801753159</v>
       </c>
       <c r="M16">
-        <v>0.8616302325819649</v>
+        <v>0.9786351173275891</v>
       </c>
       <c r="N16">
-        <v>0.2907471528867184</v>
+        <v>0.1372851015914026</v>
       </c>
       <c r="O16">
-        <v>0.8076958349787374</v>
+        <v>0.950082707402317</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.8073465511746447</v>
+        <v>0.7713313704574728</v>
       </c>
       <c r="R16">
-        <v>0.9910636545129771</v>
+        <v>0.9740525272340919</v>
       </c>
       <c r="S16">
-        <v>0.9851906858473072</v>
+        <v>0.9288813418797368</v>
       </c>
       <c r="T16">
-        <v>0.978272301414054</v>
+        <v>0.9160807452660469</v>
       </c>
       <c r="U16">
-        <v>0.9501652121810529</v>
+        <v>0.9618028498242381</v>
       </c>
       <c r="V16">
-        <v>0.9596582633654518</v>
+        <v>0.9389306274660019</v>
       </c>
       <c r="W16">
-        <v>0.3428926808705238</v>
+        <v>0.1599138828507626</v>
       </c>
       <c r="X16">
-        <v>0.9475801679119895</v>
+        <v>0.9074338307072434</v>
       </c>
       <c r="Y16">
-        <v>0.8601870642874063</v>
+        <v>0.5492337100241247</v>
       </c>
       <c r="Z16">
-        <v>0.9592802132225027</v>
+        <v>0.9284986107288883</v>
       </c>
       <c r="AA16">
-        <v>0.9785149155269296</v>
+        <v>0.8331876104665568</v>
       </c>
       <c r="AB16">
-        <v>0.9597551186459364</v>
+        <v>0.8622889074739382</v>
       </c>
       <c r="AC16">
-        <v>0.6736611689222589</v>
+        <v>0.3926802665481786</v>
       </c>
       <c r="AD16">
-        <v>0.6472472436337176</v>
+        <v>0.9305468917430456</v>
       </c>
       <c r="AE16">
-        <v>0.3153369547081556</v>
+        <v>0.9979013858967842</v>
       </c>
       <c r="AF16">
-        <v>0.7050775770589295</v>
+        <v>0.905654783982069</v>
       </c>
       <c r="AG16">
-        <v>0.4458302173110397</v>
+        <v>0.9471725452070259</v>
       </c>
       <c r="AH16">
-        <v>0.3115150579599152</v>
+        <v>0.8563157492763136</v>
       </c>
       <c r="AI16">
-        <v>0.4226641561538286</v>
+        <v>0.7536374072400995</v>
       </c>
       <c r="AJ16">
-        <v>0.7171823029452455</v>
+        <v>0.7053222910294155</v>
       </c>
       <c r="AK16">
-        <v>0.7958418222921334</v>
+        <v>0.8063308914917654</v>
       </c>
       <c r="AL16">
-        <v>0.269663066816873</v>
+        <v>0.9806629310569523</v>
       </c>
       <c r="AM16">
-        <v>0.7067860997002613</v>
+        <v>0.9981972974618998</v>
       </c>
       <c r="AN16">
-        <v>0.3720240030012549</v>
+        <v>0.9968394321313819</v>
       </c>
       <c r="AO16">
-        <v>0.7355182643134309</v>
+        <v>0.9784894770133569</v>
       </c>
       <c r="AP16">
-        <v>0.3316329699434318</v>
+        <v>0.9896809151201426</v>
       </c>
       <c r="AQ16">
-        <v>0.767360754834137</v>
+        <v>0.9733711479790577</v>
       </c>
       <c r="AR16">
-        <v>0.4566858328178288</v>
+        <v>0.820263068659942</v>
       </c>
       <c r="AS16">
-        <v>0.5321899397298699</v>
+        <v>0.8977541845520096</v>
       </c>
       <c r="AT16">
-        <v>0.383129419084724</v>
+        <v>0.9697045561011968</v>
       </c>
     </row>
     <row r="17" spans="1:46">
@@ -2754,139 +2754,139 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.425356555432182</v>
+        <v>0.2391295577992699</v>
       </c>
       <c r="C17">
-        <v>0.3532586304080141</v>
+        <v>0.4517075735621963</v>
       </c>
       <c r="D17">
-        <v>0.9095866504933547</v>
+        <v>0.5238449469581969</v>
       </c>
       <c r="E17">
-        <v>0.973165065155404</v>
+        <v>0.9289429627541159</v>
       </c>
       <c r="F17">
-        <v>0.55760926036473</v>
+        <v>0.1249775405554992</v>
       </c>
       <c r="G17">
-        <v>0.975010960386827</v>
+        <v>0.8336173748882727</v>
       </c>
       <c r="H17">
-        <v>0.5679086334072866</v>
+        <v>0.1535069855705705</v>
       </c>
       <c r="I17">
-        <v>0.8177476181818875</v>
+        <v>0.3809004867841268</v>
       </c>
       <c r="J17">
-        <v>0.8452261407508563</v>
+        <v>0.7183017094969306</v>
       </c>
       <c r="K17">
-        <v>0.8243044252190161</v>
+        <v>0.8780655565325335</v>
       </c>
       <c r="L17">
-        <v>0.9104435710050339</v>
+        <v>0.8653008963965961</v>
       </c>
       <c r="M17">
-        <v>0.943820411665049</v>
+        <v>0.7514315937700787</v>
       </c>
       <c r="N17">
-        <v>0.3792390296716064</v>
+        <v>0.1744220898020888</v>
       </c>
       <c r="O17">
-        <v>0.9996352996584321</v>
+        <v>0.818554935880669</v>
       </c>
       <c r="P17">
-        <v>0.8073465511746447</v>
+        <v>0.7713313704574728</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.8159255257451876</v>
+        <v>0.7471637285467918</v>
       </c>
       <c r="S17">
-        <v>0.7933045651539459</v>
+        <v>0.7061809708141489</v>
       </c>
       <c r="T17">
-        <v>0.8282265241553228</v>
+        <v>0.8514528175597347</v>
       </c>
       <c r="U17">
-        <v>0.855443957033673</v>
+        <v>0.8074030410941406</v>
       </c>
       <c r="V17">
-        <v>0.8461469452977544</v>
+        <v>0.8292771056210486</v>
       </c>
       <c r="W17">
-        <v>0.4493080337414803</v>
+        <v>0.2079463598989287</v>
       </c>
       <c r="X17">
-        <v>0.8579789818079653</v>
+        <v>0.8600365671782524</v>
       </c>
       <c r="Y17">
-        <v>0.9452959830205474</v>
+        <v>0.7448709011893708</v>
       </c>
       <c r="Z17">
-        <v>0.846545864994716</v>
+        <v>0.7058470601808833</v>
       </c>
       <c r="AA17">
-        <v>0.8279107103721834</v>
+        <v>0.9348235178077342</v>
       </c>
       <c r="AB17">
-        <v>0.8461238666694523</v>
+        <v>0.905150187365954</v>
       </c>
       <c r="AC17">
-        <v>0.8548263772342999</v>
+        <v>0.5423809895279195</v>
       </c>
       <c r="AD17">
-        <v>0.8249993859966589</v>
+        <v>0.8374190874198737</v>
       </c>
       <c r="AE17">
-        <v>0.4124484579842913</v>
+        <v>0.769259078787317</v>
       </c>
       <c r="AF17">
-        <v>0.889896565255244</v>
+        <v>0.8618081278551379</v>
       </c>
       <c r="AG17">
-        <v>0.5828651243203932</v>
+        <v>0.8213101316460508</v>
       </c>
       <c r="AH17">
-        <v>0.4072704453867989</v>
+        <v>0.9113365259124153</v>
       </c>
       <c r="AI17">
-        <v>0.5534142667297115</v>
+        <v>0.9812213239040872</v>
       </c>
       <c r="AJ17">
-        <v>0.9032342653162815</v>
+        <v>0.9280862359526785</v>
       </c>
       <c r="AK17">
-        <v>0.9880005994103704</v>
+        <v>0.9628303646824026</v>
       </c>
       <c r="AL17">
-        <v>0.3504406869088039</v>
+        <v>0.7894662035754401</v>
       </c>
       <c r="AM17">
-        <v>0.891812615479803</v>
+        <v>0.7729584672115204</v>
       </c>
       <c r="AN17">
-        <v>0.4876786104003673</v>
+        <v>0.7683120096111911</v>
       </c>
       <c r="AO17">
-        <v>0.9232312987546973</v>
+        <v>0.7512851224448551</v>
       </c>
       <c r="AP17">
-        <v>0.4343265033982688</v>
+        <v>0.7808860441495606</v>
       </c>
       <c r="AQ17">
-        <v>0.9575830418627382</v>
+        <v>0.7465450361227411</v>
       </c>
       <c r="AR17">
-        <v>0.5965758970874455</v>
+        <v>0.9483168710705053</v>
       </c>
       <c r="AS17">
-        <v>0.6897243906314022</v>
+        <v>0.8696189831170926</v>
       </c>
       <c r="AT17">
-        <v>0.5022868265550493</v>
+        <v>0.7998248370789889</v>
       </c>
     </row>
     <row r="18" spans="1:46">
@@ -2894,139 +2894,139 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3289809001509021</v>
+        <v>0.1756429276990438</v>
       </c>
       <c r="C18">
-        <v>0.2749139230182862</v>
+        <v>0.3154136102934051</v>
       </c>
       <c r="D18">
-        <v>0.904287279724613</v>
+        <v>0.3656236121249775</v>
       </c>
       <c r="E18">
-        <v>0.7903879627317153</v>
+        <v>0.6830629492132825</v>
       </c>
       <c r="F18">
-        <v>0.4313110734456528</v>
+        <v>0.1015224001490346</v>
       </c>
       <c r="G18">
-        <v>0.8399864614210377</v>
+        <v>0.9087484573027155</v>
       </c>
       <c r="H18">
-        <v>0.439487895934154</v>
+        <v>0.1203373020295771</v>
       </c>
       <c r="I18">
-        <v>0.6484782448449782</v>
+        <v>0.2678708890711103</v>
       </c>
       <c r="J18">
-        <v>0.9695987329664668</v>
+        <v>0.5091179110287609</v>
       </c>
       <c r="K18">
-        <v>0.6543522740693413</v>
+        <v>0.8637036282933621</v>
       </c>
       <c r="L18">
-        <v>0.9034476261505185</v>
+        <v>0.8765959751895097</v>
       </c>
       <c r="M18">
-        <v>0.8703970761595545</v>
+        <v>0.9954180462562553</v>
       </c>
       <c r="N18">
-        <v>0.2942621745692051</v>
+        <v>0.1339496873082305</v>
       </c>
       <c r="O18">
-        <v>0.816276146866128</v>
+        <v>0.924217460760639</v>
       </c>
       <c r="P18">
-        <v>0.9910636545129771</v>
+        <v>0.9740525272340919</v>
       </c>
       <c r="Q18">
-        <v>0.8159255257451876</v>
+        <v>0.7471637285467918</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.9762636754908967</v>
+        <v>0.954683386649145</v>
       </c>
       <c r="T18">
-        <v>0.9872079135544638</v>
+        <v>0.8903572823880577</v>
       </c>
       <c r="U18">
-        <v>0.9590905902805559</v>
+        <v>0.9359119052848303</v>
       </c>
       <c r="V18">
-        <v>0.9685925908582501</v>
+        <v>0.9131040343785675</v>
       </c>
       <c r="W18">
-        <v>0.3471603463204115</v>
+        <v>0.1556166973667228</v>
       </c>
       <c r="X18">
-        <v>0.9565029793657478</v>
+        <v>0.8817742446015725</v>
       </c>
       <c r="Y18">
-        <v>0.8689496978253013</v>
+        <v>0.5300156610170509</v>
       </c>
       <c r="Z18">
-        <v>0.9682125945440528</v>
+        <v>0.9542974431024585</v>
       </c>
       <c r="AA18">
-        <v>0.9874551374679867</v>
+        <v>0.8081745322295454</v>
       </c>
       <c r="AB18">
-        <v>0.9686855748073953</v>
+        <v>0.8369842776361027</v>
       </c>
       <c r="AC18">
-        <v>0.6814888765292653</v>
+        <v>0.3786986466129934</v>
       </c>
       <c r="AD18">
-        <v>0.6548811682218351</v>
+        <v>0.9047597787244629</v>
       </c>
       <c r="AE18">
-        <v>0.3192110818016976</v>
+        <v>0.9761339569158842</v>
       </c>
       <c r="AF18">
-        <v>0.7131209994784224</v>
+        <v>0.880008948134599</v>
       </c>
       <c r="AG18">
-        <v>0.4514480476439658</v>
+        <v>0.9213114317457431</v>
       </c>
       <c r="AH18">
-        <v>0.3153324485863401</v>
+        <v>0.8310848767276964</v>
       </c>
       <c r="AI18">
-        <v>0.4279967359310658</v>
+        <v>0.7297167401177944</v>
       </c>
       <c r="AJ18">
-        <v>0.7253017108490156</v>
+        <v>0.6822755881478495</v>
       </c>
       <c r="AK18">
-        <v>0.804377671453225</v>
+        <v>0.7816559450031278</v>
       </c>
       <c r="AL18">
-        <v>0.2728610251691753</v>
+        <v>0.9547280427316041</v>
       </c>
       <c r="AM18">
-        <v>0.7148418238591022</v>
+        <v>0.9722417733216476</v>
       </c>
       <c r="AN18">
-        <v>0.3766897513269164</v>
+        <v>0.9772023156351324</v>
       </c>
       <c r="AO18">
-        <v>0.7437440060228127</v>
+        <v>0.9955620337786371</v>
       </c>
       <c r="AP18">
-        <v>0.3357423348626631</v>
+        <v>0.9637226327626531</v>
       </c>
       <c r="AQ18">
-        <v>0.7757562561889806</v>
+        <v>0.9993163311647772</v>
       </c>
       <c r="AR18">
-        <v>0.4624347827551365</v>
+        <v>0.795416303085799</v>
       </c>
       <c r="AS18">
-        <v>0.538777087177913</v>
+        <v>0.8721609834213718</v>
       </c>
       <c r="AT18">
-        <v>0.3879477079033857</v>
+        <v>0.943786602402047</v>
       </c>
     </row>
     <row r="19" spans="1:46">
@@ -3034,139 +3034,139 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3185447416899761</v>
+        <v>0.1671771696139506</v>
       </c>
       <c r="C19">
-        <v>0.2665161958926722</v>
+        <v>0.2967692442289752</v>
       </c>
       <c r="D19">
-        <v>0.8808726779607751</v>
+        <v>0.3436073133321624</v>
       </c>
       <c r="E19">
-        <v>0.7680789602336295</v>
+        <v>0.6442310873317232</v>
       </c>
       <c r="F19">
-        <v>0.4173044614547491</v>
+        <v>0.09830827018441513</v>
       </c>
       <c r="G19">
-        <v>0.8171055004645418</v>
+        <v>0.864193186147308</v>
       </c>
       <c r="H19">
-        <v>0.425216520683644</v>
+        <v>0.1158505791079628</v>
       </c>
       <c r="I19">
-        <v>0.6285934017138686</v>
+        <v>0.2526178319665348</v>
       </c>
       <c r="J19">
-        <v>0.9459058507058026</v>
+        <v>0.4783529146611865</v>
       </c>
       <c r="K19">
-        <v>0.6343564543894876</v>
+        <v>0.8198295417302608</v>
       </c>
       <c r="L19">
-        <v>0.8800407361241426</v>
+        <v>0.8325242454120259</v>
       </c>
       <c r="M19">
-        <v>0.847233608771899</v>
+        <v>0.9501288156137966</v>
       </c>
       <c r="N19">
-        <v>0.2851230028118453</v>
+        <v>0.1285089235174583</v>
       </c>
       <c r="O19">
-        <v>0.793651371501688</v>
+        <v>0.8794574805549187</v>
       </c>
       <c r="P19">
-        <v>0.9851906858473072</v>
+        <v>0.9288813418797368</v>
       </c>
       <c r="Q19">
-        <v>0.7933045651539459</v>
+        <v>0.7061809708141489</v>
       </c>
       <c r="R19">
-        <v>0.9762636754908967</v>
+        <v>0.954683386649145</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.9634866587649409</v>
+        <v>0.8460190394419169</v>
       </c>
       <c r="U19">
-        <v>0.935424563563815</v>
+        <v>0.8910458927371243</v>
       </c>
       <c r="V19">
-        <v>0.9448933357813165</v>
+        <v>0.8684694563177625</v>
       </c>
       <c r="W19">
-        <v>0.3360560532704584</v>
+        <v>0.1486226751240184</v>
       </c>
       <c r="X19">
-        <v>0.932846318445342</v>
+        <v>0.8375913654489753</v>
       </c>
       <c r="Y19">
-        <v>0.8457986390346751</v>
+        <v>0.4981491050281732</v>
       </c>
       <c r="Z19">
-        <v>0.9445189291324818</v>
+        <v>0.99961043723041</v>
       </c>
       <c r="AA19">
-        <v>0.9637212538406685</v>
+        <v>0.7654673143731985</v>
       </c>
       <c r="AB19">
-        <v>0.9449966061217472</v>
+        <v>0.7936377988200461</v>
       </c>
       <c r="AC19">
-        <v>0.6609440062062448</v>
+        <v>0.355815025687061</v>
       </c>
       <c r="AD19">
-        <v>0.6348619156235715</v>
+        <v>0.8602374729196468</v>
       </c>
       <c r="AE19">
-        <v>0.3091350700926276</v>
+        <v>0.9309197222144178</v>
       </c>
       <c r="AF19">
-        <v>0.6919880482209487</v>
+        <v>0.8358590171708196</v>
       </c>
       <c r="AG19">
-        <v>0.436799283720768</v>
+        <v>0.8765735233061669</v>
       </c>
       <c r="AH19">
-        <v>0.3054044924268259</v>
+        <v>0.7878949170084093</v>
       </c>
       <c r="AI19">
-        <v>0.4140993420640982</v>
+        <v>0.6892289558983533</v>
       </c>
       <c r="AJ19">
-        <v>0.7039604210025183</v>
+        <v>0.6434662394161402</v>
       </c>
       <c r="AK19">
-        <v>0.7818798054370786</v>
+        <v>0.7396521203177469</v>
       </c>
       <c r="AL19">
-        <v>0.2645478332921015</v>
+        <v>0.9096839026491992</v>
       </c>
       <c r="AM19">
-        <v>0.693675337044235</v>
+        <v>0.9270656734008434</v>
       </c>
       <c r="AN19">
-        <v>0.3645431334396415</v>
+        <v>0.9319939945183744</v>
       </c>
       <c r="AO19">
-        <v>0.7221096997898482</v>
+        <v>0.9502689235409085</v>
       </c>
       <c r="AP19">
-        <v>0.3250519291146086</v>
+        <v>0.9185876343657751</v>
       </c>
       <c r="AQ19">
-        <v>0.7536509348405416</v>
+        <v>0.955367370065455</v>
       </c>
       <c r="AR19">
-        <v>0.4474401705746661</v>
+        <v>0.753054863700183</v>
       </c>
       <c r="AS19">
-        <v>0.5215620975434372</v>
+        <v>0.8281418895134066</v>
       </c>
       <c r="AT19">
-        <v>0.3754012879586472</v>
+        <v>0.8988307549286556</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -3174,139 +3174,139 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3347753375709007</v>
+        <v>0.1991250850696119</v>
       </c>
       <c r="C20">
-        <v>0.2795830476642089</v>
+        <v>0.3666863881346761</v>
       </c>
       <c r="D20">
-        <v>0.916965340167941</v>
+        <v>0.4257372729129625</v>
       </c>
       <c r="E20">
-        <v>0.8025341908303311</v>
+        <v>0.7831319685459344</v>
       </c>
       <c r="F20">
-        <v>0.4390603477122585</v>
+        <v>0.1103072090246025</v>
       </c>
       <c r="G20">
-        <v>0.852414416984473</v>
+        <v>0.9814644398761971</v>
       </c>
       <c r="H20">
-        <v>0.4473811368983474</v>
+        <v>0.1326808328175346</v>
       </c>
       <c r="I20">
-        <v>0.6593771357678925</v>
+        <v>0.3100433906216422</v>
       </c>
       <c r="J20">
-        <v>0.9823865374372118</v>
+        <v>0.591087942760731</v>
       </c>
       <c r="K20">
-        <v>0.6653090880599979</v>
+        <v>0.9727822790525165</v>
       </c>
       <c r="L20">
-        <v>0.9161220628550217</v>
+        <v>0.9858911305212122</v>
       </c>
       <c r="M20">
-        <v>0.882959922349747</v>
+        <v>0.8949014741721089</v>
       </c>
       <c r="N20">
-        <v>0.2993413042909329</v>
+        <v>0.1489667339787273</v>
       </c>
       <c r="O20">
-        <v>0.8285790144197727</v>
+        <v>0.965834736075011</v>
       </c>
       <c r="P20">
-        <v>0.978272301414054</v>
+        <v>0.9160807452660469</v>
       </c>
       <c r="Q20">
-        <v>0.8282265241553228</v>
+        <v>0.8514528175597347</v>
       </c>
       <c r="R20">
-        <v>0.9872079135544638</v>
+        <v>0.8903572823880577</v>
       </c>
       <c r="S20">
-        <v>0.9634866587649409</v>
+        <v>0.8460190394419169</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.9718704800899156</v>
+        <v>0.9541310176384874</v>
       </c>
       <c r="V20">
-        <v>0.9813843301428431</v>
+        <v>0.9770151180914913</v>
       </c>
       <c r="W20">
-        <v>0.3533223210944741</v>
+        <v>0.1749849145031185</v>
       </c>
       <c r="X20">
-        <v>0.9692794571795877</v>
+        <v>0.9912254079296283</v>
       </c>
       <c r="Y20">
-        <v>0.8815067007720456</v>
+        <v>0.6145934388687467</v>
       </c>
       <c r="Z20">
-        <v>0.9810016290529742</v>
+        <v>0.8456491693898005</v>
       </c>
       <c r="AA20">
-        <v>0.9997463230661359</v>
+        <v>0.9155325871396259</v>
       </c>
       <c r="AB20">
-        <v>0.9814718684208035</v>
+        <v>0.9453280777483718</v>
       </c>
       <c r="AC20">
-        <v>0.6927323718067893</v>
+        <v>0.4410550673204828</v>
       </c>
       <c r="AD20">
-        <v>0.6658504905556801</v>
+        <v>0.9854523899416797</v>
       </c>
       <c r="AE20">
-        <v>0.3248071499051859</v>
+        <v>0.913949562087867</v>
       </c>
       <c r="AF20">
-        <v>0.7246691828159374</v>
+        <v>0.989418097246643</v>
       </c>
       <c r="AG20">
-        <v>0.4595461799263463</v>
+        <v>0.9687344141975011</v>
       </c>
       <c r="AH20">
-        <v>0.3208468727887785</v>
+        <v>0.9391712643781513</v>
       </c>
       <c r="AI20">
-        <v>0.4356865670277378</v>
+        <v>0.833093337609532</v>
       </c>
       <c r="AJ20">
-        <v>0.7369570562121803</v>
+        <v>0.7823011198975447</v>
       </c>
       <c r="AK20">
-        <v>0.8166183861807614</v>
+        <v>0.8878094394263343</v>
       </c>
       <c r="AL20">
-        <v>0.2774833139139589</v>
+        <v>0.9352936930761093</v>
       </c>
       <c r="AM20">
-        <v>0.7264073716499061</v>
+        <v>0.917844609727948</v>
       </c>
       <c r="AN20">
-        <v>0.3834234709191944</v>
+        <v>0.9129153982068803</v>
       </c>
       <c r="AO20">
-        <v>0.7555491347612923</v>
+        <v>0.8947522907732708</v>
       </c>
       <c r="AP20">
-        <v>0.3416767559735321</v>
+        <v>0.9262814656716389</v>
       </c>
       <c r="AQ20">
-        <v>0.7878000761895312</v>
+        <v>0.8896885792319573</v>
       </c>
       <c r="AR20">
-        <v>0.4707204538361495</v>
+        <v>0.9021818199050851</v>
       </c>
       <c r="AS20">
-        <v>0.5482592161579202</v>
+        <v>0.9814166803797824</v>
       </c>
       <c r="AT20">
-        <v>0.3949003380707311</v>
+        <v>0.9462128123831868</v>
       </c>
     </row>
     <row r="21" spans="1:46">
@@ -3314,139 +3314,139 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3478393698702732</v>
+        <v>0.1888737383424877</v>
       </c>
       <c r="C21">
-        <v>0.2901262607701323</v>
+        <v>0.344402273660234</v>
       </c>
       <c r="D21">
-        <v>0.944924841082637</v>
+        <v>0.3996852083692091</v>
       </c>
       <c r="E21">
-        <v>0.8294354507816923</v>
+        <v>0.7406796808943368</v>
       </c>
       <c r="F21">
-        <v>0.4564689796072736</v>
+        <v>0.1064868255326141</v>
       </c>
       <c r="G21">
-        <v>0.8798877220983604</v>
+        <v>0.9726584650647518</v>
       </c>
       <c r="H21">
-        <v>0.4651076936907691</v>
+        <v>0.12730275110698</v>
       </c>
       <c r="I21">
-        <v>0.6836513039030354</v>
+        <v>0.2916723944695728</v>
       </c>
       <c r="J21">
-        <v>0.9894766641496616</v>
+        <v>0.5558931008397858</v>
       </c>
       <c r="K21">
-        <v>0.6897067541925117</v>
+        <v>0.9270690121072185</v>
       </c>
       <c r="L21">
-        <v>0.9440745076747059</v>
+        <v>0.9401244312084971</v>
       </c>
       <c r="M21">
-        <v>0.9106998409741023</v>
+        <v>0.9404852114030251</v>
       </c>
       <c r="N21">
-        <v>0.3108044777670674</v>
+        <v>0.1424180154602279</v>
       </c>
       <c r="O21">
-        <v>0.8558002261435232</v>
+        <v>0.9882671320583163</v>
       </c>
       <c r="P21">
-        <v>0.9501652121810529</v>
+        <v>0.9618028498242381</v>
       </c>
       <c r="Q21">
-        <v>0.855443957033673</v>
+        <v>0.8074030410941406</v>
       </c>
       <c r="R21">
-        <v>0.9590905902805559</v>
+        <v>0.9359119052848303</v>
       </c>
       <c r="S21">
-        <v>0.935424563563815</v>
+        <v>0.8910458927371243</v>
       </c>
       <c r="T21">
-        <v>0.9718704800899156</v>
+        <v>0.9541310176384874</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.9904695901089198</v>
+        <v>0.9770825713774065</v>
       </c>
       <c r="W21">
-        <v>0.3672068279463465</v>
+        <v>0.1665319134704893</v>
       </c>
       <c r="X21">
-        <v>0.9974040452032957</v>
+        <v>0.9454100534547959</v>
       </c>
       <c r="Y21">
-        <v>0.9092352127131617</v>
+        <v>0.5783304357079254</v>
       </c>
       <c r="Z21">
-        <v>0.9908576902714257</v>
+        <v>0.8906685020887255</v>
       </c>
       <c r="AA21">
-        <v>0.9716033493882674</v>
+        <v>0.8703749298625375</v>
       </c>
       <c r="AB21">
-        <v>0.9903937071513218</v>
+        <v>0.899842594575672</v>
       </c>
       <c r="AC21">
-        <v>0.7177411449165156</v>
+        <v>0.4140523662202558</v>
       </c>
       <c r="AD21">
-        <v>0.6902752488318289</v>
+        <v>0.9686594617013293</v>
       </c>
       <c r="AE21">
-        <v>0.3374277845195987</v>
+        <v>0.9596848126346349</v>
       </c>
       <c r="AF21">
-        <v>0.7503232426951045</v>
+        <v>0.9436148689487359</v>
       </c>
       <c r="AG21">
-        <v>0.4777245886093958</v>
+        <v>0.985356889555441</v>
       </c>
       <c r="AH21">
-        <v>0.3332848327856082</v>
+        <v>0.8937747704929624</v>
       </c>
       <c r="AI21">
-        <v>0.4529638228568246</v>
+        <v>0.7893790119370832</v>
       </c>
       <c r="AJ21">
-        <v>0.7628367170830079</v>
+        <v>0.739865194797691</v>
       </c>
       <c r="AK21">
-        <v>0.8437139745611284</v>
+        <v>0.8430778225748978</v>
       </c>
       <c r="AL21">
-        <v>0.2879212653731926</v>
+        <v>0.9811168749896868</v>
       </c>
       <c r="AM21">
-        <v>0.7520981722807545</v>
+        <v>0.9635905080809951</v>
       </c>
       <c r="AN21">
-        <v>0.3985809399248814</v>
+        <v>0.9586340442071061</v>
       </c>
       <c r="AO21">
-        <v>0.7817425308252293</v>
+        <v>0.9403376003901223</v>
       </c>
       <c r="AP21">
-        <v>0.3550535240988104</v>
+        <v>0.9720850506660383</v>
       </c>
       <c r="AQ21">
-        <v>0.8144898117645445</v>
+        <v>0.9352352180332714</v>
       </c>
       <c r="AR21">
-        <v>0.4893119598773942</v>
+        <v>0.8572337897082762</v>
       </c>
       <c r="AS21">
-        <v>0.5694714470663526</v>
+        <v>0.9356543313552641</v>
       </c>
       <c r="AT21">
-        <v>0.4105443147640842</v>
+        <v>0.9920764544851517</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -3454,139 +3454,139 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3432866851482268</v>
+        <v>0.1938884883115777</v>
       </c>
       <c r="C22">
-        <v>0.286448304961076</v>
+        <v>0.355323213787893</v>
       </c>
       <c r="D22">
-        <v>0.9354211339307414</v>
+        <v>0.4124691511142344</v>
       </c>
       <c r="E22">
-        <v>0.8202340651635364</v>
+        <v>0.7617168255502025</v>
       </c>
       <c r="F22">
-        <v>0.4504202229133506</v>
+        <v>0.1083598190789438</v>
       </c>
       <c r="G22">
-        <v>0.8705154704408491</v>
+        <v>0.9955598596775623</v>
       </c>
       <c r="H22">
-        <v>0.4589501917175118</v>
+        <v>0.1299366940422073</v>
       </c>
       <c r="I22">
-        <v>0.6752906614516728</v>
+        <v>0.3006665190394312</v>
       </c>
       <c r="J22">
-        <v>0.9990033975881245</v>
+        <v>0.5732368220617523</v>
       </c>
       <c r="K22">
-        <v>0.6813058458816756</v>
+        <v>0.9498555395009423</v>
       </c>
       <c r="L22">
-        <v>0.9345727254295615</v>
+        <v>0.9629469007465679</v>
       </c>
       <c r="M22">
-        <v>0.9012525366215178</v>
+        <v>0.9176662754796467</v>
       </c>
       <c r="N22">
-        <v>0.3068068075213343</v>
+        <v>0.1456236870213539</v>
       </c>
       <c r="O22">
-        <v>0.8465020968027177</v>
+        <v>0.9888093585114577</v>
       </c>
       <c r="P22">
-        <v>0.9596582633654518</v>
+        <v>0.9389306274660019</v>
       </c>
       <c r="Q22">
-        <v>0.8461469452977544</v>
+        <v>0.8292771056210486</v>
       </c>
       <c r="R22">
-        <v>0.9685925908582501</v>
+        <v>0.9131040343785675</v>
       </c>
       <c r="S22">
-        <v>0.9448933357813165</v>
+        <v>0.8684694563177625</v>
       </c>
       <c r="T22">
-        <v>0.9813843301428431</v>
+        <v>0.9770151180914913</v>
       </c>
       <c r="U22">
-        <v>0.9904695901089198</v>
+        <v>0.9770825713774065</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.3623703443209421</v>
+        <v>0.1706677813937169</v>
       </c>
       <c r="X22">
-        <v>0.9878737928776802</v>
+        <v>0.9682608515483082</v>
       </c>
       <c r="Y22">
-        <v>0.8997910261784425</v>
+        <v>0.5962122159946862</v>
       </c>
       <c r="Z22">
-        <v>0.9996134738710633</v>
+        <v>0.8680955868601371</v>
       </c>
       <c r="AA22">
-        <v>0.9811215142764615</v>
+        <v>0.8928440099119914</v>
       </c>
       <c r="AB22">
-        <v>0.9999201851317721</v>
+        <v>0.9224958878912849</v>
       </c>
       <c r="AC22">
-        <v>0.7091407001497998</v>
+        <v>0.4273075140464423</v>
       </c>
       <c r="AD22">
-        <v>0.6818652127823273</v>
+        <v>0.9915636029824987</v>
       </c>
       <c r="AE22">
-        <v>0.3330286421972828</v>
+        <v>0.9368041560783247</v>
       </c>
       <c r="AF22">
-        <v>0.7415142533479691</v>
+        <v>0.9664582735222913</v>
       </c>
       <c r="AG22">
-        <v>0.4714127823111549</v>
+        <v>0.991716371636962</v>
       </c>
       <c r="AH22">
-        <v>0.3289490239198639</v>
+        <v>0.9163791689293301</v>
       </c>
       <c r="AI22">
-        <v>0.4469600470662943</v>
+        <v>0.8110745572815387</v>
       </c>
       <c r="AJ22">
-        <v>0.7539555524608821</v>
+        <v>0.7608937317108428</v>
       </c>
       <c r="AK22">
-        <v>0.8344529499140434</v>
+        <v>0.8653155609342038</v>
       </c>
       <c r="AL22">
-        <v>0.2842799633287958</v>
+        <v>0.958208325208558</v>
       </c>
       <c r="AM22">
-        <v>0.7432773087943041</v>
+        <v>0.940707560670113</v>
       </c>
       <c r="AN22">
-        <v>0.3933053493824292</v>
+        <v>0.9357610271757888</v>
       </c>
       <c r="AO22">
-        <v>0.7727619058485531</v>
+        <v>0.9175177354520789</v>
       </c>
       <c r="AP22">
-        <v>0.3503925679386909</v>
+        <v>0.9491794062303591</v>
       </c>
       <c r="AQ22">
-        <v>0.8053538445968679</v>
+        <v>0.9124308655458095</v>
       </c>
       <c r="AR22">
-        <v>0.4828592453334377</v>
+        <v>0.8795890796628794</v>
       </c>
       <c r="AS22">
-        <v>0.5621306999468445</v>
+        <v>0.9584715465058378</v>
       </c>
       <c r="AT22">
-        <v>0.4051011617209535</v>
+        <v>0.9691557256997669</v>
       </c>
     </row>
     <row r="23" spans="1:46">
@@ -3594,139 +3594,139 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9603301865461205</v>
+        <v>0.8859132966037782</v>
       </c>
       <c r="C23">
-        <v>0.827936875474967</v>
+        <v>0.4846401707056941</v>
       </c>
       <c r="D23">
-        <v>0.396217093894271</v>
+        <v>0.4183293038495851</v>
       </c>
       <c r="E23">
-        <v>0.4662930830948048</v>
+        <v>0.2266649784277659</v>
       </c>
       <c r="F23">
-        <v>0.8441184082913292</v>
+        <v>0.5517003476869282</v>
       </c>
       <c r="G23">
-        <v>0.4340215176107525</v>
+        <v>0.1715249156823978</v>
       </c>
       <c r="H23">
-        <v>0.8310167340223422</v>
+        <v>0.7334311815202712</v>
       </c>
       <c r="I23">
-        <v>0.5785379711378118</v>
+        <v>0.5732121978836644</v>
       </c>
       <c r="J23">
-        <v>0.3619405303780113</v>
+        <v>0.3013074657556402</v>
       </c>
       <c r="K23">
-        <v>0.5733905498759653</v>
+        <v>0.1803774826876705</v>
       </c>
       <c r="L23">
-        <v>0.3967057820281051</v>
+        <v>0.1777996114722329</v>
       </c>
       <c r="M23">
-        <v>0.4156091854700803</v>
+        <v>0.1563707527187729</v>
       </c>
       <c r="N23">
-        <v>0.8781833168015057</v>
+        <v>0.8477804493287212</v>
       </c>
       <c r="O23">
-        <v>0.4490828461820462</v>
+        <v>0.168622491871585</v>
       </c>
       <c r="P23">
-        <v>0.3428926808705238</v>
+        <v>0.1599138828507626</v>
       </c>
       <c r="Q23">
-        <v>0.4493080337414803</v>
+        <v>0.2079463598989287</v>
       </c>
       <c r="R23">
-        <v>0.3471603463204115</v>
+        <v>0.1556166973667228</v>
       </c>
       <c r="S23">
-        <v>0.3360560532704584</v>
+        <v>0.1486226751240184</v>
       </c>
       <c r="T23">
-        <v>0.3533223210944741</v>
+        <v>0.1749849145031185</v>
       </c>
       <c r="U23">
-        <v>0.3672068279463465</v>
+        <v>0.1665319134704893</v>
       </c>
       <c r="V23">
-        <v>0.3623703443209421</v>
+        <v>0.1706677813937169</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>0.3685317800749619</v>
+        <v>0.1767155177327966</v>
       </c>
       <c r="Y23">
-        <v>0.4164650021188343</v>
+        <v>0.289878689412162</v>
       </c>
       <c r="Z23">
-        <v>0.362597965598323</v>
+        <v>0.1485680186633441</v>
       </c>
       <c r="AA23">
-        <v>0.3531062152043264</v>
+        <v>0.192532700931233</v>
       </c>
       <c r="AB23">
-        <v>0.3624097386984556</v>
+        <v>0.1860614513134575</v>
       </c>
       <c r="AC23">
-        <v>0.5494278240714746</v>
+        <v>0.4037721132811787</v>
       </c>
       <c r="AD23">
-        <v>0.5726951871527086</v>
+        <v>0.1722469692240109</v>
       </c>
       <c r="AE23">
-        <v>0.9382011619870002</v>
+        <v>0.1595235276802062</v>
       </c>
       <c r="AF23">
-        <v>0.5232300571302476</v>
+        <v>0.1770753068012068</v>
       </c>
       <c r="AG23">
-        <v>0.8125428922139059</v>
+        <v>0.1691382504532966</v>
       </c>
       <c r="AH23">
-        <v>0.9290020181490763</v>
+        <v>0.1874237382478485</v>
       </c>
       <c r="AI23">
-        <v>0.8495546455745092</v>
+        <v>0.2125908703002932</v>
       </c>
       <c r="AJ23">
-        <v>0.5136469696014789</v>
+        <v>0.2268923161259434</v>
       </c>
       <c r="AK23">
-        <v>0.456728995397954</v>
+        <v>0.1989605779202703</v>
       </c>
       <c r="AL23">
-        <v>0.8220914181587858</v>
+        <v>0.1632004766086838</v>
       </c>
       <c r="AM23">
-        <v>0.5218081082244646</v>
+        <v>0.1601967178412386</v>
       </c>
       <c r="AN23">
-        <v>0.941001389067293</v>
+        <v>0.1593611393897088</v>
       </c>
       <c r="AO23">
-        <v>0.4996764072634592</v>
+        <v>0.1563431923370227</v>
       </c>
       <c r="AP23">
-        <v>0.9755686780939188</v>
+        <v>0.1616199216197809</v>
       </c>
       <c r="AQ23">
-        <v>0.4765063859013123</v>
+        <v>0.1555099222929513</v>
       </c>
       <c r="AR23">
-        <v>0.7959617431493877</v>
+        <v>0.1956152333204516</v>
       </c>
       <c r="AS23">
-        <v>0.694183826870137</v>
+        <v>0.1786542704474103</v>
       </c>
       <c r="AT23">
-        <v>0.9194435785962705</v>
+        <v>0.1651081643654157</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -3734,139 +3734,139 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3490867960892454</v>
+        <v>0.2012260265487225</v>
       </c>
       <c r="C24">
-        <v>0.2911345012735085</v>
+        <v>0.3712317002271504</v>
       </c>
       <c r="D24">
-        <v>0.947514456138446</v>
+        <v>0.4310295363908704</v>
       </c>
       <c r="E24">
-        <v>0.831944941532805</v>
+        <v>0.7914690148287858</v>
       </c>
       <c r="F24">
-        <v>0.4581245984767029</v>
+        <v>0.1110828576999735</v>
       </c>
       <c r="G24">
-        <v>0.8824427620373831</v>
+        <v>0.9727095786216033</v>
       </c>
       <c r="H24">
-        <v>0.4667929316164549</v>
+        <v>0.1337773503005625</v>
       </c>
       <c r="I24">
-        <v>0.6859345176601507</v>
+        <v>0.3138019501910461</v>
       </c>
       <c r="J24">
-        <v>0.9868818737045398</v>
+        <v>0.5981377944066049</v>
       </c>
       <c r="K24">
-        <v>0.6920008390229846</v>
+        <v>0.9815583098930734</v>
       </c>
       <c r="L24">
-        <v>0.9466636161839053</v>
+        <v>0.9946626898029385</v>
       </c>
       <c r="M24">
-        <v>0.9132747296401038</v>
+        <v>0.886307134989153</v>
       </c>
       <c r="N24">
-        <v>0.3119001811151379</v>
+        <v>0.1503046853534118</v>
       </c>
       <c r="O24">
-        <v>0.8583355484951759</v>
+        <v>0.9570944263766488</v>
       </c>
       <c r="P24">
-        <v>0.9475801679119895</v>
+        <v>0.9074338307072434</v>
       </c>
       <c r="Q24">
-        <v>0.8579789818079653</v>
+        <v>0.8600365671782524</v>
       </c>
       <c r="R24">
-        <v>0.9565029793657478</v>
+        <v>0.8817742446015725</v>
       </c>
       <c r="S24">
-        <v>0.932846318445342</v>
+        <v>0.8375913654489753</v>
       </c>
       <c r="T24">
-        <v>0.9692794571795877</v>
+        <v>0.9912254079296283</v>
       </c>
       <c r="U24">
-        <v>0.9974040452032957</v>
+        <v>0.9454100534547959</v>
       </c>
       <c r="V24">
-        <v>0.9878737928776802</v>
+        <v>0.9682608515483082</v>
       </c>
       <c r="W24">
-        <v>0.3685317800749619</v>
+        <v>0.1767155177327966</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>0.9118092801817725</v>
+        <v>0.6218409392244402</v>
       </c>
       <c r="Z24">
-        <v>0.9882623105287265</v>
+        <v>0.8372233508383599</v>
       </c>
       <c r="AA24">
-        <v>0.9690111693015445</v>
+        <v>0.9242646157766492</v>
       </c>
       <c r="AB24">
-        <v>0.9877989702222655</v>
+        <v>0.9540910027308874</v>
       </c>
       <c r="AC24">
-        <v>0.7200890901140434</v>
+        <v>0.4465341793278992</v>
       </c>
       <c r="AD24">
-        <v>0.6925718053546044</v>
+        <v>0.9766908987395037</v>
       </c>
       <c r="AE24">
-        <v>0.338633251832984</v>
+        <v>0.9053030707143008</v>
       </c>
       <c r="AF24">
-        <v>0.7527273891005909</v>
+        <v>0.9981924702474979</v>
       </c>
       <c r="AG24">
-        <v>0.4794518399520487</v>
+        <v>0.9599887419138837</v>
       </c>
       <c r="AH24">
-        <v>0.3344729884856287</v>
+        <v>0.9479239900586596</v>
       </c>
       <c r="AI24">
-        <v>0.4546071877219757</v>
+        <v>0.8416297025621723</v>
       </c>
       <c r="AJ24">
-        <v>0.7652602855584815</v>
+        <v>0.7906357047956379</v>
       </c>
       <c r="AK24">
-        <v>0.8462394176123502</v>
+        <v>0.8964884318911897</v>
       </c>
       <c r="AL24">
-        <v>0.2889194746222135</v>
+        <v>0.9266042054270426</v>
       </c>
       <c r="AM24">
-        <v>0.7545055175274988</v>
+        <v>0.909191165385523</v>
       </c>
       <c r="AN24">
-        <v>0.4000257581596846</v>
+        <v>0.9042732147731658</v>
       </c>
       <c r="AO24">
-        <v>0.784192830488768</v>
+        <v>0.8861578739665206</v>
       </c>
       <c r="AP24">
-        <v>0.3563305328549781</v>
+        <v>0.9176068805362815</v>
       </c>
       <c r="AQ24">
-        <v>0.8169817841550046</v>
+        <v>0.881107862729997</v>
       </c>
       <c r="AR24">
-        <v>0.4910775645270554</v>
+        <v>0.910887668660182</v>
       </c>
       <c r="AS24">
-        <v>0.5714784105992547</v>
+        <v>0.9901923575772433</v>
       </c>
       <c r="AT24">
-        <v>0.412034849348508</v>
+        <v>0.937502487397763</v>
       </c>
     </row>
     <row r="25" spans="1:46">
@@ -3874,139 +3874,139 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3942899560682229</v>
+        <v>0.3380883923256374</v>
       </c>
       <c r="C25">
-        <v>0.3278314803543365</v>
+        <v>0.6451559674239834</v>
       </c>
       <c r="D25">
-        <v>0.9640705517209229</v>
+        <v>0.7392292743206149</v>
       </c>
       <c r="E25">
-        <v>0.9186078548568583</v>
+        <v>0.8114718708797057</v>
       </c>
       <c r="F25">
-        <v>0.5175236537988579</v>
+        <v>0.1608725825001283</v>
       </c>
       <c r="G25">
-        <v>0.9702355281091724</v>
+        <v>0.5998514589541182</v>
       </c>
       <c r="H25">
-        <v>0.5272033322286649</v>
+        <v>0.2050956507998879</v>
       </c>
       <c r="I25">
-        <v>0.7659676059211121</v>
+        <v>0.5475508261662761</v>
       </c>
       <c r="J25">
-        <v>0.8988389267214392</v>
+        <v>0.9708791447796727</v>
       </c>
       <c r="K25">
-        <v>0.7723664775723456</v>
+        <v>0.6370817455239939</v>
       </c>
       <c r="L25">
-        <v>0.9649308036977942</v>
+        <v>0.6263365214960592</v>
       </c>
       <c r="M25">
-        <v>0.9985191471669674</v>
+        <v>0.5334035231615839</v>
       </c>
       <c r="N25">
-        <v>0.3517220369395555</v>
+        <v>0.2377135289882573</v>
       </c>
       <c r="O25">
-        <v>0.9456597427453961</v>
+        <v>0.5874068851056248</v>
       </c>
       <c r="P25">
-        <v>0.8601870642874063</v>
+        <v>0.5492337100241247</v>
       </c>
       <c r="Q25">
-        <v>0.9452959830205474</v>
+        <v>0.7448709011893708</v>
       </c>
       <c r="R25">
-        <v>0.8689496978253013</v>
+        <v>0.5300156610170509</v>
       </c>
       <c r="S25">
-        <v>0.8457986390346751</v>
+        <v>0.4981491050281732</v>
       </c>
       <c r="T25">
-        <v>0.8815067007720456</v>
+        <v>0.6145934388687467</v>
       </c>
       <c r="U25">
-        <v>0.9092352127131617</v>
+        <v>0.5783304357079254</v>
       </c>
       <c r="V25">
-        <v>0.8997910261784425</v>
+        <v>0.5962122159946862</v>
       </c>
       <c r="W25">
-        <v>0.4164650021188343</v>
+        <v>0.289878689412162</v>
       </c>
       <c r="X25">
-        <v>0.9118092801817725</v>
+        <v>0.6218409392244402</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>0.9001891923550395</v>
+        <v>0.4978968984537397</v>
       </c>
       <c r="AA25">
-        <v>0.8812049623569735</v>
+        <v>0.6861569988471592</v>
       </c>
       <c r="AB25">
-        <v>0.8997498149182468</v>
+        <v>0.6603076413352644</v>
       </c>
       <c r="AC25">
-        <v>0.8021030365824076</v>
+        <v>0.7627465325997171</v>
       </c>
       <c r="AD25">
-        <v>0.7730174176144838</v>
+        <v>0.6029562230082661</v>
       </c>
       <c r="AE25">
-        <v>0.3823534721320829</v>
+        <v>0.5475195659300491</v>
       </c>
       <c r="AF25">
-        <v>0.8364223989423971</v>
+        <v>0.623341486406563</v>
       </c>
       <c r="AG25">
-        <v>0.5412911628925601</v>
+        <v>0.5896437417537037</v>
       </c>
       <c r="AH25">
-        <v>0.3775796352266806</v>
+        <v>0.6657434402904876</v>
       </c>
       <c r="AI25">
-        <v>0.513586848601693</v>
+        <v>0.7620256652815089</v>
       </c>
       <c r="AJ25">
-        <v>0.8495234003688266</v>
+        <v>0.8122709778142982</v>
       </c>
       <c r="AK25">
-        <v>0.9333254706277707</v>
+        <v>0.7110963661918335</v>
       </c>
       <c r="AL25">
-        <v>0.3252564052303993</v>
+        <v>0.5637711601660538</v>
       </c>
       <c r="AM25">
-        <v>0.8382959954760381</v>
+        <v>0.5505021430258755</v>
       </c>
       <c r="AN25">
-        <v>0.4521484654155145</v>
+        <v>0.5467879570214453</v>
       </c>
       <c r="AO25">
-        <v>0.8692223191244186</v>
+        <v>0.5332815559897435</v>
       </c>
       <c r="AP25">
-        <v>0.402577721149267</v>
+        <v>0.5568209021306774</v>
       </c>
       <c r="AQ25">
-        <v>0.9031710167832402</v>
+        <v>0.5295329789236837</v>
       </c>
       <c r="AR25">
-        <v>0.5542169336613111</v>
+        <v>0.6981637208479973</v>
       </c>
       <c r="AS25">
-        <v>0.6426662806224983</v>
+        <v>0.6299302993115319</v>
       </c>
       <c r="AT25">
-        <v>0.465747182202722</v>
+        <v>0.5721387632153616</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4014,139 +4014,139 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.3435012209005073</v>
+        <v>0.1671112100420955</v>
       </c>
       <c r="C26">
-        <v>0.2866220033959598</v>
+        <v>0.2966243676704378</v>
       </c>
       <c r="D26">
-        <v>0.9358167049910224</v>
+        <v>0.3434357194840338</v>
       </c>
       <c r="E26">
-        <v>0.8206319898080432</v>
+        <v>0.643917676489614</v>
       </c>
       <c r="F26">
-        <v>0.4507024092158366</v>
+        <v>0.09828274169260766</v>
       </c>
       <c r="G26">
-        <v>0.8709145116443786</v>
+        <v>0.8638202769777894</v>
       </c>
       <c r="H26">
-        <v>0.4592371450488114</v>
+        <v>0.1158152109671268</v>
       </c>
       <c r="I26">
-        <v>0.6756659025579661</v>
+        <v>0.2524994674972896</v>
       </c>
       <c r="J26">
-        <v>0.9986171878800822</v>
+        <v>0.478110001297209</v>
       </c>
       <c r="K26">
-        <v>0.6816823727625859</v>
+        <v>0.8194652493669325</v>
       </c>
       <c r="L26">
-        <v>0.934968340498193</v>
+        <v>0.83215748988359</v>
       </c>
       <c r="M26">
-        <v>0.9016506324228895</v>
+        <v>0.9497434611824357</v>
       </c>
       <c r="N26">
-        <v>0.3069955210686939</v>
+        <v>0.128466207289891</v>
       </c>
       <c r="O26">
-        <v>0.8469010202495365</v>
+        <v>0.8790817965923188</v>
       </c>
       <c r="P26">
-        <v>0.9592802132225027</v>
+        <v>0.9284986107288883</v>
       </c>
       <c r="Q26">
-        <v>0.846545864994716</v>
+        <v>0.7058470601808833</v>
       </c>
       <c r="R26">
-        <v>0.9682125945440528</v>
+        <v>0.9542974431024585</v>
       </c>
       <c r="S26">
-        <v>0.9445189291324818</v>
+        <v>0.99961043723041</v>
       </c>
       <c r="T26">
-        <v>0.9810016290529742</v>
+        <v>0.8456491693898005</v>
       </c>
       <c r="U26">
-        <v>0.9908576902714257</v>
+        <v>0.8906685020887255</v>
       </c>
       <c r="V26">
-        <v>0.9996134738710633</v>
+        <v>0.8680955868601371</v>
       </c>
       <c r="W26">
-        <v>0.362597965598323</v>
+        <v>0.1485680186633441</v>
       </c>
       <c r="X26">
-        <v>0.9882623105287265</v>
+        <v>0.8372233508383599</v>
       </c>
       <c r="Y26">
-        <v>0.9001891923550395</v>
+        <v>0.4978968984537397</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>0.9807386849810457</v>
+        <v>0.7651159994481092</v>
       </c>
       <c r="AB26">
-        <v>0.9995338330667858</v>
+        <v>0.7932795212356051</v>
       </c>
       <c r="AC26">
-        <v>0.7095237195298048</v>
+        <v>0.3556365097560358</v>
       </c>
       <c r="AD26">
-        <v>0.6822421198464836</v>
+        <v>0.8598651079189732</v>
       </c>
       <c r="AE26">
-        <v>0.3332360686349799</v>
+        <v>0.9305364665896856</v>
       </c>
       <c r="AF26">
-        <v>0.7419034807931774</v>
+        <v>0.8354913911598172</v>
       </c>
       <c r="AG26">
-        <v>0.4717064429846618</v>
+        <v>0.8761982248852195</v>
       </c>
       <c r="AH26">
-        <v>0.3291535006690977</v>
+        <v>0.7875382830975769</v>
       </c>
       <c r="AI26">
-        <v>0.4472402514269154</v>
+        <v>0.6888999562500815</v>
       </c>
       <c r="AJ26">
-        <v>0.7543467244893733</v>
+        <v>0.6431530469008904</v>
       </c>
       <c r="AK26">
-        <v>0.8348517671637234</v>
+        <v>0.7393080566231772</v>
       </c>
       <c r="AL26">
-        <v>0.2844519238854367</v>
+        <v>0.909303665733499</v>
       </c>
       <c r="AM26">
-        <v>0.7436668919744913</v>
+        <v>0.9266830334509801</v>
       </c>
       <c r="AN26">
-        <v>0.3935529725056013</v>
+        <v>0.9316107105888266</v>
       </c>
       <c r="AO26">
-        <v>0.7731554971979844</v>
+        <v>0.9498835244477644</v>
       </c>
       <c r="AP26">
-        <v>0.3506121176057991</v>
+        <v>0.9182059706540906</v>
       </c>
       <c r="AQ26">
-        <v>0.8057506432608172</v>
+        <v>0.9549813766009356</v>
       </c>
       <c r="AR26">
-        <v>0.4831590000098611</v>
+        <v>0.7527071082371531</v>
       </c>
       <c r="AS26">
-        <v>0.5624675319802883</v>
+        <v>0.8277758561707064</v>
       </c>
       <c r="AT26">
-        <v>0.4053563756210866</v>
+        <v>0.8984520487995625</v>
       </c>
     </row>
     <row r="27" spans="1:46">
@@ -4154,139 +4154,139 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.3345713187527496</v>
+        <v>0.2204229329524477</v>
       </c>
       <c r="C27">
-        <v>0.2794175238212117</v>
+        <v>0.4123804119968062</v>
       </c>
       <c r="D27">
-        <v>0.916675561927716</v>
+        <v>0.4787236315529436</v>
       </c>
       <c r="E27">
-        <v>0.8022132872098489</v>
+        <v>0.8644705144199289</v>
       </c>
       <c r="F27">
-        <v>0.4387959755388016</v>
+        <v>0.1181526518755389</v>
       </c>
       <c r="G27">
-        <v>0.8521044136675076</v>
+        <v>0.8972655825198284</v>
       </c>
       <c r="H27">
-        <v>0.4471127611205008</v>
+        <v>0.1437890322957376</v>
       </c>
       <c r="I27">
-        <v>0.6590493702523472</v>
+        <v>0.3479640946109545</v>
       </c>
       <c r="J27">
-        <v>0.9821242895811286</v>
+        <v>0.6608192919879132</v>
       </c>
       <c r="K27">
-        <v>0.6649811151641086</v>
+        <v>0.9426073142958764</v>
       </c>
       <c r="L27">
-        <v>0.9158320072508316</v>
+        <v>0.9296005873673319</v>
       </c>
       <c r="M27">
-        <v>0.8826586309151763</v>
+        <v>0.812592821622861</v>
       </c>
       <c r="N27">
-        <v>0.2991614910973012</v>
+        <v>0.162529018735706</v>
       </c>
       <c r="O27">
-        <v>0.8282632816619786</v>
+        <v>0.8818453647340456</v>
       </c>
       <c r="P27">
-        <v>0.9785149155269296</v>
+        <v>0.8331876104665568</v>
       </c>
       <c r="Q27">
-        <v>0.8279107103721834</v>
+        <v>0.9348235178077342</v>
       </c>
       <c r="R27">
-        <v>0.9874551374679867</v>
+        <v>0.8081745322295454</v>
       </c>
       <c r="S27">
-        <v>0.9637212538406685</v>
+        <v>0.7654673143731985</v>
       </c>
       <c r="T27">
-        <v>0.9997463230661359</v>
+        <v>0.9155325871396259</v>
       </c>
       <c r="U27">
-        <v>0.9716033493882674</v>
+        <v>0.8703749298625375</v>
       </c>
       <c r="V27">
-        <v>0.9811215142764615</v>
+        <v>0.8928440099119914</v>
       </c>
       <c r="W27">
-        <v>0.3531062152043264</v>
+        <v>0.192532700931233</v>
       </c>
       <c r="X27">
-        <v>0.9690111693015445</v>
+        <v>0.9242646157766492</v>
       </c>
       <c r="Y27">
-        <v>0.8812049623569735</v>
+        <v>0.6861569988471592</v>
       </c>
       <c r="Z27">
-        <v>0.9807386849810457</v>
+        <v>0.7651159994481092</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>0.9812092094850107</v>
+        <v>0.9700543474420684</v>
       </c>
       <c r="AC27">
-        <v>0.6924030248672656</v>
+        <v>0.495851931177885</v>
       </c>
       <c r="AD27">
-        <v>0.6655222270338677</v>
+        <v>0.9011742330610036</v>
       </c>
       <c r="AE27">
-        <v>0.3246097422782125</v>
+        <v>0.83107200593688</v>
       </c>
       <c r="AF27">
-        <v>0.7243399568340216</v>
+        <v>0.9260652059361657</v>
       </c>
       <c r="AG27">
-        <v>0.4592722718277666</v>
+        <v>0.8846822735271844</v>
       </c>
       <c r="AH27">
-        <v>0.3206522371873946</v>
+        <v>0.9762761085174059</v>
       </c>
       <c r="AI27">
-        <v>0.4354238774307206</v>
+        <v>0.916097482569241</v>
       </c>
       <c r="AJ27">
-        <v>0.7366284245170172</v>
+        <v>0.8636196567951299</v>
       </c>
       <c r="AK27">
-        <v>0.8162999124448636</v>
+        <v>0.9719090675427091</v>
       </c>
       <c r="AL27">
-        <v>0.2773194713606782</v>
+        <v>0.851917751551623</v>
       </c>
       <c r="AM27">
-        <v>0.7260781454455901</v>
+        <v>0.8348838270040221</v>
       </c>
       <c r="AN27">
-        <v>0.3831892853767939</v>
+        <v>0.8300817684078712</v>
       </c>
       <c r="AO27">
-        <v>0.7552220297340095</v>
+        <v>0.8124438040390172</v>
       </c>
       <c r="AP27">
-        <v>0.3414680694115044</v>
+        <v>0.843086776437058</v>
       </c>
       <c r="AQ27">
-        <v>0.7874769059264992</v>
+        <v>0.8075301802586009</v>
       </c>
       <c r="AR27">
-        <v>0.4704415714054594</v>
+        <v>0.9864672417215656</v>
       </c>
       <c r="AS27">
-        <v>0.5479524516886221</v>
+        <v>0.9340167363152656</v>
       </c>
       <c r="AT27">
-        <v>0.3946593527095124</v>
+        <v>0.8625931915900125</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4294,139 +4294,139 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.3433245003834895</v>
+        <v>0.2125687807623456</v>
       </c>
       <c r="C28">
-        <v>0.2864799388824333</v>
+        <v>0.3956318769076013</v>
       </c>
       <c r="D28">
-        <v>0.935366864369043</v>
+        <v>0.4593648926015207</v>
       </c>
       <c r="E28">
-        <v>0.8202190543450759</v>
+        <v>0.8353989053217624</v>
       </c>
       <c r="F28">
-        <v>0.4504629346569508</v>
+        <v>0.1152676944732674</v>
       </c>
       <c r="G28">
-        <v>0.8704843890745109</v>
+        <v>0.9269355133584446</v>
       </c>
       <c r="H28">
-        <v>0.4589928734786719</v>
+        <v>0.1396975105723391</v>
       </c>
       <c r="I28">
-        <v>0.6753116600515681</v>
+        <v>0.3340263258122118</v>
       </c>
       <c r="J28">
-        <v>0.9990835963089779</v>
+        <v>0.635595085858762</v>
       </c>
       <c r="K28">
-        <v>0.6813256220337773</v>
+        <v>0.9725015572329196</v>
       </c>
       <c r="L28">
-        <v>0.9345187785409182</v>
+        <v>0.959436414951544</v>
       </c>
       <c r="M28">
-        <v>0.9012108051771379</v>
+        <v>0.8414543264201195</v>
       </c>
       <c r="N28">
-        <v>0.3068409320733747</v>
+        <v>0.1575300557167167</v>
       </c>
       <c r="O28">
-        <v>0.8464789041849357</v>
+        <v>0.9114143821826477</v>
       </c>
       <c r="P28">
-        <v>0.9597551186459364</v>
+        <v>0.8622889074739382</v>
       </c>
       <c r="Q28">
-        <v>0.8461238666694523</v>
+        <v>0.905150187365954</v>
       </c>
       <c r="R28">
-        <v>0.9686855748073953</v>
+        <v>0.8369842776361027</v>
       </c>
       <c r="S28">
-        <v>0.9449966061217472</v>
+        <v>0.7936377988200461</v>
       </c>
       <c r="T28">
-        <v>0.9814718684208035</v>
+        <v>0.9453280777483718</v>
       </c>
       <c r="U28">
-        <v>0.9903937071513218</v>
+        <v>0.899842594575672</v>
       </c>
       <c r="V28">
-        <v>0.9999201851317721</v>
+        <v>0.9224958878912849</v>
       </c>
       <c r="W28">
-        <v>0.3624097386984556</v>
+        <v>0.1860614513134575</v>
       </c>
       <c r="X28">
-        <v>0.9877989702222655</v>
+        <v>0.9540910027308874</v>
       </c>
       <c r="Y28">
-        <v>0.8997498149182468</v>
+        <v>0.6603076413352644</v>
       </c>
       <c r="Z28">
-        <v>0.9995338330667858</v>
+        <v>0.7932795212356051</v>
       </c>
       <c r="AA28">
-        <v>0.9812092094850107</v>
+        <v>0.9700543474420684</v>
       </c>
       <c r="AB28">
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.7091547136545873</v>
+        <v>0.475849288262854</v>
       </c>
       <c r="AD28">
-        <v>0.6818849329729693</v>
+        <v>0.930878415441413</v>
       </c>
       <c r="AE28">
-        <v>0.3330655252731988</v>
+        <v>0.8601634579660218</v>
       </c>
       <c r="AF28">
-        <v>0.7415207917825846</v>
+        <v>0.9558972423694763</v>
       </c>
       <c r="AG28">
-        <v>0.4714552769697505</v>
+        <v>0.9142780050468692</v>
       </c>
       <c r="AH28">
-        <v>0.3289854787255975</v>
+        <v>0.9937894457301371</v>
       </c>
       <c r="AI28">
-        <v>0.4470027454765219</v>
+        <v>0.8865225616814671</v>
       </c>
       <c r="AJ28">
-        <v>0.7539589919446915</v>
+        <v>0.8345538398144526</v>
       </c>
       <c r="AK28">
-        <v>0.834433587029176</v>
+        <v>0.9420431756347649</v>
       </c>
       <c r="AL28">
-        <v>0.284311269895766</v>
+        <v>0.8812200363679673</v>
       </c>
       <c r="AM28">
-        <v>0.7432834268510653</v>
+        <v>0.8640112973559454</v>
       </c>
       <c r="AN28">
-        <v>0.3933465582993917</v>
+        <v>0.8591564636335093</v>
       </c>
       <c r="AO28">
-        <v>0.7727604223347588</v>
+        <v>0.8413049127850689</v>
       </c>
       <c r="AP28">
-        <v>0.3504310408468984</v>
+        <v>0.8723098100312315</v>
       </c>
       <c r="AQ28">
-        <v>0.8053432390857442</v>
+        <v>0.8363303942759761</v>
       </c>
       <c r="AR28">
-        <v>0.4829014888419199</v>
+        <v>0.9565613219508946</v>
       </c>
       <c r="AS28">
-        <v>0.5621679794451236</v>
+        <v>0.9638804022405092</v>
       </c>
       <c r="AT28">
-        <v>0.4051429525958641</v>
+        <v>0.8919991700411647</v>
       </c>
     </row>
     <row r="29" spans="1:46">
@@ -4434,139 +4434,139 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5205799335041241</v>
+        <v>0.4731239747490056</v>
       </c>
       <c r="C29">
-        <v>0.4323987882800494</v>
+        <v>0.8687338167438501</v>
       </c>
       <c r="D29">
-        <v>0.768236459788026</v>
+        <v>0.9744730007685847</v>
       </c>
       <c r="E29">
-        <v>0.8810682880897032</v>
+        <v>0.596828811760493</v>
       </c>
       <c r="F29">
-        <v>0.6766595398832371</v>
+        <v>0.2114283020730001</v>
       </c>
       <c r="G29">
-        <v>0.8306160022060324</v>
+        <v>0.4300421620102804</v>
       </c>
       <c r="H29">
-        <v>0.6884900772040599</v>
+        <v>0.2781072712727348</v>
       </c>
       <c r="I29">
-        <v>0.9616776487786327</v>
+        <v>0.7515254200374826</v>
       </c>
       <c r="J29">
-        <v>0.7083223529099917</v>
+        <v>0.7899801988131088</v>
       </c>
       <c r="K29">
-        <v>0.9684395194074076</v>
+        <v>0.4580804949329719</v>
       </c>
       <c r="L29">
-        <v>0.76905245567615</v>
+        <v>0.4499548689016164</v>
       </c>
       <c r="M29">
-        <v>0.8006943465201379</v>
+        <v>0.3811589893897707</v>
       </c>
       <c r="N29">
-        <v>0.4644328207075685</v>
+        <v>0.3269448631215199</v>
       </c>
       <c r="O29">
-        <v>0.8544723292641138</v>
+        <v>0.4207625466706096</v>
       </c>
       <c r="P29">
-        <v>0.6736611689222589</v>
+        <v>0.3926802665481786</v>
       </c>
       <c r="Q29">
-        <v>0.8548263772342999</v>
+        <v>0.5423809895279195</v>
       </c>
       <c r="R29">
-        <v>0.6814888765292653</v>
+        <v>0.3786986466129934</v>
       </c>
       <c r="S29">
-        <v>0.6609440062062448</v>
+        <v>0.355815025687061</v>
       </c>
       <c r="T29">
-        <v>0.6927323718067893</v>
+        <v>0.4410550673204828</v>
       </c>
       <c r="U29">
-        <v>0.7177411449165156</v>
+        <v>0.4140523662202558</v>
       </c>
       <c r="V29">
-        <v>0.7091407001497998</v>
+        <v>0.4273075140464423</v>
       </c>
       <c r="W29">
-        <v>0.5494278240714746</v>
+        <v>0.4037721132811787</v>
       </c>
       <c r="X29">
-        <v>0.7200890901140434</v>
+        <v>0.4465341793278992</v>
       </c>
       <c r="Y29">
-        <v>0.8021030365824076</v>
+        <v>0.7627465325997171</v>
       </c>
       <c r="Z29">
-        <v>0.7095237195298048</v>
+        <v>0.3556365097560358</v>
       </c>
       <c r="AA29">
-        <v>0.6924030248672656</v>
+        <v>0.495851931177885</v>
       </c>
       <c r="AB29">
-        <v>0.7091547136545873</v>
+        <v>0.475849288262854</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
       <c r="AD29">
-        <v>0.9692226467112977</v>
+        <v>0.4323461445986808</v>
       </c>
       <c r="AE29">
-        <v>0.5049597224174097</v>
+        <v>0.391409470344229</v>
       </c>
       <c r="AF29">
-        <v>0.9641794038241576</v>
+        <v>0.4476710793312423</v>
       </c>
       <c r="AG29">
-        <v>0.7055617553107036</v>
+        <v>0.4224152248381712</v>
       </c>
       <c r="AH29">
-        <v>0.498643172982578</v>
+        <v>0.4800683527016436</v>
       </c>
       <c r="AI29">
-        <v>0.6718211240594153</v>
+        <v>0.5561529874652702</v>
       </c>
       <c r="AJ29">
-        <v>0.9506927996338115</v>
+        <v>0.5974833858488038</v>
       </c>
       <c r="AK29">
-        <v>0.8664744559134165</v>
+        <v>0.515443628307043</v>
       </c>
       <c r="AL29">
-        <v>0.4288671902453637</v>
+        <v>0.4033175658315401</v>
       </c>
       <c r="AM29">
-        <v>0.962221461181196</v>
+        <v>0.3935955342844086</v>
       </c>
       <c r="AN29">
-        <v>0.5950174531924787</v>
+        <v>0.3908840169613745</v>
       </c>
       <c r="AO29">
-        <v>0.9306251955366376</v>
+        <v>0.3810685344174548</v>
       </c>
       <c r="AP29">
-        <v>0.5314437206525269</v>
+        <v>0.3982049519945557</v>
       </c>
       <c r="AQ29">
-        <v>0.8964582545091242</v>
+        <v>0.3783509311612573</v>
       </c>
       <c r="AR29">
-        <v>0.72115954918174</v>
+        <v>0.5052715503619227</v>
       </c>
       <c r="AS29">
-        <v>0.8248980114746559</v>
+        <v>0.4526555565291382</v>
       </c>
       <c r="AT29">
-        <v>0.6122879269041877</v>
+        <v>0.4094705929291534</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4574,139 +4574,139 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5428259126039627</v>
+        <v>0.1958043525752987</v>
       </c>
       <c r="C30">
-        <v>0.4511678416095531</v>
+        <v>0.3594857665977519</v>
       </c>
       <c r="D30">
-        <v>0.7397352808356419</v>
+        <v>0.4173315423779856</v>
       </c>
       <c r="E30">
-        <v>0.8509488825521955</v>
+        <v>0.7695788980985321</v>
       </c>
       <c r="F30">
-        <v>0.7036577711701444</v>
+        <v>0.1090717939956209</v>
       </c>
       <c r="G30">
-        <v>0.8011042047763246</v>
+        <v>0.9960069819805131</v>
       </c>
       <c r="H30">
-        <v>0.7157711526690169</v>
+        <v>0.130940165677433</v>
       </c>
       <c r="I30">
-        <v>0.992442046567295</v>
+        <v>0.3040999944015377</v>
       </c>
       <c r="J30">
-        <v>0.6810707074687243</v>
+        <v>0.5797855651746533</v>
       </c>
       <c r="K30">
-        <v>0.9992046786848634</v>
+        <v>0.9582722114401299</v>
       </c>
       <c r="L30">
-        <v>0.7405376412652618</v>
+        <v>0.9713695933142814</v>
       </c>
       <c r="M30">
-        <v>0.771631224661331</v>
+        <v>0.9093151022370672</v>
       </c>
       <c r="N30">
-        <v>0.4845314356665201</v>
+        <v>0.1468463227699068</v>
       </c>
       <c r="O30">
-        <v>0.8246497835605409</v>
+        <v>0.9803772108464964</v>
       </c>
       <c r="P30">
-        <v>0.6472472436337176</v>
+        <v>0.9305468917430456</v>
       </c>
       <c r="Q30">
-        <v>0.8249993859966589</v>
+        <v>0.8374190874198737</v>
       </c>
       <c r="R30">
-        <v>0.6548811682218351</v>
+        <v>0.9047597787244629</v>
       </c>
       <c r="S30">
-        <v>0.6348619156235715</v>
+        <v>0.8602374729196468</v>
       </c>
       <c r="T30">
-        <v>0.6658504905556801</v>
+        <v>0.9854523899416797</v>
       </c>
       <c r="U30">
-        <v>0.6902752488318289</v>
+        <v>0.9686594617013293</v>
       </c>
       <c r="V30">
-        <v>0.6818652127823273</v>
+        <v>0.9915636029824987</v>
       </c>
       <c r="W30">
-        <v>0.5726951871527086</v>
+        <v>0.1722469692240109</v>
       </c>
       <c r="X30">
-        <v>0.6925718053546044</v>
+        <v>0.9766908987395037</v>
       </c>
       <c r="Y30">
-        <v>0.7730174176144838</v>
+        <v>0.6029562230082661</v>
       </c>
       <c r="Z30">
-        <v>0.6822421198464836</v>
+        <v>0.8598651079189732</v>
       </c>
       <c r="AA30">
-        <v>0.6655222270338677</v>
+        <v>0.9011742330610036</v>
       </c>
       <c r="AB30">
-        <v>0.6818849329729693</v>
+        <v>0.930878415441413</v>
       </c>
       <c r="AC30">
-        <v>0.9692226467112977</v>
+        <v>0.4323461445986808</v>
       </c>
       <c r="AD30">
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>0.5266323531228925</v>
+        <v>0.9284187658279021</v>
       </c>
       <c r="AF30">
-        <v>0.9334812774494816</v>
+        <v>0.974886629265266</v>
       </c>
       <c r="AG30">
-        <v>0.7332267973265884</v>
+        <v>0.9832813847340149</v>
       </c>
       <c r="AH30">
-        <v>0.5200729023969313</v>
+        <v>0.9247470200514378</v>
       </c>
       <c r="AI30">
-        <v>0.6986993018788084</v>
+        <v>0.8191589094963714</v>
       </c>
       <c r="AJ30">
-        <v>0.9200525472726675</v>
+        <v>0.7687529556556567</v>
       </c>
       <c r="AK30">
-        <v>0.8365016637554378</v>
+        <v>0.8735744312423385</v>
       </c>
       <c r="AL30">
-        <v>0.4474773293272818</v>
+        <v>0.9497997094634767</v>
       </c>
       <c r="AM30">
-        <v>0.9315279332901003</v>
+        <v>0.9323188936079463</v>
       </c>
       <c r="AN30">
-        <v>0.6197504634439318</v>
+        <v>0.9273790123526836</v>
       </c>
       <c r="AO30">
-        <v>0.9001017981787591</v>
+        <v>0.9091663304157503</v>
       </c>
       <c r="AP30">
-        <v>0.5540876495662259</v>
+        <v>0.9407773756204857</v>
       </c>
       <c r="AQ30">
-        <v>0.8661975288192852</v>
+        <v>0.9040882998972758</v>
       </c>
       <c r="AR30">
-        <v>0.7491617483649351</v>
+        <v>0.8878841703278909</v>
       </c>
       <c r="AS30">
-        <v>0.8546398493480888</v>
+        <v>0.9668947383988296</v>
       </c>
       <c r="AT30">
-        <v>0.6375504880149214</v>
+        <v>0.9607361494177271</v>
       </c>
     </row>
     <row r="31" spans="1:46">
@@ -4714,139 +4714,139 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9778061768412392</v>
+        <v>0.1803761200913158</v>
       </c>
       <c r="C31">
-        <v>0.8882345080068268</v>
+        <v>0.3258085091120025</v>
       </c>
       <c r="D31">
-        <v>0.3638565392367274</v>
+        <v>0.3778627859947773</v>
       </c>
       <c r="E31">
-        <v>0.4280587570992258</v>
+        <v>0.7041178489124931</v>
       </c>
       <c r="F31">
-        <v>0.7849549218591987</v>
+        <v>0.1033064554455804</v>
       </c>
       <c r="G31">
-        <v>0.398426585136208</v>
+        <v>0.9324166277337564</v>
       </c>
       <c r="H31">
-        <v>0.7722430159802705</v>
+        <v>0.1228354564082496</v>
       </c>
       <c r="I31">
-        <v>0.5320864057229138</v>
+        <v>0.2763927001580845</v>
       </c>
       <c r="J31">
-        <v>0.3326387551303671</v>
+        <v>0.5260449870972994</v>
       </c>
       <c r="K31">
-        <v>0.527286590034459</v>
+        <v>0.8871071415799321</v>
       </c>
       <c r="L31">
-        <v>0.3643028090874622</v>
+        <v>0.9000774431647246</v>
       </c>
       <c r="M31">
-        <v>0.3815707713076067</v>
+        <v>0.9807195909474893</v>
       </c>
       <c r="N31">
-        <v>0.939409473820313</v>
+        <v>0.1369838174451284</v>
       </c>
       <c r="O31">
-        <v>0.4122417601778824</v>
+        <v>0.947959688827209</v>
       </c>
       <c r="P31">
-        <v>0.3153369547081556</v>
+        <v>0.9979013858967842</v>
       </c>
       <c r="Q31">
-        <v>0.4124484579842913</v>
+        <v>0.769259078787317</v>
       </c>
       <c r="R31">
-        <v>0.3192110818016976</v>
+        <v>0.9761339569158842</v>
       </c>
       <c r="S31">
-        <v>0.3091350700926276</v>
+        <v>0.9309197222144178</v>
       </c>
       <c r="T31">
-        <v>0.3248071499051859</v>
+        <v>0.913949562087867</v>
       </c>
       <c r="U31">
-        <v>0.3374277845195987</v>
+        <v>0.9596848126346349</v>
       </c>
       <c r="V31">
-        <v>0.3330286421972828</v>
+        <v>0.9368041560783247</v>
       </c>
       <c r="W31">
-        <v>0.9382011619870002</v>
+        <v>0.1595235276802062</v>
       </c>
       <c r="X31">
-        <v>0.338633251832984</v>
+        <v>0.9053030707143008</v>
       </c>
       <c r="Y31">
-        <v>0.3823534721320829</v>
+        <v>0.5475195659300491</v>
       </c>
       <c r="Z31">
-        <v>0.3332360686349799</v>
+        <v>0.9305364665896856</v>
       </c>
       <c r="AA31">
-        <v>0.3246097422782125</v>
+        <v>0.83107200593688</v>
       </c>
       <c r="AB31">
-        <v>0.3330655252731988</v>
+        <v>0.8601634579660218</v>
       </c>
       <c r="AC31">
-        <v>0.5049597224174097</v>
+        <v>0.391409470344229</v>
       </c>
       <c r="AD31">
-        <v>0.5266323531228925</v>
+        <v>0.9284187658279021</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
       <c r="AF31">
-        <v>0.4806335603019908</v>
+        <v>0.9035241723903953</v>
       </c>
       <c r="AG31">
-        <v>0.7543662285811572</v>
+        <v>0.9450481262954042</v>
       </c>
       <c r="AH31">
-        <v>0.990743146095133</v>
+        <v>0.8541934415889001</v>
       </c>
       <c r="AI31">
-        <v>0.7902380702088568</v>
+        <v>0.75157861965158</v>
       </c>
       <c r="AJ31">
-        <v>0.4717573982946006</v>
+        <v>0.7033196690296526</v>
       </c>
       <c r="AK31">
-        <v>0.4192616749192076</v>
+        <v>0.8042310885640157</v>
       </c>
       <c r="AL31">
-        <v>0.8822420106829023</v>
+        <v>0.9785530001002285</v>
       </c>
       <c r="AM31">
-        <v>0.4793145799834992</v>
+        <v>0.9960968786744724</v>
       </c>
       <c r="AN31">
-        <v>0.8797766842352843</v>
+        <v>0.9989368477721495</v>
       </c>
       <c r="AO31">
-        <v>0.4588393060535014</v>
+        <v>0.9805739819859889</v>
       </c>
       <c r="AP31">
-        <v>0.962555794013694</v>
+        <v>0.9875748132481752</v>
       </c>
       <c r="AQ31">
-        <v>0.4374633388791724</v>
+        <v>0.9754519369328754</v>
       </c>
       <c r="AR31">
-        <v>0.7383584951960956</v>
+        <v>0.8181552881043395</v>
       </c>
       <c r="AS31">
-        <v>0.6409853782155517</v>
+        <v>0.8956235677079817</v>
       </c>
       <c r="AT31">
-        <v>0.8585459827464526</v>
+        <v>0.9675891733562534</v>
       </c>
     </row>
     <row r="32" spans="1:46">
@@ -4854,139 +4854,139 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4955831176971331</v>
+        <v>0.2016628221039066</v>
       </c>
       <c r="C32">
-        <v>0.4114337722242084</v>
+        <v>0.3721756236349557</v>
       </c>
       <c r="D32">
-        <v>0.8019404176797416</v>
+        <v>0.4321278619538067</v>
       </c>
       <c r="E32">
-        <v>0.9164188670682449</v>
+        <v>0.7931912424290846</v>
       </c>
       <c r="F32">
-        <v>0.645978267961735</v>
+        <v>0.111243998580227</v>
       </c>
       <c r="G32">
-        <v>0.8653722867373792</v>
+        <v>0.9709067634099187</v>
       </c>
       <c r="H32">
-        <v>0.6574602336269593</v>
+        <v>0.1340052409182737</v>
       </c>
       <c r="I32">
-        <v>0.9259709229514516</v>
+        <v>0.3145829123461535</v>
       </c>
       <c r="J32">
-        <v>0.7406686386345496</v>
+        <v>0.5995978680571787</v>
       </c>
       <c r="K32">
-        <v>0.9327150517301734</v>
+        <v>0.9833665825725888</v>
       </c>
       <c r="L32">
-        <v>0.8027706222707085</v>
+        <v>0.996469732352265</v>
       </c>
       <c r="M32">
-        <v>0.8349903562458807</v>
+        <v>0.8845394040854947</v>
       </c>
       <c r="N32">
-        <v>0.4419354704455168</v>
+        <v>0.1505828024233886</v>
       </c>
       <c r="O32">
-        <v>0.8895381194159426</v>
+        <v>0.9552949870165401</v>
       </c>
       <c r="P32">
-        <v>0.7050775770589295</v>
+        <v>0.905654783982069</v>
       </c>
       <c r="Q32">
-        <v>0.889896565255244</v>
+        <v>0.8618081278551379</v>
       </c>
       <c r="R32">
-        <v>0.7131209994784224</v>
+        <v>0.880008948134599</v>
       </c>
       <c r="S32">
-        <v>0.6919880482209487</v>
+        <v>0.8358590171708196</v>
       </c>
       <c r="T32">
-        <v>0.7246691828159374</v>
+        <v>0.989418097246643</v>
       </c>
       <c r="U32">
-        <v>0.7503232426951045</v>
+        <v>0.9436148689487359</v>
       </c>
       <c r="V32">
-        <v>0.7415142533479691</v>
+        <v>0.9664582735222913</v>
       </c>
       <c r="W32">
-        <v>0.5232300571302476</v>
+        <v>0.1770753068012068</v>
       </c>
       <c r="X32">
-        <v>0.7527273891005909</v>
+        <v>0.9981924702474979</v>
       </c>
       <c r="Y32">
-        <v>0.8364223989423971</v>
+        <v>0.623341486406563</v>
       </c>
       <c r="Z32">
-        <v>0.7419034807931774</v>
+        <v>0.8354913911598172</v>
       </c>
       <c r="AA32">
-        <v>0.7243399568340216</v>
+        <v>0.9260652059361657</v>
       </c>
       <c r="AB32">
-        <v>0.7415207917825846</v>
+        <v>0.9558972423694763</v>
       </c>
       <c r="AC32">
-        <v>0.9641794038241576</v>
+        <v>0.4476710793312423</v>
       </c>
       <c r="AD32">
-        <v>0.9334812774494816</v>
+        <v>0.974886629265266</v>
       </c>
       <c r="AE32">
-        <v>0.4806335603019908</v>
+        <v>0.9035241723903953</v>
       </c>
       <c r="AF32">
         <v>1</v>
       </c>
       <c r="AG32">
-        <v>0.6740554960658155</v>
+        <v>0.9581881330964315</v>
       </c>
       <c r="AH32">
-        <v>0.4746001574195851</v>
+        <v>0.9497282861148938</v>
       </c>
       <c r="AI32">
-        <v>0.6412872312677458</v>
+        <v>0.8433919069568356</v>
       </c>
       <c r="AJ32">
-        <v>0.9864801366249218</v>
+        <v>0.7923574417300699</v>
       </c>
       <c r="AK32">
-        <v>0.9016889912231233</v>
+        <v>0.898278762560495</v>
       </c>
       <c r="AL32">
-        <v>0.4080843774633817</v>
+        <v>0.9248159489569041</v>
       </c>
       <c r="AM32">
-        <v>0.9980418999945057</v>
+        <v>0.90741073959656</v>
       </c>
       <c r="AN32">
-        <v>0.5670783554143299</v>
+        <v>0.902495222595598</v>
       </c>
       <c r="AO32">
-        <v>0.9663262197292188</v>
+        <v>0.884390131822425</v>
       </c>
       <c r="AP32">
-        <v>0.5059802849513605</v>
+        <v>0.9158219118167333</v>
       </c>
       <c r="AQ32">
-        <v>0.9319364987416339</v>
+        <v>0.8793430582790313</v>
       </c>
       <c r="AR32">
-        <v>0.6892323269070623</v>
+        <v>0.9126831920513347</v>
       </c>
       <c r="AS32">
-        <v>0.7907249380532697</v>
+        <v>0.9920003494873022</v>
       </c>
       <c r="AT32">
-        <v>0.5837146184798561</v>
+        <v>0.9357096858907308</v>
       </c>
     </row>
     <row r="33" spans="1:46">
@@ -4994,139 +4994,139 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7750200131854564</v>
+        <v>0.192033034411983</v>
       </c>
       <c r="C33">
-        <v>0.654583214435867</v>
+        <v>0.3512861901730169</v>
       </c>
       <c r="D33">
-        <v>0.5153397675592128</v>
+        <v>0.4077491525870087</v>
       </c>
       <c r="E33">
-        <v>0.6041122326576731</v>
+        <v>0.754034169860341</v>
       </c>
       <c r="F33">
-        <v>0.9671898489128041</v>
+        <v>0.1076694270599415</v>
       </c>
       <c r="G33">
-        <v>0.5635946415712556</v>
+        <v>0.9872802014946873</v>
       </c>
       <c r="H33">
-        <v>0.9807341818345144</v>
+        <v>0.1289642416138955</v>
       </c>
       <c r="I33">
-        <v>0.7401186453189266</v>
+        <v>0.2973390020640878</v>
       </c>
       <c r="J33">
-        <v>0.4708431037777155</v>
+        <v>0.5668613424339322</v>
       </c>
       <c r="K33">
-        <v>0.7340190877711834</v>
+        <v>0.9415996163345302</v>
       </c>
       <c r="L33">
-        <v>0.5159665021352565</v>
+        <v>0.9546829480038705</v>
       </c>
       <c r="M33">
-        <v>0.5401994510039559</v>
+        <v>0.9258797006044326</v>
       </c>
       <c r="N33">
-        <v>0.6994223778571634</v>
+        <v>0.1444391873081068</v>
       </c>
       <c r="O33">
-        <v>0.5825819634655243</v>
+        <v>0.9970906550161219</v>
       </c>
       <c r="P33">
-        <v>0.4458302173110397</v>
+        <v>0.9471725452070259</v>
       </c>
       <c r="Q33">
-        <v>0.5828651243203932</v>
+        <v>0.8213101316460508</v>
       </c>
       <c r="R33">
-        <v>0.4514480476439658</v>
+        <v>0.9213114317457431</v>
       </c>
       <c r="S33">
-        <v>0.436799283720768</v>
+        <v>0.8765735233061669</v>
       </c>
       <c r="T33">
-        <v>0.4595461799263463</v>
+        <v>0.9687344141975011</v>
       </c>
       <c r="U33">
-        <v>0.4777245886093958</v>
+        <v>0.985356889555441</v>
       </c>
       <c r="V33">
-        <v>0.4714127823111549</v>
+        <v>0.991716371636962</v>
       </c>
       <c r="W33">
-        <v>0.8125428922139059</v>
+        <v>0.1691382504532966</v>
       </c>
       <c r="X33">
-        <v>0.4794518399520487</v>
+        <v>0.9599887419138837</v>
       </c>
       <c r="Y33">
-        <v>0.5412911628925601</v>
+        <v>0.5896437417537037</v>
       </c>
       <c r="Z33">
-        <v>0.4717064429846618</v>
+        <v>0.8761982248852195</v>
       </c>
       <c r="AA33">
-        <v>0.4592722718277666</v>
+        <v>0.8846822735271844</v>
       </c>
       <c r="AB33">
-        <v>0.4714552769697505</v>
+        <v>0.9142780050468692</v>
       </c>
       <c r="AC33">
-        <v>0.7055617553107036</v>
+        <v>0.4224152248381712</v>
       </c>
       <c r="AD33">
-        <v>0.7332267973265884</v>
+        <v>0.9832813847340149</v>
       </c>
       <c r="AE33">
-        <v>0.7543662285811572</v>
+        <v>0.9450481262954042</v>
       </c>
       <c r="AF33">
-        <v>0.6740554960658155</v>
+        <v>0.9581881330964315</v>
       </c>
       <c r="AG33">
         <v>1</v>
       </c>
       <c r="AH33">
-        <v>0.7458705329339489</v>
+        <v>0.9081767469748596</v>
       </c>
       <c r="AI33">
-        <v>0.9616002816914799</v>
+        <v>0.8031667933113946</v>
       </c>
       <c r="AJ33">
-        <v>0.6624211440600051</v>
+        <v>0.7532139775373563</v>
       </c>
       <c r="AK33">
-        <v>0.5921894877361158</v>
+        <v>0.8572282809238281</v>
       </c>
       <c r="AL33">
-        <v>0.6494726054263933</v>
+        <v>0.9664715412918652</v>
       </c>
       <c r="AM33">
-        <v>0.6723396881000946</v>
+        <v>0.9489540730159314</v>
       </c>
       <c r="AN33">
-        <v>0.8697628287514779</v>
+        <v>0.9440018208205776</v>
       </c>
       <c r="AO33">
-        <v>0.6453493608603084</v>
+        <v>0.9257314213538224</v>
       </c>
       <c r="AP33">
-        <v>0.7893238171247495</v>
+        <v>0.9574376958073818</v>
       </c>
       <c r="AQ33">
-        <v>0.6167913161154024</v>
+        <v>0.9206367043956906</v>
       </c>
       <c r="AR33">
-        <v>0.982579591809686</v>
+        <v>0.8714639950600817</v>
       </c>
       <c r="AS33">
-        <v>0.8723655638867072</v>
+        <v>0.9502078014934173</v>
       </c>
       <c r="AT33">
-        <v>0.8910145300251369</v>
+        <v>0.977427916925744</v>
       </c>
     </row>
     <row r="34" spans="1:46">
@@ -5134,139 +5134,139 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9685602676571174</v>
+        <v>0.2142235792187487</v>
       </c>
       <c r="C34">
-        <v>0.8973670081756003</v>
+        <v>0.3991664387513734</v>
       </c>
       <c r="D34">
-        <v>0.3593385865221321</v>
+        <v>0.4634487087923164</v>
       </c>
       <c r="E34">
-        <v>0.4226772884366381</v>
+        <v>0.8414786979389042</v>
       </c>
       <c r="F34">
-        <v>0.7762870720244459</v>
+        <v>0.1158723539171077</v>
       </c>
       <c r="G34">
-        <v>0.3934349750774988</v>
+        <v>0.9208130354702589</v>
       </c>
       <c r="H34">
-        <v>0.7636438567427217</v>
+        <v>0.1405568226172396</v>
       </c>
       <c r="I34">
-        <v>0.5254674445025223</v>
+        <v>0.3369676175496287</v>
       </c>
       <c r="J34">
-        <v>0.3285648568454326</v>
+        <v>0.640902465883073</v>
       </c>
       <c r="K34">
-        <v>0.5207206674506832</v>
+        <v>0.9663126842841682</v>
       </c>
       <c r="L34">
-        <v>0.3597786555377122</v>
+        <v>0.9532651893754852</v>
       </c>
       <c r="M34">
-        <v>0.37680764577545</v>
+        <v>0.8355417979211669</v>
       </c>
       <c r="N34">
-        <v>0.9486360676239201</v>
+        <v>0.158581085715851</v>
       </c>
       <c r="O34">
-        <v>0.4070664761538204</v>
+        <v>0.9053200181349648</v>
       </c>
       <c r="P34">
-        <v>0.3115150579599152</v>
+        <v>0.8563157492763136</v>
       </c>
       <c r="Q34">
-        <v>0.4072704453867989</v>
+        <v>0.9113365259124153</v>
       </c>
       <c r="R34">
-        <v>0.3153324485863401</v>
+        <v>0.8310848767276964</v>
       </c>
       <c r="S34">
-        <v>0.3054044924268259</v>
+        <v>0.7878949170084093</v>
       </c>
       <c r="T34">
-        <v>0.3208468727887785</v>
+        <v>0.9391712643781513</v>
       </c>
       <c r="U34">
-        <v>0.3332848327856082</v>
+        <v>0.8937747704929624</v>
       </c>
       <c r="V34">
-        <v>0.3289490239198639</v>
+        <v>0.9163791689293301</v>
       </c>
       <c r="W34">
-        <v>0.9290020181490763</v>
+        <v>0.1874237382478485</v>
       </c>
       <c r="X34">
-        <v>0.3344729884856287</v>
+        <v>0.9479239900586596</v>
       </c>
       <c r="Y34">
-        <v>0.3775796352266806</v>
+        <v>0.6657434402904876</v>
       </c>
       <c r="Z34">
-        <v>0.3291535006690977</v>
+        <v>0.7875382830975769</v>
       </c>
       <c r="AA34">
-        <v>0.3206522371873946</v>
+        <v>0.9762761085174059</v>
       </c>
       <c r="AB34">
-        <v>0.3289854787255975</v>
+        <v>0.9937894457301371</v>
       </c>
       <c r="AC34">
-        <v>0.498643172982578</v>
+        <v>0.4800683527016436</v>
       </c>
       <c r="AD34">
-        <v>0.5200729023969313</v>
+        <v>0.9247470200514378</v>
       </c>
       <c r="AE34">
-        <v>0.990743146095133</v>
+        <v>0.8541934415889001</v>
       </c>
       <c r="AF34">
-        <v>0.4746001574195851</v>
+        <v>0.9497282861148938</v>
       </c>
       <c r="AG34">
-        <v>0.7458705329339489</v>
+        <v>0.9081767469748596</v>
       </c>
       <c r="AH34">
         <v>1</v>
       </c>
       <c r="AI34">
-        <v>0.7815429236004827</v>
+        <v>0.8926939954468108</v>
       </c>
       <c r="AJ34">
-        <v>0.4658303531557372</v>
+        <v>0.840632649016998</v>
       </c>
       <c r="AK34">
-        <v>0.4139939503838571</v>
+        <v>0.9482579920755898</v>
       </c>
       <c r="AL34">
-        <v>0.8913576474379734</v>
+        <v>0.8751956204964757</v>
       </c>
       <c r="AM34">
-        <v>0.4732967297367958</v>
+        <v>0.8580318291962459</v>
       </c>
       <c r="AN34">
-        <v>0.8707173181310538</v>
+        <v>0.8531904402238969</v>
       </c>
       <c r="AO34">
-        <v>0.4530700121040142</v>
+        <v>0.8353925477709526</v>
       </c>
       <c r="AP34">
-        <v>0.9533224486285028</v>
+        <v>0.8663062977159267</v>
       </c>
       <c r="AQ34">
-        <v>0.4319616816812522</v>
+        <v>0.8304333189902524</v>
       </c>
       <c r="AR34">
-        <v>0.729960931793042</v>
+        <v>0.9627795198058746</v>
       </c>
       <c r="AS34">
-        <v>0.6333114733400272</v>
+        <v>0.9577014836772242</v>
       </c>
       <c r="AT34">
-        <v>0.8495549403011691</v>
+        <v>0.8859479339697632</v>
       </c>
     </row>
     <row r="35" spans="1:46">
@@ -5274,139 +5274,139 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8113313367495908</v>
+        <v>0.2447616328265825</v>
       </c>
       <c r="C35">
-        <v>0.6877259177278892</v>
+        <v>0.4634156538453333</v>
       </c>
       <c r="D35">
-        <v>0.4887971708612024</v>
+        <v>0.5372163812964459</v>
       </c>
       <c r="E35">
-        <v>0.5738241261079888</v>
+        <v>0.9475823440476103</v>
       </c>
       <c r="F35">
-        <v>0.9943999678827751</v>
+        <v>0.1270327445922125</v>
       </c>
       <c r="G35">
-        <v>0.5349357672207881</v>
+        <v>0.8153891313617065</v>
       </c>
       <c r="H35">
-        <v>0.9808455350892615</v>
+        <v>0.1564359277529325</v>
       </c>
       <c r="I35">
-        <v>0.705406970299391</v>
+        <v>0.3907486020501154</v>
       </c>
       <c r="J35">
-        <v>0.4464203871803119</v>
+        <v>0.7351240776806078</v>
       </c>
       <c r="K35">
-        <v>0.6994769492009103</v>
+        <v>0.8595587363366224</v>
       </c>
       <c r="L35">
-        <v>0.4893958223406482</v>
+        <v>0.8468701087866396</v>
       </c>
       <c r="M35">
-        <v>0.5125428531592738</v>
+        <v>0.7339406964668588</v>
       </c>
       <c r="N35">
-        <v>0.7339152316379376</v>
+        <v>0.178007126011662</v>
       </c>
       <c r="O35">
-        <v>0.5531425921627926</v>
+        <v>0.8004358679750947</v>
       </c>
       <c r="P35">
-        <v>0.4226641561538286</v>
+        <v>0.7536374072400995</v>
       </c>
       <c r="Q35">
-        <v>0.5534142667297115</v>
+        <v>0.9812213239040872</v>
       </c>
       <c r="R35">
-        <v>0.4279967359310658</v>
+        <v>0.7297167401177944</v>
       </c>
       <c r="S35">
-        <v>0.4140993420640982</v>
+        <v>0.6892289558983533</v>
       </c>
       <c r="T35">
-        <v>0.4356865670277378</v>
+        <v>0.833093337609532</v>
       </c>
       <c r="U35">
-        <v>0.4529638228568246</v>
+        <v>0.7893790119370832</v>
       </c>
       <c r="V35">
-        <v>0.4469600470662943</v>
+        <v>0.8110745572815387</v>
       </c>
       <c r="W35">
-        <v>0.8495546455745092</v>
+        <v>0.2125908703002932</v>
       </c>
       <c r="X35">
-        <v>0.4546071877219757</v>
+        <v>0.8416297025621723</v>
       </c>
       <c r="Y35">
-        <v>0.513586848601693</v>
+        <v>0.7620256652815089</v>
       </c>
       <c r="Z35">
-        <v>0.4472402514269154</v>
+        <v>0.6888999562500815</v>
       </c>
       <c r="AA35">
-        <v>0.4354238774307206</v>
+        <v>0.916097482569241</v>
       </c>
       <c r="AB35">
-        <v>0.4470027454765219</v>
+        <v>0.8865225616814671</v>
       </c>
       <c r="AC35">
-        <v>0.6718211240594153</v>
+        <v>0.5561529874652702</v>
       </c>
       <c r="AD35">
-        <v>0.6986993018788084</v>
+        <v>0.8191589094963714</v>
       </c>
       <c r="AE35">
-        <v>0.7902380702088568</v>
+        <v>0.75157861965158</v>
       </c>
       <c r="AF35">
-        <v>0.6412872312677458</v>
+        <v>0.8433919069568356</v>
       </c>
       <c r="AG35">
-        <v>0.9616002816914799</v>
+        <v>0.8031667933113946</v>
       </c>
       <c r="AH35">
-        <v>0.7815429236004827</v>
+        <v>0.8926939954468108</v>
       </c>
       <c r="AI35">
         <v>1</v>
       </c>
       <c r="AJ35">
-        <v>0.6300356787597494</v>
+        <v>0.9467246034291894</v>
       </c>
       <c r="AK35">
-        <v>0.5623617659467326</v>
+        <v>0.9440584908432543</v>
       </c>
       <c r="AL35">
-        <v>0.6824394978544894</v>
+        <v>0.7715972110687488</v>
       </c>
       <c r="AM35">
-        <v>0.6396254811402922</v>
+        <v>0.7552446673947997</v>
       </c>
       <c r="AN35">
-        <v>0.9075537783578987</v>
+        <v>0.7506438685339258</v>
       </c>
       <c r="AO35">
-        <v>0.6135498364638305</v>
+        <v>0.7337950446865587</v>
       </c>
       <c r="AP35">
-        <v>0.8259248533665591</v>
+        <v>0.7630917438049725</v>
       </c>
       <c r="AQ35">
-        <v>0.5860249639509028</v>
+        <v>0.7291054250788758</v>
       </c>
       <c r="AR35">
-        <v>0.9442242948334432</v>
+        <v>0.9295689267937195</v>
       </c>
       <c r="AS35">
-        <v>0.8349827703463435</v>
+        <v>0.8511581776064487</v>
       </c>
       <c r="AT35">
-        <v>0.9290273484606252</v>
+        <v>0.7818620043326368</v>
       </c>
     </row>
     <row r="36" spans="1:46">
@@ -5414,139 +5414,139 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.4864543148207993</v>
+        <v>0.2620982184094339</v>
       </c>
       <c r="C36">
-        <v>0.4038132540943977</v>
+        <v>0.4988953669910503</v>
       </c>
       <c r="D36">
-        <v>0.814837754015233</v>
+        <v>0.5774273530469575</v>
       </c>
       <c r="E36">
-        <v>0.9298384803691824</v>
+        <v>0.9991453610552082</v>
       </c>
       <c r="F36">
-        <v>0.6346690031497559</v>
+        <v>0.1333216674643342</v>
       </c>
       <c r="G36">
-        <v>0.8786132093903614</v>
+        <v>0.7651006770967155</v>
       </c>
       <c r="H36">
-        <v>0.6460140443596023</v>
+        <v>0.1654333195290842</v>
       </c>
       <c r="I36">
-        <v>0.9125620705333536</v>
+        <v>0.4207935971421307</v>
       </c>
       <c r="J36">
-        <v>0.7531000198106171</v>
+        <v>0.7845608741168404</v>
       </c>
       <c r="K36">
-        <v>0.9192935682333891</v>
+        <v>0.8081427103065444</v>
       </c>
       <c r="L36">
-        <v>0.8156725934048198</v>
+        <v>0.7957657309225183</v>
       </c>
       <c r="M36">
-        <v>0.8480837627512902</v>
+        <v>0.6863439886152629</v>
       </c>
       <c r="N36">
-        <v>0.4337445274274848</v>
+        <v>0.1890366505080531</v>
       </c>
       <c r="O36">
-        <v>0.9028744752961524</v>
+        <v>0.7505714343988545</v>
       </c>
       <c r="P36">
-        <v>0.7171823029452455</v>
+        <v>0.7053222910294155</v>
       </c>
       <c r="Q36">
-        <v>0.9032342653162815</v>
+        <v>0.9280862359526785</v>
       </c>
       <c r="R36">
-        <v>0.7253017108490156</v>
+        <v>0.6822755881478495</v>
       </c>
       <c r="S36">
-        <v>0.7039604210025183</v>
+        <v>0.6434662394161402</v>
       </c>
       <c r="T36">
-        <v>0.7369570562121803</v>
+        <v>0.7823011198975447</v>
       </c>
       <c r="U36">
-        <v>0.7628367170830079</v>
+        <v>0.739865194797691</v>
       </c>
       <c r="V36">
-        <v>0.7539555524608821</v>
+        <v>0.7608937317108428</v>
       </c>
       <c r="W36">
-        <v>0.5136469696014789</v>
+        <v>0.2268923161259434</v>
       </c>
       <c r="X36">
-        <v>0.7652602855584815</v>
+        <v>0.7906357047956379</v>
       </c>
       <c r="Y36">
-        <v>0.8495234003688266</v>
+        <v>0.8122709778142982</v>
       </c>
       <c r="Z36">
-        <v>0.7543467244893733</v>
+        <v>0.6431530469008904</v>
       </c>
       <c r="AA36">
-        <v>0.7366284245170172</v>
+        <v>0.8636196567951299</v>
       </c>
       <c r="AB36">
-        <v>0.7539589919446915</v>
+        <v>0.8345538398144526</v>
       </c>
       <c r="AC36">
-        <v>0.9506927996338115</v>
+        <v>0.5974833858488038</v>
       </c>
       <c r="AD36">
-        <v>0.9200525472726675</v>
+        <v>0.7687529556556567</v>
       </c>
       <c r="AE36">
-        <v>0.4717573982946006</v>
+        <v>0.7033196690296526</v>
       </c>
       <c r="AF36">
-        <v>0.9864801366249218</v>
+        <v>0.7923574417300699</v>
       </c>
       <c r="AG36">
-        <v>0.6624211440600051</v>
+        <v>0.7532139775373563</v>
       </c>
       <c r="AH36">
-        <v>0.4658303531557372</v>
+        <v>0.840632649016998</v>
       </c>
       <c r="AI36">
-        <v>0.6300356787597494</v>
+        <v>0.9467246034291894</v>
       </c>
       <c r="AJ36">
         <v>1</v>
       </c>
       <c r="AK36">
-        <v>0.9150708745569051</v>
+        <v>0.8912311827049787</v>
       </c>
       <c r="AL36">
-        <v>0.4005313923580234</v>
+        <v>0.7226555014338116</v>
       </c>
       <c r="AM36">
-        <v>0.9884364163239325</v>
+        <v>0.706863194138931</v>
       </c>
       <c r="AN36">
-        <v>0.5568309960004805</v>
+        <v>0.7024254350352794</v>
       </c>
       <c r="AO36">
-        <v>0.9798320911677876</v>
+        <v>0.6862020276801301</v>
       </c>
       <c r="AP36">
-        <v>0.4966753771463258</v>
+        <v>0.7144263521886668</v>
       </c>
       <c r="AQ36">
-        <v>0.945389970764313</v>
+        <v>0.6816892575294712</v>
       </c>
       <c r="AR36">
-        <v>0.6774308989498214</v>
+        <v>0.876921972804499</v>
       </c>
       <c r="AS36">
-        <v>0.778008666418098</v>
+        <v>0.7999373593902531</v>
       </c>
       <c r="AT36">
-        <v>0.5732237913408296</v>
+        <v>0.7325789195169354</v>
       </c>
     </row>
     <row r="37" spans="1:46">
@@ -5554,139 +5554,139 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4323850344248428</v>
+        <v>0.2282253787976109</v>
       </c>
       <c r="C37">
-        <v>0.3590318658384986</v>
+        <v>0.4288805168935057</v>
       </c>
       <c r="D37">
-        <v>0.8976817787568246</v>
+        <v>0.4977082340907788</v>
       </c>
       <c r="E37">
-        <v>0.9851471663587883</v>
+        <v>0.8920855482122509</v>
       </c>
       <c r="F37">
-        <v>0.5666126251519248</v>
+        <v>0.1210043763834236</v>
       </c>
       <c r="G37">
-        <v>0.9630141817945314</v>
+        <v>0.8697076870604553</v>
       </c>
       <c r="H37">
-        <v>0.5770458665168043</v>
+        <v>0.1478445628541053</v>
       </c>
       <c r="I37">
-        <v>0.8292096528876474</v>
+        <v>0.3617483201143825</v>
       </c>
       <c r="J37">
-        <v>0.833539124317516</v>
+        <v>0.6852068453682232</v>
       </c>
       <c r="K37">
-        <v>0.8357976008210214</v>
+        <v>0.9147182221784175</v>
       </c>
       <c r="L37">
-        <v>0.8985375133577485</v>
+        <v>0.9018004567006914</v>
       </c>
       <c r="M37">
-        <v>0.9318518061404006</v>
+        <v>0.7860140909135929</v>
       </c>
       <c r="N37">
-        <v>0.3854790197001825</v>
+        <v>0.1674899133105869</v>
       </c>
       <c r="O37">
-        <v>0.9876358879909082</v>
+        <v>0.8544235683472582</v>
       </c>
       <c r="P37">
-        <v>0.7958418222921334</v>
+        <v>0.8063308914917654</v>
       </c>
       <c r="Q37">
-        <v>0.9880005994103704</v>
+        <v>0.9628303646824026</v>
       </c>
       <c r="R37">
-        <v>0.804377671453225</v>
+        <v>0.7816559450031278</v>
       </c>
       <c r="S37">
-        <v>0.7818798054370786</v>
+        <v>0.7396521203177469</v>
       </c>
       <c r="T37">
-        <v>0.8166183861807614</v>
+        <v>0.8878094394263343</v>
       </c>
       <c r="U37">
-        <v>0.8437139745611284</v>
+        <v>0.8430778225748978</v>
       </c>
       <c r="V37">
-        <v>0.8344529499140434</v>
+        <v>0.8653155609342038</v>
       </c>
       <c r="W37">
-        <v>0.456728995397954</v>
+        <v>0.1989605779202703</v>
       </c>
       <c r="X37">
-        <v>0.8462394176123502</v>
+        <v>0.8964884318911897</v>
       </c>
       <c r="Y37">
-        <v>0.9333254706277707</v>
+        <v>0.7110963661918335</v>
       </c>
       <c r="Z37">
-        <v>0.8348517671637234</v>
+        <v>0.7393080566231772</v>
       </c>
       <c r="AA37">
-        <v>0.8162999124448636</v>
+        <v>0.9719090675427091</v>
       </c>
       <c r="AB37">
-        <v>0.834433587029176</v>
+        <v>0.9420431756347649</v>
       </c>
       <c r="AC37">
-        <v>0.8664744559134165</v>
+        <v>0.515443628307043</v>
       </c>
       <c r="AD37">
-        <v>0.8365016637554378</v>
+        <v>0.8735744312423385</v>
       </c>
       <c r="AE37">
-        <v>0.4192616749192076</v>
+        <v>0.8042310885640157</v>
       </c>
       <c r="AF37">
-        <v>0.9016889912231233</v>
+        <v>0.898278762560495</v>
       </c>
       <c r="AG37">
-        <v>0.5921894877361158</v>
+        <v>0.8572282809238281</v>
       </c>
       <c r="AH37">
-        <v>0.4139939503838571</v>
+        <v>0.9482579920755898</v>
       </c>
       <c r="AI37">
-        <v>0.5623617659467326</v>
+        <v>0.9440584908432543</v>
       </c>
       <c r="AJ37">
-        <v>0.9150708745569051</v>
+        <v>0.8912311827049787</v>
       </c>
       <c r="AK37">
         <v>1</v>
       </c>
       <c r="AL37">
-        <v>0.3561595188576944</v>
+        <v>0.8248243465738394</v>
       </c>
       <c r="AM37">
-        <v>0.9036131829120559</v>
+        <v>0.807998775767558</v>
       </c>
       <c r="AN37">
-        <v>0.4956900754528445</v>
+        <v>0.8032586690250791</v>
       </c>
       <c r="AO37">
-        <v>0.935121821261877</v>
+        <v>0.7858659491605635</v>
       </c>
       <c r="AP37">
-        <v>0.4415059239178756</v>
+        <v>0.8160914573001394</v>
       </c>
       <c r="AQ37">
-        <v>0.9695422695874576</v>
+        <v>0.7810220607108544</v>
       </c>
       <c r="AR37">
-        <v>0.6060689306536813</v>
+        <v>0.9854425382469789</v>
       </c>
       <c r="AS37">
-        <v>0.7002151476521068</v>
+        <v>0.9061792901903309</v>
       </c>
       <c r="AT37">
-        <v>0.5105192380823644</v>
+        <v>0.8353748501404838</v>
       </c>
     </row>
     <row r="38" spans="1:46">
@@ -5694,139 +5694,139 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8605197098944487</v>
+        <v>0.1848340783249099</v>
       </c>
       <c r="C38">
-        <v>0.9938850966595757</v>
+        <v>0.335576440791834</v>
       </c>
       <c r="D38">
-        <v>0.3098486086010707</v>
+        <v>0.3893366726728257</v>
       </c>
       <c r="E38">
-        <v>0.363563255763457</v>
+        <v>0.7234625806036215</v>
       </c>
       <c r="F38">
-        <v>0.6775608913616058</v>
+        <v>0.104976698538086</v>
       </c>
       <c r="G38">
-        <v>0.338688544960442</v>
+        <v>0.9537995497314224</v>
       </c>
       <c r="H38">
-        <v>0.6658561716660881</v>
+        <v>0.1251803222694204</v>
       </c>
       <c r="I38">
-        <v>0.4521770056218042</v>
+        <v>0.284414072062628</v>
       </c>
       <c r="J38">
-        <v>0.2839580731804877</v>
+        <v>0.5417821842942885</v>
       </c>
       <c r="K38">
-        <v>0.4480475260924243</v>
+        <v>0.9083242388003585</v>
       </c>
       <c r="L38">
-        <v>0.3102200565629428</v>
+        <v>0.9213445465285071</v>
       </c>
       <c r="M38">
-        <v>0.3246033258286944</v>
+        <v>0.9593088244015632</v>
       </c>
       <c r="N38">
-        <v>0.9422942059443744</v>
+        <v>0.1398355011007048</v>
       </c>
       <c r="O38">
-        <v>0.3502672598025324</v>
+        <v>0.9693834113143303</v>
       </c>
       <c r="P38">
-        <v>0.269663066816873</v>
+        <v>0.9806629310569523</v>
       </c>
       <c r="Q38">
-        <v>0.3504406869088039</v>
+        <v>0.7894662035754401</v>
       </c>
       <c r="R38">
-        <v>0.2728610251691753</v>
+        <v>0.9547280427316041</v>
       </c>
       <c r="S38">
-        <v>0.2645478332921015</v>
+        <v>0.9096839026491992</v>
       </c>
       <c r="T38">
-        <v>0.2774833139139589</v>
+        <v>0.9352936930761093</v>
       </c>
       <c r="U38">
-        <v>0.2879212653731926</v>
+        <v>0.9811168749896868</v>
       </c>
       <c r="V38">
-        <v>0.2842799633287958</v>
+        <v>0.958208325208558</v>
       </c>
       <c r="W38">
-        <v>0.8220914181587858</v>
+        <v>0.1632004766086838</v>
       </c>
       <c r="X38">
-        <v>0.2889194746222135</v>
+        <v>0.9266042054270426</v>
       </c>
       <c r="Y38">
-        <v>0.3252564052303993</v>
+        <v>0.5637711601660538</v>
       </c>
       <c r="Z38">
-        <v>0.2844519238854367</v>
+        <v>0.909303665733499</v>
       </c>
       <c r="AA38">
-        <v>0.2773194713606782</v>
+        <v>0.851917751551623</v>
       </c>
       <c r="AB38">
-        <v>0.284311269895766</v>
+        <v>0.8812200363679673</v>
       </c>
       <c r="AC38">
-        <v>0.4288671902453637</v>
+        <v>0.4033175658315401</v>
       </c>
       <c r="AD38">
-        <v>0.4474773293272818</v>
+        <v>0.9497997094634767</v>
       </c>
       <c r="AE38">
-        <v>0.8822420106829023</v>
+        <v>0.9785530001002285</v>
       </c>
       <c r="AF38">
-        <v>0.4080843774633817</v>
+        <v>0.9248159489569041</v>
       </c>
       <c r="AG38">
-        <v>0.6494726054263933</v>
+        <v>0.9664715412918652</v>
       </c>
       <c r="AH38">
-        <v>0.8913576474379734</v>
+        <v>0.8751956204964757</v>
       </c>
       <c r="AI38">
-        <v>0.6824394978544894</v>
+        <v>0.7715972110687488</v>
       </c>
       <c r="AJ38">
-        <v>0.4005313923580234</v>
+        <v>0.7226555014338116</v>
       </c>
       <c r="AK38">
-        <v>0.3561595188576944</v>
+        <v>0.8248243465738394</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
-        <v>0.4069595882332923</v>
+        <v>0.9824590082740465</v>
       </c>
       <c r="AN38">
-        <v>0.7662524306475011</v>
+        <v>0.9774961425919459</v>
       </c>
       <c r="AO38">
-        <v>0.3895681924389425</v>
+        <v>0.9591620730678259</v>
       </c>
       <c r="AP38">
-        <v>0.8456570186420348</v>
+        <v>0.9909694079461105</v>
       </c>
       <c r="AQ38">
-        <v>0.3714920748986954</v>
+        <v>0.9540486393458764</v>
       </c>
       <c r="AR38">
-        <v>0.6348637298022743</v>
+        <v>0.8388768245388876</v>
       </c>
       <c r="AS38">
-        <v>0.5473897471946232</v>
+        <v>0.9168804928024517</v>
       </c>
       <c r="AT38">
-        <v>0.7461708110653613</v>
+        <v>0.989034452429209</v>
       </c>
     </row>
     <row r="39" spans="1:46">
@@ -5834,139 +5834,139 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4942272740304986</v>
+        <v>0.1811927779978242</v>
       </c>
       <c r="C39">
-        <v>0.4102990200704153</v>
+        <v>0.3276012962494391</v>
       </c>
       <c r="D39">
-        <v>0.8037791149252786</v>
+        <v>0.3799690676880977</v>
       </c>
       <c r="E39">
-        <v>0.9183507144061956</v>
+        <v>0.7076629560614217</v>
       </c>
       <c r="F39">
-        <v>0.6443083319679834</v>
+        <v>0.1036114239059836</v>
       </c>
       <c r="G39">
-        <v>0.8672706093741428</v>
+        <v>0.9363166324068412</v>
       </c>
       <c r="H39">
-        <v>0.6557709264421391</v>
+        <v>0.1232641281532292</v>
       </c>
       <c r="I39">
-        <v>0.9240195624472423</v>
+        <v>0.2778643685059252</v>
       </c>
       <c r="J39">
-        <v>0.7424301460161853</v>
+        <v>0.52893349857657</v>
       </c>
       <c r="K39">
-        <v>0.9307626647362581</v>
+        <v>0.8909817550423436</v>
       </c>
       <c r="L39">
-        <v>0.804610126560652</v>
+        <v>0.903959834018129</v>
       </c>
       <c r="M39">
-        <v>0.8368626298504485</v>
+        <v>0.9768258563608833</v>
       </c>
       <c r="N39">
-        <v>0.4407168336306803</v>
+        <v>0.1375054898859319</v>
       </c>
       <c r="O39">
-        <v>0.8914539215016342</v>
+        <v>0.9518653269262738</v>
       </c>
       <c r="P39">
-        <v>0.7067860997002613</v>
+        <v>0.9981972974618998</v>
       </c>
       <c r="Q39">
-        <v>0.891812615479803</v>
+        <v>0.7729584672115204</v>
       </c>
       <c r="R39">
-        <v>0.7148418238591022</v>
+        <v>0.9722417733216476</v>
       </c>
       <c r="S39">
-        <v>0.693675337044235</v>
+        <v>0.9270656734008434</v>
       </c>
       <c r="T39">
-        <v>0.7264073716499061</v>
+        <v>0.917844609727948</v>
       </c>
       <c r="U39">
-        <v>0.7520981722807545</v>
+        <v>0.9635905080809951</v>
       </c>
       <c r="V39">
-        <v>0.7432773087943041</v>
+        <v>0.940707560670113</v>
       </c>
       <c r="W39">
-        <v>0.5218081082244646</v>
+        <v>0.1601967178412386</v>
       </c>
       <c r="X39">
-        <v>0.7545055175274988</v>
+        <v>0.909191165385523</v>
       </c>
       <c r="Y39">
-        <v>0.8382959954760381</v>
+        <v>0.5505021430258755</v>
       </c>
       <c r="Z39">
-        <v>0.7436668919744913</v>
+        <v>0.9266830334509801</v>
       </c>
       <c r="AA39">
-        <v>0.7260781454455901</v>
+        <v>0.8348838270040221</v>
       </c>
       <c r="AB39">
-        <v>0.7432834268510653</v>
+        <v>0.8640112973559454</v>
       </c>
       <c r="AC39">
-        <v>0.962221461181196</v>
+        <v>0.3935955342844086</v>
       </c>
       <c r="AD39">
-        <v>0.9315279332901003</v>
+        <v>0.9323188936079463</v>
       </c>
       <c r="AE39">
-        <v>0.4793145799834992</v>
+        <v>0.9960968786744724</v>
       </c>
       <c r="AF39">
-        <v>0.9980418999945057</v>
+        <v>0.90741073959656</v>
       </c>
       <c r="AG39">
-        <v>0.6723396881000946</v>
+        <v>0.9489540730159314</v>
       </c>
       <c r="AH39">
-        <v>0.4732967297367958</v>
+        <v>0.8580318291962459</v>
       </c>
       <c r="AI39">
-        <v>0.6396254811402922</v>
+        <v>0.7552446673947997</v>
       </c>
       <c r="AJ39">
-        <v>0.9884364163239325</v>
+        <v>0.706863194138931</v>
       </c>
       <c r="AK39">
-        <v>0.9036131829120559</v>
+        <v>0.807998775767558</v>
       </c>
       <c r="AL39">
-        <v>0.4069595882332923</v>
+        <v>0.9824590082740465</v>
       </c>
       <c r="AM39">
         <v>1</v>
       </c>
       <c r="AN39">
-        <v>0.5655603304924796</v>
+        <v>0.9950350360157911</v>
       </c>
       <c r="AO39">
-        <v>0.9682777054327768</v>
+        <v>0.9766800572151142</v>
       </c>
       <c r="AP39">
-        <v>0.5045987710912831</v>
+        <v>0.9914812444619232</v>
       </c>
       <c r="AQ39">
-        <v>0.933875517238834</v>
+        <v>0.9715603342297919</v>
       </c>
       <c r="AR39">
-        <v>0.6874930770309773</v>
+        <v>0.8219453802095976</v>
       </c>
       <c r="AS39">
-        <v>0.7888601376820801</v>
+        <v>0.899504590272084</v>
       </c>
       <c r="AT39">
-        <v>0.5821615298377201</v>
+        <v>0.9714962981241981</v>
       </c>
     </row>
     <row r="40" spans="1:46">
@@ -5974,139 +5974,139 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9016399991187797</v>
+        <v>0.18017999735194</v>
       </c>
       <c r="C40">
-        <v>0.7719095452565201</v>
+        <v>0.3253798833439639</v>
       </c>
       <c r="D40">
-        <v>0.4301694745108126</v>
+        <v>0.3773571405333834</v>
       </c>
       <c r="E40">
-        <v>0.5059935064899558</v>
+        <v>0.7032230586126194</v>
       </c>
       <c r="F40">
-        <v>0.9020180709703833</v>
+        <v>0.1032310798889816</v>
       </c>
       <c r="G40">
-        <v>0.471160103754848</v>
+        <v>0.9313757126870523</v>
       </c>
       <c r="H40">
-        <v>0.8886549624513318</v>
+        <v>0.1227307064065561</v>
       </c>
       <c r="I40">
-        <v>0.6259472121599542</v>
+        <v>0.2760414539288439</v>
       </c>
       <c r="J40">
-        <v>0.3928347663469318</v>
+        <v>0.5253388415244846</v>
       </c>
       <c r="K40">
-        <v>0.6204813215273581</v>
+        <v>0.88608592218216</v>
       </c>
       <c r="L40">
-        <v>0.4307000845454031</v>
+        <v>0.8990505583573052</v>
       </c>
       <c r="M40">
-        <v>0.4512206673677924</v>
+        <v>0.9817867707532935</v>
       </c>
       <c r="N40">
-        <v>0.8208441176023986</v>
+        <v>0.1368571069541628</v>
       </c>
       <c r="O40">
-        <v>0.4874354483256105</v>
+        <v>0.9469125723721139</v>
       </c>
       <c r="P40">
-        <v>0.3720240030012549</v>
+        <v>0.9968394321313819</v>
       </c>
       <c r="Q40">
-        <v>0.4876786104003673</v>
+        <v>0.7683120096111911</v>
       </c>
       <c r="R40">
-        <v>0.3766897513269164</v>
+        <v>0.9772023156351324</v>
       </c>
       <c r="S40">
-        <v>0.3645431334396415</v>
+        <v>0.9319939945183744</v>
       </c>
       <c r="T40">
-        <v>0.3834234709191944</v>
+        <v>0.9129153982068803</v>
       </c>
       <c r="U40">
-        <v>0.3985809399248814</v>
+        <v>0.9586340442071061</v>
       </c>
       <c r="V40">
-        <v>0.3933053493824292</v>
+        <v>0.9357610271757888</v>
       </c>
       <c r="W40">
-        <v>0.941001389067293</v>
+        <v>0.1593611393897088</v>
       </c>
       <c r="X40">
-        <v>0.4000257581596846</v>
+        <v>0.9042732147731658</v>
       </c>
       <c r="Y40">
-        <v>0.4521484654155145</v>
+        <v>0.5467879570214453</v>
       </c>
       <c r="Z40">
-        <v>0.3935529725056013</v>
+        <v>0.9316107105888266</v>
       </c>
       <c r="AA40">
-        <v>0.3831892853767939</v>
+        <v>0.8300817684078712</v>
       </c>
       <c r="AB40">
-        <v>0.3933465582993917</v>
+        <v>0.8591564636335093</v>
       </c>
       <c r="AC40">
-        <v>0.5950174531924787</v>
+        <v>0.3908840169613745</v>
       </c>
       <c r="AD40">
-        <v>0.6197504634439318</v>
+        <v>0.9273790123526836</v>
       </c>
       <c r="AE40">
-        <v>0.8797766842352843</v>
+        <v>0.9989368477721495</v>
       </c>
       <c r="AF40">
-        <v>0.5670783554143299</v>
+        <v>0.902495222595598</v>
       </c>
       <c r="AG40">
-        <v>0.8697628287514779</v>
+        <v>0.9440018208205776</v>
       </c>
       <c r="AH40">
-        <v>0.8707173181310538</v>
+        <v>0.8531904402238969</v>
       </c>
       <c r="AI40">
-        <v>0.9075537783578987</v>
+        <v>0.7506438685339258</v>
       </c>
       <c r="AJ40">
-        <v>0.5568309960004805</v>
+        <v>0.7024254350352794</v>
       </c>
       <c r="AK40">
-        <v>0.4956900754528445</v>
+        <v>0.8032586690250791</v>
       </c>
       <c r="AL40">
-        <v>0.7662524306475011</v>
+        <v>0.9774961425919459</v>
       </c>
       <c r="AM40">
-        <v>0.5655603304924796</v>
+        <v>0.9950350360157911</v>
       </c>
       <c r="AN40">
         <v>1</v>
       </c>
       <c r="AO40">
-        <v>0.5418648258500183</v>
+        <v>0.9816412653467254</v>
       </c>
       <c r="AP40">
-        <v>0.9167245924294132</v>
+        <v>0.9865148964324857</v>
       </c>
       <c r="AQ40">
-        <v>0.5169834253180303</v>
+        <v>0.9765203748367173</v>
       </c>
       <c r="AR40">
-        <v>0.8527675148985298</v>
+        <v>0.8171737917093104</v>
       </c>
       <c r="AS40">
-        <v>0.747499180857828</v>
+        <v>0.8945983015162132</v>
       </c>
       <c r="AT40">
-        <v>0.9783297820942838</v>
+        <v>0.9665355300443885</v>
       </c>
     </row>
     <row r="41" spans="1:46">
@@ -6114,139 +6114,139 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.473160760598188</v>
+        <v>0.1765234392337952</v>
       </c>
       <c r="C41">
-        <v>0.3927507881587892</v>
+        <v>0.3173507619048809</v>
       </c>
       <c r="D41">
-        <v>0.8342672988085821</v>
+        <v>0.3679053432648005</v>
       </c>
       <c r="E41">
-        <v>0.9499300488180762</v>
+        <v>0.6869913877841266</v>
       </c>
       <c r="F41">
-        <v>0.6180951352458022</v>
+        <v>0.1018536073474961</v>
       </c>
       <c r="G41">
-        <v>0.8984912585772565</v>
+        <v>0.913156442342394</v>
       </c>
       <c r="H41">
-        <v>0.6292308961838249</v>
+        <v>0.1208014168240912</v>
       </c>
       <c r="I41">
-        <v>0.892648337031592</v>
+        <v>0.2694582230928111</v>
       </c>
       <c r="J41">
-        <v>0.7718920938092784</v>
+        <v>0.512276020870482</v>
       </c>
       <c r="K41">
-        <v>0.8993545289487073</v>
+        <v>0.8680648475716488</v>
       </c>
       <c r="L41">
-        <v>0.8351081769670082</v>
+        <v>0.8809710162669483</v>
       </c>
       <c r="M41">
-        <v>0.8677728061016184</v>
+        <v>0.9998557184789135</v>
       </c>
       <c r="N41">
-        <v>0.4218410770141028</v>
+        <v>0.1345136064599929</v>
       </c>
       <c r="O41">
-        <v>0.9228698716131414</v>
+        <v>0.9286382707183802</v>
       </c>
       <c r="P41">
-        <v>0.7355182643134309</v>
+        <v>0.9784894770133569</v>
       </c>
       <c r="Q41">
-        <v>0.9232312987546973</v>
+        <v>0.7512851224448551</v>
       </c>
       <c r="R41">
-        <v>0.7437440060228127</v>
+        <v>0.9955620337786371</v>
       </c>
       <c r="S41">
-        <v>0.7221096997898482</v>
+        <v>0.9502689235409085</v>
       </c>
       <c r="T41">
-        <v>0.7555491347612923</v>
+        <v>0.8947522907732708</v>
       </c>
       <c r="U41">
-        <v>0.7817425308252293</v>
+        <v>0.9403376003901223</v>
       </c>
       <c r="V41">
-        <v>0.7727619058485531</v>
+        <v>0.9175177354520789</v>
       </c>
       <c r="W41">
-        <v>0.4996764072634592</v>
+        <v>0.1563431923370227</v>
       </c>
       <c r="X41">
-        <v>0.784192830488768</v>
+        <v>0.8861578739665206</v>
       </c>
       <c r="Y41">
-        <v>0.8692223191244186</v>
+        <v>0.5332815559897435</v>
       </c>
       <c r="Z41">
-        <v>0.7731554971979844</v>
+        <v>0.9498835244477644</v>
       </c>
       <c r="AA41">
-        <v>0.7552220297340095</v>
+        <v>0.8124438040390172</v>
       </c>
       <c r="AB41">
-        <v>0.7727604223347588</v>
+        <v>0.8413049127850689</v>
       </c>
       <c r="AC41">
-        <v>0.9306251955366376</v>
+        <v>0.3810685344174548</v>
       </c>
       <c r="AD41">
-        <v>0.9001017981787591</v>
+        <v>0.9091663304157503</v>
       </c>
       <c r="AE41">
-        <v>0.4588393060535014</v>
+        <v>0.9805739819859889</v>
       </c>
       <c r="AF41">
-        <v>0.9663262197292188</v>
+        <v>0.884390131822425</v>
       </c>
       <c r="AG41">
-        <v>0.6453493608603084</v>
+        <v>0.9257314213538224</v>
       </c>
       <c r="AH41">
-        <v>0.4530700121040142</v>
+        <v>0.8353925477709526</v>
       </c>
       <c r="AI41">
-        <v>0.6135498364638305</v>
+        <v>0.7337950446865587</v>
       </c>
       <c r="AJ41">
-        <v>0.9798320911677876</v>
+        <v>0.6862020276801301</v>
       </c>
       <c r="AK41">
-        <v>0.935121821261877</v>
+        <v>0.7858659491605635</v>
       </c>
       <c r="AL41">
-        <v>0.3895681924389425</v>
+        <v>0.9591620730678259</v>
       </c>
       <c r="AM41">
-        <v>0.9682777054327768</v>
+        <v>0.9766800572151142</v>
       </c>
       <c r="AN41">
-        <v>0.5418648258500183</v>
+        <v>0.9816412653467254</v>
       </c>
       <c r="AO41">
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.4831197901872614</v>
+        <v>0.9681610743636412</v>
       </c>
       <c r="AQ41">
-        <v>0.9655156561486529</v>
+        <v>0.9948787369029409</v>
       </c>
       <c r="AR41">
-        <v>0.6601020053100936</v>
+        <v>0.7996564183068727</v>
       </c>
       <c r="AS41">
-        <v>0.7592479001835927</v>
+        <v>0.8765327745957385</v>
       </c>
       <c r="AT41">
-        <v>0.557891177673588</v>
+        <v>0.9482172830347377</v>
       </c>
     </row>
     <row r="42" spans="1:46">
@@ -6254,139 +6254,139 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9847377598096105</v>
+        <v>0.1829168919545664</v>
       </c>
       <c r="C42">
-        <v>0.8515672012558491</v>
+        <v>0.3313775535928655</v>
       </c>
       <c r="D42">
-        <v>0.3830293300935732</v>
+        <v>0.3844091334724921</v>
       </c>
       <c r="E42">
-        <v>0.4507658947928468</v>
+        <v>0.715229866935817</v>
       </c>
       <c r="F42">
-        <v>0.8205430911378646</v>
+        <v>0.1042609014377584</v>
       </c>
       <c r="G42">
-        <v>0.4195429976823702</v>
+        <v>0.9447778736065768</v>
       </c>
       <c r="H42">
-        <v>0.8075811929662098</v>
+        <v>0.1241739413772816</v>
       </c>
       <c r="I42">
-        <v>0.5597788795823566</v>
+        <v>0.2809638575939327</v>
       </c>
       <c r="J42">
-        <v>0.3499788618712282</v>
+        <v>0.5350478356622426</v>
       </c>
       <c r="K42">
-        <v>0.5547672200689289</v>
+        <v>0.8993557478737026</v>
       </c>
       <c r="L42">
-        <v>0.383501074031765</v>
+        <v>0.9123596297289482</v>
       </c>
       <c r="M42">
-        <v>0.4017510776615573</v>
+        <v>0.9683074148669891</v>
       </c>
       <c r="N42">
-        <v>0.9022388090225338</v>
+        <v>0.1386106867404448</v>
       </c>
       <c r="O42">
-        <v>0.434108665512302</v>
+        <v>0.9603505474728171</v>
       </c>
       <c r="P42">
-        <v>0.3316329699434318</v>
+        <v>0.9896809151201426</v>
       </c>
       <c r="Q42">
-        <v>0.4343265033982688</v>
+        <v>0.7808860441495606</v>
       </c>
       <c r="R42">
-        <v>0.3357423348626631</v>
+        <v>0.9637226327626531</v>
       </c>
       <c r="S42">
-        <v>0.3250519291146086</v>
+        <v>0.9185876343657751</v>
       </c>
       <c r="T42">
-        <v>0.3416767559735321</v>
+        <v>0.9262814656716389</v>
       </c>
       <c r="U42">
-        <v>0.3550535240988104</v>
+        <v>0.9720850506660383</v>
       </c>
       <c r="V42">
-        <v>0.3503925679386909</v>
+        <v>0.9491794062303591</v>
       </c>
       <c r="W42">
-        <v>0.9755686780939188</v>
+        <v>0.1616199216197809</v>
       </c>
       <c r="X42">
-        <v>0.3563305328549781</v>
+        <v>0.9176068805362815</v>
       </c>
       <c r="Y42">
-        <v>0.402577721149267</v>
+        <v>0.5568209021306774</v>
       </c>
       <c r="Z42">
-        <v>0.3506121176057991</v>
+        <v>0.9182059706540906</v>
       </c>
       <c r="AA42">
-        <v>0.3414680694115044</v>
+        <v>0.843086776437058</v>
       </c>
       <c r="AB42">
-        <v>0.3504310408468984</v>
+        <v>0.8723098100312315</v>
       </c>
       <c r="AC42">
-        <v>0.5314437206525269</v>
+        <v>0.3982049519945557</v>
       </c>
       <c r="AD42">
-        <v>0.5540876495662259</v>
+        <v>0.9407773756204857</v>
       </c>
       <c r="AE42">
-        <v>0.962555794013694</v>
+        <v>0.9875748132481752</v>
       </c>
       <c r="AF42">
-        <v>0.5059802849513605</v>
+        <v>0.9158219118167333</v>
       </c>
       <c r="AG42">
-        <v>0.7893238171247495</v>
+        <v>0.9574376958073818</v>
       </c>
       <c r="AH42">
-        <v>0.9533224486285028</v>
+        <v>0.8663062977159267</v>
       </c>
       <c r="AI42">
-        <v>0.8259248533665591</v>
+        <v>0.7630917438049725</v>
       </c>
       <c r="AJ42">
-        <v>0.4966753771463258</v>
+        <v>0.7144263521886668</v>
       </c>
       <c r="AK42">
-        <v>0.4415059239178756</v>
+        <v>0.8160914573001394</v>
       </c>
       <c r="AL42">
-        <v>0.8456570186420348</v>
+        <v>0.9909694079461105</v>
       </c>
       <c r="AM42">
-        <v>0.5045987710912831</v>
+        <v>0.9914812444619232</v>
       </c>
       <c r="AN42">
-        <v>0.9167245924294132</v>
+        <v>0.9865148964324857</v>
       </c>
       <c r="AO42">
-        <v>0.4831197901872614</v>
+        <v>0.9681610743636412</v>
       </c>
       <c r="AP42">
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0.4606589008690106</v>
+        <v>0.9630418476166641</v>
       </c>
       <c r="AR42">
-        <v>0.7729522147968162</v>
+        <v>0.8300941288967159</v>
       </c>
       <c r="AS42">
-        <v>0.672824536200973</v>
+        <v>0.9078982706921555</v>
       </c>
       <c r="AT42">
-        <v>0.8952698536327716</v>
+        <v>0.980000213378179</v>
       </c>
     </row>
     <row r="43" spans="1:46">
@@ -6394,139 +6394,139 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4511462318237128</v>
+        <v>0.1755137336422525</v>
       </c>
       <c r="C43">
-        <v>0.3745081963650632</v>
+        <v>0.3151299189548613</v>
       </c>
       <c r="D43">
-        <v>0.8678206134883895</v>
+        <v>0.3652889784382701</v>
       </c>
       <c r="E43">
-        <v>0.9843887908225157</v>
+        <v>0.6824762821952355</v>
       </c>
       <c r="F43">
-        <v>0.5904156910055574</v>
+        <v>0.1014732764119356</v>
       </c>
       <c r="G43">
-        <v>0.932689156602648</v>
+        <v>0.9080764726294103</v>
       </c>
       <c r="H43">
-        <v>0.6011830624930392</v>
+        <v>0.1202687581673918</v>
       </c>
       <c r="I43">
-        <v>0.8588225959835751</v>
+        <v>0.2676385564702449</v>
       </c>
       <c r="J43">
-        <v>0.8044603846694771</v>
+        <v>0.5086517289823211</v>
       </c>
       <c r="K43">
-        <v>0.8654722457682964</v>
+        <v>0.8630418681532859</v>
       </c>
       <c r="L43">
-        <v>0.8686701468877023</v>
+        <v>0.8759312484164433</v>
       </c>
       <c r="M43">
-        <v>0.9017074022499381</v>
+        <v>0.9947348068467639</v>
       </c>
       <c r="N43">
-        <v>0.4021827714585764</v>
+        <v>0.1338665911603256</v>
       </c>
       <c r="O43">
-        <v>0.9572195361697304</v>
+        <v>0.9235423932851436</v>
       </c>
       <c r="P43">
-        <v>0.767360754834137</v>
+        <v>0.9733711479790577</v>
       </c>
       <c r="Q43">
-        <v>0.9575830418627382</v>
+        <v>0.7465450361227411</v>
       </c>
       <c r="R43">
-        <v>0.7757562561889806</v>
+        <v>0.9993163311647772</v>
       </c>
       <c r="S43">
-        <v>0.7536509348405416</v>
+        <v>0.955367370065455</v>
       </c>
       <c r="T43">
-        <v>0.7878000761895312</v>
+        <v>0.8896885792319573</v>
       </c>
       <c r="U43">
-        <v>0.8144898117645445</v>
+        <v>0.9352352180332714</v>
       </c>
       <c r="V43">
-        <v>0.8053538445968679</v>
+        <v>0.9124308655458095</v>
       </c>
       <c r="W43">
-        <v>0.4765063859013123</v>
+        <v>0.1555099222929513</v>
       </c>
       <c r="X43">
-        <v>0.8169817841550046</v>
+        <v>0.881107862729997</v>
       </c>
       <c r="Y43">
-        <v>0.9031710167832402</v>
+        <v>0.5295329789236837</v>
       </c>
       <c r="Z43">
-        <v>0.8057506432608172</v>
+        <v>0.9549813766009356</v>
       </c>
       <c r="AA43">
-        <v>0.7874769059264992</v>
+        <v>0.8075301802586009</v>
       </c>
       <c r="AB43">
-        <v>0.8053432390857442</v>
+        <v>0.8363303942759761</v>
       </c>
       <c r="AC43">
-        <v>0.8964582545091242</v>
+        <v>0.3783509311612573</v>
       </c>
       <c r="AD43">
-        <v>0.8661975288192852</v>
+        <v>0.9040882998972758</v>
       </c>
       <c r="AE43">
-        <v>0.4374633388791724</v>
+        <v>0.9754519369328754</v>
       </c>
       <c r="AF43">
-        <v>0.9319364987416339</v>
+        <v>0.8793430582790313</v>
       </c>
       <c r="AG43">
-        <v>0.6167913161154024</v>
+        <v>0.9206367043956906</v>
       </c>
       <c r="AH43">
-        <v>0.4319616816812522</v>
+        <v>0.8304333189902524</v>
       </c>
       <c r="AI43">
-        <v>0.5860249639509028</v>
+        <v>0.7291054250788758</v>
       </c>
       <c r="AJ43">
-        <v>0.945389970764313</v>
+        <v>0.6816892575294712</v>
       </c>
       <c r="AK43">
-        <v>0.9695422695874576</v>
+        <v>0.7810220607108544</v>
       </c>
       <c r="AL43">
-        <v>0.3714920748986954</v>
+        <v>0.9540486393458764</v>
       </c>
       <c r="AM43">
-        <v>0.933875517238834</v>
+        <v>0.9715603342297919</v>
       </c>
       <c r="AN43">
-        <v>0.5169834253180303</v>
+        <v>0.9765203748367173</v>
       </c>
       <c r="AO43">
-        <v>0.9655156561486529</v>
+        <v>0.9948787369029409</v>
       </c>
       <c r="AP43">
-        <v>0.4606589008690106</v>
+        <v>0.9630418476166641</v>
       </c>
       <c r="AQ43">
         <v>1</v>
       </c>
       <c r="AR43">
-        <v>0.6310877503070826</v>
+        <v>0.7947770936445639</v>
       </c>
       <c r="AS43">
-        <v>0.7276439269439723</v>
+        <v>0.8714970528177642</v>
       </c>
       <c r="AT43">
-        <v>0.5323765475170384</v>
+        <v>0.9431085556351277</v>
       </c>
     </row>
     <row r="44" spans="1:46">
@@ -6534,139 +6534,139 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7587937125882357</v>
+        <v>0.2241654392987377</v>
       </c>
       <c r="C44">
-        <v>0.6398914003668048</v>
+        <v>0.4203080628813944</v>
       </c>
       <c r="D44">
-        <v>0.5277394840514129</v>
+        <v>0.4878500685832204</v>
       </c>
       <c r="E44">
-        <v>0.6181964798908712</v>
+        <v>0.8777745194871017</v>
       </c>
       <c r="F44">
-        <v>0.9498026192330208</v>
+        <v>0.1195195770067992</v>
       </c>
       <c r="G44">
-        <v>0.5769503757320924</v>
+        <v>0.8839961134921486</v>
       </c>
       <c r="H44">
-        <v>0.9633266708940631</v>
+        <v>0.1457332679656916</v>
       </c>
       <c r="I44">
-        <v>0.7561318365429931</v>
+        <v>0.3545830735131026</v>
       </c>
       <c r="J44">
-        <v>0.4822756831715579</v>
+        <v>0.6725586756416166</v>
       </c>
       <c r="K44">
-        <v>0.7499597735526923</v>
+        <v>0.9291746764597952</v>
       </c>
       <c r="L44">
-        <v>0.5283789283151088</v>
+        <v>0.91621177687809</v>
       </c>
       <c r="M44">
-        <v>0.5531036764425594</v>
+        <v>0.7998049993204952</v>
       </c>
       <c r="N44">
-        <v>0.68408645582133</v>
+        <v>0.1649075638567077</v>
       </c>
       <c r="O44">
-        <v>0.5962875940610974</v>
+        <v>0.8686429094434589</v>
       </c>
       <c r="P44">
-        <v>0.4566858328178288</v>
+        <v>0.820263068659942</v>
       </c>
       <c r="Q44">
-        <v>0.5965758970874455</v>
+        <v>0.9483168710705053</v>
       </c>
       <c r="R44">
-        <v>0.4624347827551365</v>
+        <v>0.795416303085799</v>
       </c>
       <c r="S44">
-        <v>0.4474401705746661</v>
+        <v>0.753054863700183</v>
       </c>
       <c r="T44">
-        <v>0.4707204538361495</v>
+        <v>0.9021818199050851</v>
       </c>
       <c r="U44">
-        <v>0.4893119598773942</v>
+        <v>0.8572337897082762</v>
       </c>
       <c r="V44">
-        <v>0.4828592453334377</v>
+        <v>0.8795890796628794</v>
       </c>
       <c r="W44">
-        <v>0.7959617431493877</v>
+        <v>0.1956152333204516</v>
       </c>
       <c r="X44">
-        <v>0.4910775645270554</v>
+        <v>0.910887668660182</v>
       </c>
       <c r="Y44">
-        <v>0.5542169336613111</v>
+        <v>0.6981637208479973</v>
       </c>
       <c r="Z44">
-        <v>0.4831590000098611</v>
+        <v>0.7527071082371531</v>
       </c>
       <c r="AA44">
-        <v>0.4704415714054594</v>
+        <v>0.9864672417215656</v>
       </c>
       <c r="AB44">
-        <v>0.4829014888419199</v>
+        <v>0.9565613219508946</v>
       </c>
       <c r="AC44">
-        <v>0.72115954918174</v>
+        <v>0.5052715503619227</v>
       </c>
       <c r="AD44">
-        <v>0.7491617483649351</v>
+        <v>0.8878841703278909</v>
       </c>
       <c r="AE44">
-        <v>0.7383584951960956</v>
+        <v>0.8181552881043395</v>
       </c>
       <c r="AF44">
-        <v>0.6892323269070623</v>
+        <v>0.9126831920513347</v>
       </c>
       <c r="AG44">
-        <v>0.982579591809686</v>
+        <v>0.8714639950600817</v>
       </c>
       <c r="AH44">
-        <v>0.729960931793042</v>
+        <v>0.9627795198058746</v>
       </c>
       <c r="AI44">
-        <v>0.9442242948334432</v>
+        <v>0.9295689267937195</v>
       </c>
       <c r="AJ44">
-        <v>0.6774308989498214</v>
+        <v>0.876921972804499</v>
       </c>
       <c r="AK44">
-        <v>0.6060689306536813</v>
+        <v>0.9854425382469789</v>
       </c>
       <c r="AL44">
-        <v>0.6348637298022743</v>
+        <v>0.8388768245388876</v>
       </c>
       <c r="AM44">
-        <v>0.6874930770309773</v>
+        <v>0.8219453802095976</v>
       </c>
       <c r="AN44">
-        <v>0.8527675148985298</v>
+        <v>0.8171737917093104</v>
       </c>
       <c r="AO44">
-        <v>0.6601020053100936</v>
+        <v>0.7996564183068727</v>
       </c>
       <c r="AP44">
-        <v>0.7729522147968162</v>
+        <v>0.8300941288967159</v>
       </c>
       <c r="AQ44">
-        <v>0.6310877503070826</v>
+        <v>0.7947770936445639</v>
       </c>
       <c r="AR44">
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>0.8894672088612172</v>
+        <v>0.9206095733364631</v>
       </c>
       <c r="AT44">
-        <v>0.8738948300858909</v>
+        <v>0.8494908230834286</v>
       </c>
     </row>
     <row r="45" spans="1:46">
@@ -6674,139 +6674,139 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6597761674019229</v>
+        <v>0.2035788800176424</v>
       </c>
       <c r="C45">
-        <v>0.5518543545554633</v>
+        <v>0.3763128465110359</v>
       </c>
       <c r="D45">
-        <v>0.612970002817925</v>
+        <v>0.4369428641379806</v>
       </c>
       <c r="E45">
-        <v>0.7135309981396549</v>
+        <v>0.8007734566625164</v>
       </c>
       <c r="F45">
-        <v>0.8403899299712364</v>
+        <v>0.1119528391855645</v>
       </c>
       <c r="G45">
-        <v>0.6679898970849147</v>
+        <v>0.9629201970163276</v>
       </c>
       <c r="H45">
-        <v>0.8535423506542237</v>
+        <v>0.1350066059577655</v>
       </c>
       <c r="I45">
-        <v>0.8620018960353385</v>
+        <v>0.3180058776626506</v>
       </c>
       <c r="J45">
-        <v>0.5614564186208945</v>
+        <v>0.6060071563008046</v>
       </c>
       <c r="K45">
-        <v>0.8554574890019546</v>
+        <v>0.9913653072393848</v>
       </c>
       <c r="L45">
-        <v>0.613686983194635</v>
+        <v>0.9955336528397355</v>
       </c>
       <c r="M45">
-        <v>0.6414223071863793</v>
+        <v>0.8766821452071012</v>
       </c>
       <c r="N45">
-        <v>0.5915756108340018</v>
+        <v>0.151804159950694</v>
       </c>
       <c r="O45">
-        <v>0.6894056559700245</v>
+        <v>0.9473189997955802</v>
       </c>
       <c r="P45">
-        <v>0.5321899397298699</v>
+        <v>0.8977541845520096</v>
       </c>
       <c r="Q45">
-        <v>0.6897243906314022</v>
+        <v>0.8696189831170926</v>
       </c>
       <c r="R45">
-        <v>0.538777087177913</v>
+        <v>0.8721609834213718</v>
       </c>
       <c r="S45">
-        <v>0.5215620975434372</v>
+        <v>0.8281418895134066</v>
       </c>
       <c r="T45">
-        <v>0.5482592161579202</v>
+        <v>0.9814166803797824</v>
       </c>
       <c r="U45">
-        <v>0.5694714470663526</v>
+        <v>0.9356543313552641</v>
       </c>
       <c r="V45">
-        <v>0.5621306999468445</v>
+        <v>0.9584715465058378</v>
       </c>
       <c r="W45">
-        <v>0.694183826870137</v>
+        <v>0.1786542704474103</v>
       </c>
       <c r="X45">
-        <v>0.5714784105992547</v>
+        <v>0.9901923575772433</v>
       </c>
       <c r="Y45">
-        <v>0.6426662806224983</v>
+        <v>0.6299302993115319</v>
       </c>
       <c r="Z45">
-        <v>0.5624675319802883</v>
+        <v>0.8277758561707064</v>
       </c>
       <c r="AA45">
-        <v>0.5479524516886221</v>
+        <v>0.9340167363152656</v>
       </c>
       <c r="AB45">
-        <v>0.5621679794451236</v>
+        <v>0.9638804022405092</v>
       </c>
       <c r="AC45">
-        <v>0.8248980114746559</v>
+        <v>0.4526555565291382</v>
       </c>
       <c r="AD45">
-        <v>0.8546398493480888</v>
+        <v>0.9668947383988296</v>
       </c>
       <c r="AE45">
-        <v>0.6409853782155517</v>
+        <v>0.8956235677079817</v>
       </c>
       <c r="AF45">
-        <v>0.7907249380532697</v>
+        <v>0.9920003494873022</v>
       </c>
       <c r="AG45">
-        <v>0.8723655638867072</v>
+        <v>0.9502078014934173</v>
       </c>
       <c r="AH45">
-        <v>0.6333114733400272</v>
+        <v>0.9577014836772242</v>
       </c>
       <c r="AI45">
-        <v>0.8349827703463435</v>
+        <v>0.8511581776064487</v>
       </c>
       <c r="AJ45">
-        <v>0.778008666418098</v>
+        <v>0.7999373593902531</v>
       </c>
       <c r="AK45">
-        <v>0.7002151476521068</v>
+        <v>0.9061792901903309</v>
       </c>
       <c r="AL45">
-        <v>0.5473897471946232</v>
+        <v>0.9168804928024517</v>
       </c>
       <c r="AM45">
-        <v>0.7888601376820801</v>
+        <v>0.899504590272084</v>
       </c>
       <c r="AN45">
-        <v>0.747499180857828</v>
+        <v>0.8945983015162132</v>
       </c>
       <c r="AO45">
-        <v>0.7592479001835927</v>
+        <v>0.8765327745957385</v>
       </c>
       <c r="AP45">
-        <v>0.672824536200973</v>
+        <v>0.9078982706921555</v>
       </c>
       <c r="AQ45">
-        <v>0.7276439269439723</v>
+        <v>0.8714970528177642</v>
       </c>
       <c r="AR45">
-        <v>0.8894672088612172</v>
+        <v>0.9206095733364631</v>
       </c>
       <c r="AS45">
         <v>1</v>
       </c>
       <c r="AT45">
-        <v>0.7674919755215701</v>
+        <v>0.927757379710428</v>
       </c>
     </row>
     <row r="46" spans="1:46">
@@ -6814,136 +6814,136 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8802706424449871</v>
+        <v>0.1871466169241719</v>
       </c>
       <c r="C46">
-        <v>0.7517495086315076</v>
+        <v>0.340630933273781</v>
       </c>
       <c r="D46">
-        <v>0.4431135742504076</v>
+        <v>0.3952671638802058</v>
       </c>
       <c r="E46">
-        <v>0.52109805401461</v>
+        <v>0.7333904488386367</v>
       </c>
       <c r="F46">
-        <v>0.9234648235410441</v>
+        <v>0.1058431625746351</v>
       </c>
       <c r="G46">
-        <v>0.4853065294867511</v>
+        <v>0.9647366880234878</v>
       </c>
       <c r="H46">
-        <v>0.9100287292041018</v>
+        <v>0.1263969325469475</v>
       </c>
       <c r="I46">
-        <v>0.6438743543167007</v>
+        <v>0.2885690152465005</v>
       </c>
       <c r="J46">
-        <v>0.4046149124159838</v>
+        <v>0.5498887554173348</v>
       </c>
       <c r="K46">
-        <v>0.6382936528102392</v>
+        <v>0.9191818173511235</v>
       </c>
       <c r="L46">
-        <v>0.4436600424250776</v>
+        <v>0.9322262126950036</v>
       </c>
       <c r="M46">
-        <v>0.4647922311945691</v>
+        <v>0.9483645894235879</v>
       </c>
       <c r="N46">
-        <v>0.8001192146775296</v>
+        <v>0.1413151136337148</v>
       </c>
       <c r="O46">
-        <v>0.5020369363096963</v>
+        <v>0.980339723635951</v>
       </c>
       <c r="P46">
-        <v>0.383129419084724</v>
+        <v>0.9697045561011968</v>
       </c>
       <c r="Q46">
-        <v>0.5022868265550493</v>
+        <v>0.7998248370789889</v>
       </c>
       <c r="R46">
-        <v>0.3879477079033857</v>
+        <v>0.943786602402047</v>
       </c>
       <c r="S46">
-        <v>0.3754012879586472</v>
+        <v>0.8988307549286556</v>
       </c>
       <c r="T46">
-        <v>0.3949003380707311</v>
+        <v>0.9462128123831868</v>
       </c>
       <c r="U46">
-        <v>0.4105443147640842</v>
+        <v>0.9920764544851517</v>
       </c>
       <c r="V46">
-        <v>0.4051011617209535</v>
+        <v>0.9691557256997669</v>
       </c>
       <c r="W46">
-        <v>0.9194435785962705</v>
+        <v>0.1651081643654157</v>
       </c>
       <c r="X46">
-        <v>0.412034849348508</v>
+        <v>0.937502487397763</v>
       </c>
       <c r="Y46">
-        <v>0.465747182202722</v>
+        <v>0.5721387632153616</v>
       </c>
       <c r="Z46">
-        <v>0.4053563756210866</v>
+        <v>0.8984520487995625</v>
       </c>
       <c r="AA46">
-        <v>0.3946593527095124</v>
+        <v>0.8625931915900125</v>
       </c>
       <c r="AB46">
-        <v>0.4051429525958641</v>
+        <v>0.8919991700411647</v>
       </c>
       <c r="AC46">
-        <v>0.6122879269041877</v>
+        <v>0.4094705929291534</v>
       </c>
       <c r="AD46">
-        <v>0.6375504880149214</v>
+        <v>0.9607361494177271</v>
       </c>
       <c r="AE46">
-        <v>0.8585459827464526</v>
+        <v>0.9675891733562534</v>
       </c>
       <c r="AF46">
-        <v>0.5837146184798561</v>
+        <v>0.9357096858907308</v>
       </c>
       <c r="AG46">
-        <v>0.8910145300251369</v>
+        <v>0.977427916925744</v>
       </c>
       <c r="AH46">
-        <v>0.8495549403011691</v>
+        <v>0.8859479339697632</v>
       </c>
       <c r="AI46">
-        <v>0.9290273484606252</v>
+        <v>0.7818620043326368</v>
       </c>
       <c r="AJ46">
-        <v>0.5732237913408296</v>
+        <v>0.7325789195169354</v>
       </c>
       <c r="AK46">
-        <v>0.5105192380823644</v>
+        <v>0.8353748501404838</v>
       </c>
       <c r="AL46">
-        <v>0.7461708110653613</v>
+        <v>0.989034452429209</v>
       </c>
       <c r="AM46">
-        <v>0.5821615298377201</v>
+        <v>0.9714962981241981</v>
       </c>
       <c r="AN46">
-        <v>0.9783297820942838</v>
+        <v>0.9665355300443885</v>
       </c>
       <c r="AO46">
-        <v>0.557891177673588</v>
+        <v>0.9482172830347377</v>
       </c>
       <c r="AP46">
-        <v>0.8952698536327716</v>
+        <v>0.980000213378179</v>
       </c>
       <c r="AQ46">
-        <v>0.5323765475170384</v>
+        <v>0.9431085556351277</v>
       </c>
       <c r="AR46">
-        <v>0.8738948300858909</v>
+        <v>0.8494908230834286</v>
       </c>
       <c r="AS46">
-        <v>0.7674919755215701</v>
+        <v>0.927757379710428</v>
       </c>
       <c r="AT46">
         <v>1</v>
